--- a/Technology/Hardware/Super Micro Computer.xlsx
+++ b/Technology/Hardware/Super Micro Computer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E841CEB-CB80-714D-8B6D-B86AB46BF070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E85B3A-A293-0C47-9634-3B3866D4F2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24200" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2368,13 +2368,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>119.2376</v>
+    <v>171.67</v>
     <v>37.01</v>
-    <v>1.2511000000000001</v>
-    <v>-0.69</v>
-    <v>-6.3880000000000004E-3</v>
-    <v>-0.9</v>
-    <v>-8.3859999999999994E-3</v>
+    <v>1.2153</v>
+    <v>0.62</v>
+    <v>3.7759999999999998E-3</v>
+    <v>0.4899</v>
+    <v>2.9729999999999999E-3</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is a global technology company. The Company provides Silicon Valley-based accelerated compute platforms that are application-optimized server and storage systems for various markets, including enterprise data centers, cloud computing, artificial intelligence, fifth generation (5G) and edge computing. The Company’s solutions include artificial intelligence (AI) and high-performance computing (HPC), enterprise applications and data analytics, data management, cloud and virtualization, 5G, edge computing and Internet of things (IoT), and hyperscale infrastructure. The Company also provides global support and services to help customers install, upgrade, and maintain their computing infrastructure. The Company offers an array of products which include servers and storage, building blocks, IoT and embedded, networking, and workstations and gaming products. The Company operates in United States, Asia and Europe.</v>
     <v>4607</v>
@@ -2382,25 +2382,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Ave, SAN JOSE, CA, 95131-1615 US</v>
-    <v>108.07</v>
+    <v>169.41</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45037.99168585625</v>
+    <v>45068.999188992966</v>
     <v>0</v>
-    <v>102.3279</v>
-    <v>5660542000</v>
+    <v>162.55000000000001</v>
+    <v>8650628036</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>106.99</v>
-    <v>10.2707</v>
-    <v>108.01</v>
-    <v>107.32</v>
-    <v>106.42</v>
-    <v>52744530</v>
+    <v>164.2</v>
+    <v>15.4724</v>
+    <v>164.19</v>
+    <v>164.81</v>
+    <v>165.29990000000001</v>
+    <v>52488490</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>1098700</v>
-    <v>1594725</v>
+    <v>1753740</v>
+    <v>2028283</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2988,10 +2988,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z66" sqref="Z66"/>
+      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4343,15 +4343,15 @@
       </c>
       <c r="AC16" s="30">
         <f>AD101/V3</f>
-        <v>1.0893830159894953</v>
+        <v>1.6648312582189062</v>
       </c>
       <c r="AD16" s="30">
         <f>AD101/V28</f>
-        <v>19.850197956957949</v>
+        <v>30.33573091880784</v>
       </c>
       <c r="AE16" s="31">
         <f>AD101/V106</f>
-        <v>-11.647613188115633</v>
+        <v>-17.800268807756648</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="AD95" s="38" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.2511000000000001</v>
+        <v>1.2153</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="AD97" s="36">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.4809855000000012E-2</v>
+        <v>9.3268665000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10278,7 +10278,7 @@
       </c>
       <c r="AD100" s="34">
         <f>AD99/AD103</f>
-        <v>9.8798523699488591E-2</v>
+        <v>6.6934650645823379E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5660542000</v>
+        <v>8650628036</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10428,7 +10428,7 @@
       </c>
       <c r="AD102" s="34">
         <f>AD101/AD103</f>
-        <v>0.90120147630051139</v>
+        <v>0.93306534935417662</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="AD103" s="40">
         <f>AD99+AD101</f>
-        <v>6281106000</v>
+        <v>9271192036</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>8.6303503609969981E-2</v>
+        <v>8.7608887107457817E-2</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10745,24 +10745,24 @@
         <v>-485983000</v>
       </c>
       <c r="W106" s="41">
-        <f>V106*(1+$AD$106)</f>
-        <v>-545589455.66379464</v>
+        <f>V107*(1+$AD$106)</f>
+        <v>273926921.68649089</v>
       </c>
       <c r="X106" s="41">
         <f t="shared" ref="X106:AA106" si="9">W106*(1+$AD$106)</f>
-        <v>-612506721.69914532</v>
+        <v>307524419.7731021</v>
       </c>
       <c r="Y106" s="41">
         <f t="shared" si="9"/>
-        <v>-687631478.63660264</v>
+        <v>345242695.29454952</v>
       </c>
       <c r="Z106" s="41">
         <f t="shared" si="9"/>
-        <v>-771970386.05596137</v>
+        <v>387587167.03599632</v>
       </c>
       <c r="AA106" s="41">
         <f t="shared" si="9"/>
-        <v>-866653571.66164541</v>
+        <v>435125244.06294358</v>
       </c>
       <c r="AB106" s="42" t="s">
         <v>146</v>
@@ -10797,14 +10797,16 @@
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
       <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
+      <c r="V107" s="1">
+        <v>244000000</v>
+      </c>
       <c r="W107" s="42"/>
       <c r="X107" s="42"/>
       <c r="Y107" s="42"/>
       <c r="Z107" s="42"/>
       <c r="AA107" s="45">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>-14490524336.177032</v>
+        <v>7123643236.1275787</v>
       </c>
       <c r="AB107" s="46" t="s">
         <v>148</v>
@@ -10819,23 +10821,23 @@
     <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="W108" s="45">
         <f t="shared" ref="W108:Y108" si="10">W107+W106</f>
-        <v>-545589455.66379464</v>
+        <v>273926921.68649089</v>
       </c>
       <c r="X108" s="45">
         <f t="shared" si="10"/>
-        <v>-612506721.69914532</v>
+        <v>307524419.7731021</v>
       </c>
       <c r="Y108" s="45">
         <f t="shared" si="10"/>
-        <v>-687631478.63660264</v>
+        <v>345242695.29454952</v>
       </c>
       <c r="Z108" s="45">
         <f>Z107+Z106</f>
-        <v>-771970386.05596137</v>
+        <v>387587167.03599632</v>
       </c>
       <c r="AA108" s="45">
         <f>AA107+AA106</f>
-        <v>-15357177907.838678</v>
+        <v>7558768480.1905222</v>
       </c>
       <c r="AB108" s="46" t="s">
         <v>144</v>
@@ -10845,7 +10847,7 @@
       </c>
       <c r="AD108" s="50">
         <f>AD105</f>
-        <v>8.6303503609969981E-2</v>
+        <v>8.7608887107457817E-2</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10860,7 +10862,7 @@
       </c>
       <c r="X110" s="39">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>-12264166236.999699</v>
+        <v>6024111723.3737307</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10887,7 +10889,7 @@
       </c>
       <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>-12617333236.999699</v>
+        <v>5670944723.3737307</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10905,7 +10907,7 @@
       </c>
       <c r="X115" s="54">
         <f>X113/X114</f>
-        <v>-226.89892451736131</v>
+        <v>101.9812376007974</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10914,7 +10916,7 @@
       </c>
       <c r="X116" s="55" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price",TRUE)</f>
-        <v>107.32</v>
+        <v>164.81</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -10923,7 +10925,7 @@
       </c>
       <c r="X117" s="57">
         <f>X115/X116-1</f>
-        <v>-3.1142277722452603</v>
+        <v>-0.38121935804382379</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Super Micro Computer.xlsx
+++ b/Technology/Hardware/Super Micro Computer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E85B3A-A293-0C47-9634-3B3866D4F2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFEC1A4-15F5-534E-9E44-62CFDF22673E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="162">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,6 +541,21 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
   </si>
 </sst>
 </file>
@@ -893,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -977,7 +983,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1026,6 +1031,11 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1381,11 +1391,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1425,7 +1435,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$V$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$V$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2368,39 +2378,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>171.67</v>
+    <v>270.18</v>
     <v>37.01</v>
-    <v>1.2153</v>
-    <v>0.62</v>
-    <v>3.7759999999999998E-3</v>
-    <v>0.4899</v>
-    <v>2.9729999999999999E-3</v>
+    <v>1.1637999999999999</v>
+    <v>6.55</v>
+    <v>2.9784999999999999E-2</v>
     <v>USD</v>
-    <v>Super Micro Computer, Inc. is a global technology company. The Company provides Silicon Valley-based accelerated compute platforms that are application-optimized server and storage systems for various markets, including enterprise data centers, cloud computing, artificial intelligence, fifth generation (5G) and edge computing. The Company’s solutions include artificial intelligence (AI) and high-performance computing (HPC), enterprise applications and data analytics, data management, cloud and virtualization, 5G, edge computing and Internet of things (IoT), and hyperscale infrastructure. The Company also provides global support and services to help customers install, upgrade, and maintain their computing infrastructure. The Company offers an array of products which include servers and storage, building blocks, IoT and embedded, networking, and workstations and gaming products. The Company operates in United States, Asia and Europe.</v>
+    <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>4607</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Ave, SAN JOSE, CA, 95131-1615 US</v>
-    <v>169.41</v>
+    <v>241.9699</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45068.999188992966</v>
+    <v>45099.999989131247</v>
     <v>0</v>
-    <v>162.55000000000001</v>
-    <v>8650628036</v>
+    <v>221.14</v>
+    <v>11542750000</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>164.2</v>
-    <v>15.4724</v>
-    <v>164.19</v>
-    <v>164.81</v>
-    <v>165.29990000000001</v>
+    <v>221.99</v>
+    <v>21.340399999999999</v>
+    <v>219.91</v>
+    <v>226.46</v>
     <v>52488490</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>1753740</v>
-    <v>2028283</v>
+    <v>3864</v>
+    <v>3211314</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2432,8 +2439,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2454,7 +2459,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2471,7 +2475,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2482,16 +2486,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2557,19 +2558,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2614,9 +2609,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2624,9 +2616,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2988,10 +2977,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
+      <selection pane="bottomRight" activeCell="W129" sqref="W129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3089,76 +3078,76 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
@@ -3235,36 +3224,36 @@
         <v>5196099000</v>
       </c>
       <c r="W3" s="28">
-        <v>6761000000</v>
+        <v>6740000000</v>
       </c>
       <c r="X3" s="28">
-        <v>7812000000</v>
+        <v>8060000000</v>
       </c>
       <c r="Y3" s="28">
-        <v>8300000000</v>
+        <v>9500000000</v>
       </c>
       <c r="Z3" s="28">
-        <v>8700000000</v>
+        <v>10500000000</v>
       </c>
       <c r="AA3" s="28">
-        <v>9100000000</v>
+        <v>11200000000</v>
       </c>
       <c r="AB3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AE3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3349,23 +3338,23 @@
       </c>
       <c r="W4" s="16">
         <f t="shared" si="0"/>
-        <v>0.30116843424268858</v>
+        <v>0.29712694080693991</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15545037716314147</v>
+        <v>0.19584569732937696</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>6.246799795186897E-2</v>
+        <v>0.17866004962779147</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>4.8192771084337283E-2</v>
+        <v>0.10526315789473695</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>4.5977011494252817E-2</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="AB4" s="17">
         <f>(V4+U4+T4)/3</f>
@@ -3380,7 +3369,7 @@
         <v>0.68277048318359268</v>
       </c>
       <c r="AE4" s="17">
-        <f>(V105+U105+T105)/3</f>
+        <f>(V106+U106+T106)/3</f>
         <v>-0.40145301622836621</v>
       </c>
     </row>
@@ -3395,7 +3384,7 @@
         <v>113853000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1">
         <v>178293000</v>
@@ -3463,7 +3452,7 @@
         <v>23308000</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="10">
         <v>33470000</v>
@@ -3520,16 +3509,16 @@
         <v>800001000</v>
       </c>
       <c r="AB6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AE6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AD6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -3543,7 +3532,7 @@
         <v>0.1699</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>0.15809999999999999</v>
@@ -3612,7 +3601,7 @@
         <v>5.4899999999999997E-2</v>
       </c>
       <c r="AE7" s="20">
-        <f>V106/V3</f>
+        <f>V107/V3</f>
         <v>-9.3528433542163072E-2</v>
       </c>
     </row>
@@ -3627,7 +3616,7 @@
         <v>6858000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1">
         <v>10609000</v>
@@ -3686,7 +3675,7 @@
     </row>
     <row r="9" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3773,16 +3762,16 @@
         <v>5.2399502011027888E-2</v>
       </c>
       <c r="AB9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AC9" s="19" t="s">
+      <c r="AD9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AE9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -3790,19 +3779,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1">
         <v>24053000</v>
@@ -3874,25 +3863,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1">
         <v>17119000</v>
@@ -3948,7 +3937,7 @@
         <v>9222000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1">
         <v>12577000</v>
@@ -4005,21 +3994,21 @@
         <v>192561000</v>
       </c>
       <c r="AB12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AC12" s="19" t="s">
+      <c r="AE12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AD12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4127,13 +4116,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>1178000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1">
         <v>-1178000</v>
@@ -4145,49 +4134,49 @@
         <v>-120000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -4201,7 +4190,7 @@
         <v>17258000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1">
         <v>22008000</v>
@@ -4258,16 +4247,16 @@
         <v>464834000</v>
       </c>
       <c r="AB15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AC15" s="19" t="s">
+      <c r="AE15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AD15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4281,7 +4270,7 @@
         <v>131111000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1">
         <v>200301000</v>
@@ -4343,15 +4332,15 @@
       </c>
       <c r="AC16" s="30">
         <f>AD101/V3</f>
-        <v>1.6648312582189062</v>
+        <v>2.221426112166069</v>
       </c>
       <c r="AD16" s="30">
         <f>AD101/V28</f>
-        <v>30.33573091880784</v>
+        <v>40.477726773810069</v>
       </c>
       <c r="AE16" s="31">
-        <f>AD101/V106</f>
-        <v>-17.800268807756648</v>
+        <f>AD101/V107</f>
+        <v>-23.751345211663782</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -4359,25 +4348,25 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1">
         <v>930000</v>
@@ -4427,13 +4416,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1">
         <v>922000</v>
@@ -4490,7 +4479,7 @@
         <v>32471000</v>
       </c>
       <c r="AB18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -4567,7 +4556,7 @@
     </row>
     <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4866,7 +4855,7 @@
         <v>-677000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1">
         <v>-733000</v>
@@ -4934,7 +4923,7 @@
         <v>5373000</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10">
         <v>10729000</v>
@@ -5002,7 +4991,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2">
         <v>5.0700000000000002E-2</v>
@@ -5070,7 +5059,7 @@
         <v>-1856000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1">
         <v>3639000</v>
@@ -5197,7 +5186,7 @@
     </row>
     <row r="29" spans="1:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5623,7 +5612,7 @@
     </row>
     <row r="35" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -5712,67 +5701,67 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="21" x14ac:dyDescent="0.25">
@@ -5780,67 +5769,67 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -5848,7 +5837,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>3970000</v>
@@ -5916,13 +5905,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1">
         <v>1767000</v>
@@ -5946,37 +5935,37 @@
         <v>59000</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -5984,7 +5973,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>3970000</v>
@@ -6052,13 +6041,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>13523000</v>
@@ -6120,13 +6109,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1">
         <v>40525000</v>
@@ -6188,13 +6177,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1">
         <v>3444000</v>
@@ -6256,13 +6245,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10">
         <v>70429000</v>
@@ -6324,13 +6313,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1">
         <v>19077000</v>
@@ -6392,67 +6381,67 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -6460,67 +6449,67 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -6528,67 +6517,67 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -6596,25 +6585,25 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1">
         <v>14355000</v>
@@ -6664,19 +6653,19 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1">
         <v>624000</v>
@@ -6732,13 +6721,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>156000</v>
@@ -6800,13 +6789,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1">
         <v>19233000</v>
@@ -6868,7 +6857,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1">
         <v>40136000</v>
@@ -6877,58 +6866,58 @@
         <v>50796000</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6936,7 +6925,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>40136000</v>
@@ -7004,13 +6993,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>37748000</v>
@@ -7072,19 +7061,19 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1">
         <v>422000</v>
@@ -7140,61 +7129,61 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1">
         <v>12741000</v>
@@ -7208,37 +7197,37 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1">
         <v>1220000</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1">
         <v>1000000</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1">
         <v>4134000</v>
@@ -7276,13 +7265,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1">
         <v>9759000</v>
@@ -7344,13 +7333,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10">
         <v>47507000</v>
@@ -7412,7 +7401,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1">
         <v>9506000</v>
@@ -7436,7 +7425,7 @@
         <v>9675000</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1">
         <v>27596000</v>
@@ -7460,10 +7449,10 @@
         <v>92927000</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T61" s="1">
         <v>5697000</v>
@@ -7480,46 +7469,46 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1">
         <v>21940000</v>
@@ -7548,13 +7537,13 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1">
         <v>456000</v>
@@ -7563,52 +7552,52 @@
         <v>398000</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7616,13 +7605,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1">
         <v>57000</v>
@@ -7684,7 +7673,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>9506000</v>
@@ -7752,7 +7741,7 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1">
         <v>17776000</v>
@@ -7761,58 +7750,58 @@
         <v>25270000</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7820,7 +7809,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>27282000</v>
@@ -7888,25 +7877,25 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1">
         <v>81893000</v>
@@ -7956,13 +7945,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>22847000</v>
@@ -8024,13 +8013,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1">
         <v>-2781000</v>
@@ -8092,7 +8081,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>12854000</v>
@@ -8149,10 +8138,10 @@
         <v>106103000</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8160,7 +8149,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>12854000</v>
@@ -8228,7 +8217,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>40136000</v>
@@ -8296,67 +8285,67 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="21" x14ac:dyDescent="0.25">
@@ -8364,67 +8353,67 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8432,10 +8421,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1">
         <v>7090000</v>
@@ -8500,10 +8489,10 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1">
         <v>922000</v>
@@ -8556,8 +8545,8 @@
       <c r="T77" s="1">
         <v>28185000</v>
       </c>
-      <c r="U77" s="1" t="s">
-        <v>92</v>
+      <c r="U77" s="1">
+        <v>28185000</v>
       </c>
       <c r="V77" s="1">
         <v>32471000</v>
@@ -8568,10 +8557,10 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1">
         <v>133000</v>
@@ -8636,22 +8625,22 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1">
         <v>5661000</v>
@@ -8693,7 +8682,7 @@
         <v>28549000</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1">
         <v>32816000</v>
@@ -8701,7 +8690,7 @@
     </row>
     <row r="80" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:V80" si="6">B79/B3</f>
@@ -8793,10 +8782,10 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1">
         <v>-8066000</v>
@@ -8849,8 +8838,8 @@
       <c r="T81" s="1">
         <v>-44504000</v>
       </c>
-      <c r="U81" s="1" t="s">
-        <v>92</v>
+      <c r="U81" s="1">
+        <v>-44504000</v>
       </c>
       <c r="V81" s="1">
         <v>-784099000</v>
@@ -8861,22 +8850,22 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1">
         <v>-755000</v>
@@ -8929,10 +8918,10 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1">
         <v>-8904000</v>
@@ -8991,32 +8980,32 @@
       <c r="V83" s="1">
         <v>-519732000</v>
       </c>
-      <c r="AC83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD83" s="62"/>
+      <c r="AC83" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD83" s="61"/>
     </row>
     <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1">
         <v>-6914000</v>
@@ -9063,23 +9052,23 @@
       <c r="V84" s="1">
         <v>50145000</v>
       </c>
-      <c r="AC84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD84" s="64"/>
+      <c r="AC84" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD84" s="63"/>
     </row>
     <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1">
         <v>22922000</v>
@@ -9130,13 +9119,13 @@
         <v>-1452000</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1">
         <v>31544000</v>
       </c>
       <c r="AC85" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AD85" s="24">
         <f>V17</f>
@@ -9148,10 +9137,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1">
         <v>4663000</v>
@@ -9205,13 +9194,13 @@
         <v>7250000</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V86" s="1">
         <v>-335000</v>
       </c>
       <c r="AC86" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD86" s="24">
         <f>V56</f>
@@ -9223,10 +9212,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10">
         <v>4742000</v>
@@ -9280,13 +9269,13 @@
         <v>122955000</v>
       </c>
       <c r="U87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V87" s="10">
         <v>-440801000</v>
       </c>
       <c r="AC87" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD87" s="24">
         <f>V61</f>
@@ -9298,10 +9287,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1">
         <v>-1050000</v>
@@ -9361,7 +9350,7 @@
         <v>-45182000</v>
       </c>
       <c r="AC88" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AD88" s="34">
         <f>AD85/(AD86+AD87)</f>
@@ -9370,7 +9359,7 @@
     </row>
     <row r="89" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:V89" si="7">(-1*B88)/B3</f>
@@ -9457,7 +9446,7 @@
         <v>8.6953693530473532E-3</v>
       </c>
       <c r="AC89" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD89" s="24">
         <f>V27</f>
@@ -9469,67 +9458,67 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC90" s="23" t="s">
         <v>19</v>
@@ -9544,10 +9533,10 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>-1767000</v>
@@ -9574,40 +9563,40 @@
         <v>-168000</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1">
         <v>-661000</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1">
         <v>-2100000</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1">
         <v>-1100000</v>
       </c>
       <c r="AC91" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AD91" s="34">
         <f>AD89/AD90</f>
@@ -9619,10 +9608,10 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1">
         <v>200000</v>
@@ -9652,37 +9641,37 @@
         <v>300000</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1">
         <v>1000000</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC92" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AD92" s="36">
         <f>AD88*(1-AD91)</f>
@@ -9694,10 +9683,10 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>1753000</v>
@@ -9715,7 +9704,7 @@
         <v>-38000</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1">
         <v>-123000</v>
@@ -9739,37 +9728,37 @@
         <v>-340000</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S93" s="1">
         <v>750000</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD93" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AC93" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD93" s="63"/>
     </row>
     <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10">
         <v>-864000</v>
@@ -9829,7 +9818,7 @@
         <v>-46282000</v>
       </c>
       <c r="AC94" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AD94" s="37">
         <v>4.095E-2</v>
@@ -9840,22 +9829,22 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1">
         <v>-364000</v>
@@ -9897,17 +9886,17 @@
         <v>-60629000</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1">
         <v>-640695000</v>
       </c>
       <c r="AC95" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AD95" s="38" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.2153</v>
+        <v>1.1637999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9915,10 +9904,10 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>44000</v>
@@ -9933,52 +9922,52 @@
         <v>2932000</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AD96" s="37">
         <v>8.4000000000000005E-2</v>
@@ -9989,74 +9978,74 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-2030000</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1">
         <v>-18461000</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1">
         <v>-130000000</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC97" s="35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AD97" s="36">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.3268665000000001E-2</v>
+        <v>9.1051590000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10064,82 +10053,82 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD98" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AC98" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD98" s="63"/>
     </row>
     <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1">
         <v>-111000</v>
@@ -10193,13 +10182,13 @@
         <v>146189000</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V99" s="1">
         <v>1163566000</v>
       </c>
       <c r="AC99" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AD99" s="24">
         <f>AD86+AD87</f>
@@ -10211,10 +10200,10 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10">
         <v>-67000</v>
@@ -10268,17 +10257,17 @@
         <v>-44440000</v>
       </c>
       <c r="U100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V100" s="10">
         <v>522871000</v>
       </c>
       <c r="AC100" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AD100" s="34">
         <f>AD99/AD103</f>
-        <v>6.6934650645823379E-2</v>
+        <v>5.1019319241450152E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10286,31 +10275,31 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1">
         <v>318000</v>
@@ -10343,17 +10332,17 @@
         <v>560000</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V101" s="1">
         <v>-678000</v>
       </c>
       <c r="AC101" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>8650628036</v>
+        <v>11542750000</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10361,10 +10350,10 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10">
         <v>3811000</v>
@@ -10418,17 +10407,17 @@
         <v>21059000</v>
       </c>
       <c r="U102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V102" s="10">
         <v>35110000</v>
       </c>
       <c r="AC102" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AD102" s="34">
         <f>AD101/AD103</f>
-        <v>0.93306534935417662</v>
+        <v>0.9489806807585498</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10436,10 +10425,10 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1">
         <v>7359000</v>
@@ -10499,11 +10488,11 @@
         <v>233449000</v>
       </c>
       <c r="AC103" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD103" s="40">
         <f>AD99+AD101</f>
-        <v>9271192036</v>
+        <v>12163314000</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10511,10 +10500,10 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11">
         <v>11170000</v>
@@ -10568,306 +10557,377 @@
         <v>233449000</v>
       </c>
       <c r="U104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V104" s="11">
         <v>268559000</v>
       </c>
-      <c r="AC104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD104" s="64"/>
+      <c r="AC104" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD104" s="63"/>
     </row>
     <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>159</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" ref="C105:U105" si="8">(C22*(1-$AD$91))+C77+C88+C81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-1.8791982665222102</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-4.6805298829328406</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.79768979660165729</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:V105" si="8">(H106/G106)-1</f>
-        <v>6.5539925527513443</v>
-      </c>
-      <c r="I105" s="15">
+      <c r="D105" s="1">
         <f t="shared" si="8"/>
-        <v>-2.3362361704458321</v>
-      </c>
-      <c r="J105" s="15">
+        <v>132645158.29209134</v>
+      </c>
+      <c r="E105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30659507316473333</v>
-      </c>
-      <c r="K105" s="15">
+        <v>-13326303.251166008</v>
+      </c>
+      <c r="F105" s="1">
         <f t="shared" si="8"/>
-        <v>-0.50375362061831286</v>
-      </c>
-      <c r="L105" s="15">
+        <v>12105745.096234631</v>
+      </c>
+      <c r="G105" s="1">
         <f t="shared" si="8"/>
-        <v>-2.022275163787969</v>
-      </c>
-      <c r="M105" s="15">
+        <v>-11744482.963367604</v>
+      </c>
+      <c r="H105" s="1">
         <f t="shared" si="8"/>
-        <v>-4.9651596364483801</v>
-      </c>
-      <c r="N105" s="15">
+        <v>25395263.721191213</v>
+      </c>
+      <c r="I105" s="1">
         <f t="shared" si="8"/>
-        <v>1.3431778776925563</v>
-      </c>
-      <c r="O105" s="15">
+        <v>-41033252.879023135</v>
+      </c>
+      <c r="J105" s="1">
         <f t="shared" si="8"/>
-        <v>-1.9205503160429416</v>
-      </c>
-      <c r="P105" s="15">
+        <v>-40486144.736412406</v>
+      </c>
+      <c r="K105" s="1">
         <f t="shared" si="8"/>
-        <v>-2.7105080312257326</v>
-      </c>
-      <c r="Q105" s="15">
+        <v>-2632619.4137747809</v>
+      </c>
+      <c r="L105" s="1">
         <f t="shared" si="8"/>
-        <v>-1.4740866407015365</v>
-      </c>
-      <c r="R105" s="15">
+        <v>12106728.337187864</v>
+      </c>
+      <c r="M105" s="1">
         <f t="shared" si="8"/>
-        <v>2.9934983115770373</v>
-      </c>
-      <c r="S105" s="15">
+        <v>-77060259.264977008</v>
+      </c>
+      <c r="N105" s="1">
         <f t="shared" si="8"/>
-        <v>-1.3141372709871479</v>
-      </c>
-      <c r="T105" s="15">
+        <v>-125760047.25487112</v>
+      </c>
+      <c r="O105" s="1">
         <f t="shared" si="8"/>
-        <v>-1.8696566316691665</v>
-      </c>
-      <c r="U105" s="15">
+        <v>108588832.23734015</v>
+      </c>
+      <c r="P105" s="1">
         <f t="shared" si="8"/>
-        <v>3.37561403778931</v>
-      </c>
-      <c r="V105" s="15">
+        <v>-131891298.93448682</v>
+      </c>
+      <c r="Q105" s="1">
         <f t="shared" si="8"/>
-        <v>-2.7103164548052421</v>
-      </c>
-      <c r="W105" s="15"/>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
+        <v>40873534.98914893</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="8"/>
+        <v>195742808.7479552</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="8"/>
+        <v>-98689623.54044883</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="8"/>
+        <v>-2126953.6446844637</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="8"/>
+        <v>372318816.25612694</v>
+      </c>
+      <c r="V105" s="1">
+        <f>(V22*(1-$AD$91))+V77+V88+V81</f>
+        <v>-514257471.53930879</v>
+      </c>
+      <c r="W105" s="41">
+        <f>V105*(1+$AD$106)</f>
+        <v>-601019136.47408175</v>
+      </c>
+      <c r="X105" s="41">
+        <f t="shared" ref="X105:AA105" si="9">W105*(1+$AD$106)</f>
+        <v>-702418579.01803899</v>
+      </c>
+      <c r="Y105" s="41">
+        <f t="shared" si="9"/>
+        <v>-820925375.26215363</v>
+      </c>
+      <c r="Z105" s="41">
+        <f t="shared" si="9"/>
+        <v>-959425749.65973485</v>
+      </c>
+      <c r="AA105" s="41">
+        <f t="shared" si="9"/>
+        <v>-1121292868.8142855</v>
+      </c>
+      <c r="AB105" s="42" t="s">
+        <v>157</v>
+      </c>
       <c r="AC105" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>8.7608887107457817E-2</v>
+        <v>8.6850674789510002E-2</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1">
-        <v>3692000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-3246000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>11947000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>2417000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>18258000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-24397000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>-16917000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>-8395000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>8582000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>-34029000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>-79736000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>73401000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>-125553000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>59523000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>237705000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>-74672000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>64939000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>284148000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>-485983000</v>
-      </c>
-      <c r="W106" s="41">
-        <f>V107*(1+$AD$106)</f>
-        <v>273926921.68649089</v>
-      </c>
-      <c r="X106" s="41">
-        <f t="shared" ref="X106:AA106" si="9">W106*(1+$AD$106)</f>
-        <v>307524419.7731021</v>
-      </c>
-      <c r="Y106" s="41">
-        <f t="shared" si="9"/>
-        <v>345242695.29454952</v>
-      </c>
-      <c r="Z106" s="41">
-        <f t="shared" si="9"/>
-        <v>387587167.03599632</v>
-      </c>
-      <c r="AA106" s="41">
-        <f t="shared" si="9"/>
-        <v>435125244.06294358</v>
+      <c r="A106" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>-1.8791982665222102</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>-4.6805298829328406</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-0.79768979660165729</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>6.5539925527513443</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>-2.3362361704458321</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>-0.30659507316473333</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>-0.50375362061831286</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>-2.022275163787969</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>-4.9651596364483801</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>1.3431778776925563</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>-1.9205503160429416</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-2.7105080312257326</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>-1.4740866407015365</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>2.9934983115770373</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>-1.3141372709871479</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>-1.8696566316691665</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>3.37561403778931</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>-2.7103164548052421</v>
+      </c>
+      <c r="W106" s="64">
+        <v>243700000</v>
+      </c>
+      <c r="X106" s="64">
+        <v>477900000</v>
+      </c>
+      <c r="Y106" s="64">
+        <v>870300000</v>
+      </c>
+      <c r="Z106" s="64">
+        <v>1712000000</v>
+      </c>
+      <c r="AA106" s="64">
+        <v>2200000000</v>
       </c>
       <c r="AB106" s="42" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="AC106" s="43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AD106" s="44">
         <f>(SUM(W4:AA4)/5)</f>
-        <v>0.12265131838725782</v>
+        <v>0.16871250246510239</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
+      <c r="A107" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3692000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-3246000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>11947000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2417000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>18258000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-24397000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-16917000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>-8395000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>8582000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>-34029000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>-79736000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>73401000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>-125553000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>59523000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>237705000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>-74672000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>64939000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>284148000</v>
+      </c>
       <c r="V107" s="1">
-        <v>244000000</v>
+        <v>-485983000</v>
       </c>
       <c r="W107" s="42"/>
       <c r="X107" s="42"/>
       <c r="Y107" s="42"/>
       <c r="Z107" s="42"/>
-      <c r="AA107" s="45">
+      <c r="AA107" s="65">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>7123643236.1275787</v>
-      </c>
-      <c r="AB107" s="46" t="s">
+        <v>36458777655.606964</v>
+      </c>
+      <c r="AB107" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC107" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD107" s="47">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="W108" s="65">
+        <f t="shared" ref="W108:Y108" si="10">W107+W106</f>
+        <v>243700000</v>
+      </c>
+      <c r="X108" s="65">
+        <f t="shared" si="10"/>
+        <v>477900000</v>
+      </c>
+      <c r="Y108" s="65">
+        <f t="shared" si="10"/>
+        <v>870300000</v>
+      </c>
+      <c r="Z108" s="65">
+        <f>Z107+Z106</f>
+        <v>1712000000</v>
+      </c>
+      <c r="AA108" s="65">
+        <f>AA107+AA106</f>
+        <v>38658777655.606964</v>
+      </c>
+      <c r="AB108" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC108" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD108" s="49">
+        <f>AD105</f>
+        <v>8.6850674789510002E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="W109" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="AC107" s="47" t="s">
+      <c r="X109" s="59"/>
+    </row>
+    <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
+      <c r="W110" s="50" t="s">
         <v>149</v>
-      </c>
-      <c r="AD107" s="48">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="45">
-        <f t="shared" ref="W108:Y108" si="10">W107+W106</f>
-        <v>273926921.68649089</v>
-      </c>
-      <c r="X108" s="45">
-        <f t="shared" si="10"/>
-        <v>307524419.7731021</v>
-      </c>
-      <c r="Y108" s="45">
-        <f t="shared" si="10"/>
-        <v>345242695.29454952</v>
-      </c>
-      <c r="Z108" s="45">
-        <f>Z107+Z106</f>
-        <v>387587167.03599632</v>
-      </c>
-      <c r="AA108" s="45">
-        <f>AA107+AA106</f>
-        <v>7558768480.1905222</v>
-      </c>
-      <c r="AB108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC108" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD108" s="50">
-        <f>AD105</f>
-        <v>8.7608887107457817E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="X109" s="60"/>
-    </row>
-    <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="51" t="s">
-        <v>152</v>
       </c>
       <c r="X110" s="39">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>6024111723.3737307</v>
+        <v>28025327410.877781</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="51" t="s">
-        <v>153</v>
+      <c r="W111" s="50" t="s">
+        <v>150</v>
       </c>
       <c r="X111" s="39">
         <f>V40</f>
@@ -10875,8 +10935,8 @@
       </c>
     </row>
     <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="51" t="s">
-        <v>140</v>
+      <c r="W112" s="50" t="s">
+        <v>138</v>
       </c>
       <c r="X112" s="39">
         <f>AD99</f>
@@ -10884,57 +10944,57 @@
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="51" t="s">
-        <v>154</v>
+      <c r="W113" s="50" t="s">
+        <v>151</v>
       </c>
       <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>5670944723.3737307</v>
+        <v>27672160410.877781</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="X114" s="52">
+      <c r="W114" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="X114" s="51">
         <f>V34*(1+(5*AB16))</f>
         <v>55607726.056164168</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="53" t="s">
+      <c r="W115" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="X115" s="53">
+        <f>X113/X114</f>
+        <v>497.63157700296392</v>
+      </c>
+    </row>
+    <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W116" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="X116" s="54" cm="1">
+        <f t="array" ref="X116">_FV(A1,"Price",TRUE)</f>
+        <v>226.46</v>
+      </c>
+    </row>
+    <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W117" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="X117" s="56">
+        <f>X115/X116-1</f>
+        <v>1.197436973430027</v>
+      </c>
+    </row>
+    <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W118" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="X115" s="54">
-        <f>X113/X114</f>
-        <v>101.9812376007974</v>
-      </c>
-    </row>
-    <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="X116" s="55" cm="1">
-        <f t="array" ref="X116">_FV(A1,"Price",TRUE)</f>
-        <v>164.81</v>
-      </c>
-    </row>
-    <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="X117" s="57">
-        <f>X115/X116-1</f>
-        <v>-0.38121935804382379</v>
-      </c>
-    </row>
-    <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="X118" s="58" t="str">
+      <c r="X118" s="57" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -10990,9 +11050,10 @@
     <hyperlink ref="U74" r:id="rId41" tooltip="https://www.sec.gov/Archives/edgar/data/1375365/000137536521000060/0001375365-21-000060-index.htm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="V36" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1375365/000137536522000103/0001375365-22-000103-index.htm" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="V74" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1375365/000137536522000103/0001375365-22-000103-index.htm" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="W1" r:id="rId44" display="https://finbox.com/NYSE:SMCI/explorer/revenue_proj" xr:uid="{AD4FD872-616A-5C45-B4FA-AC5193683BA7}"/>
+    <hyperlink ref="W1" r:id="rId44" display="https://finbox.com/NASDAQGS:SMCI/explorer/revenue_proj" xr:uid="{AD4FD872-616A-5C45-B4FA-AC5193683BA7}"/>
+    <hyperlink ref="AB106" r:id="rId45" xr:uid="{37BD8B5A-81A9-BB4D-A807-8761207444B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId45"/>
+  <drawing r:id="rId46"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Super Micro Computer.xlsx
+++ b/Technology/Hardware/Super Micro Computer.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFEC1A4-15F5-534E-9E44-62CFDF22673E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8FA8EC-CBF5-FD4A-ACC6-3789C25642B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -556,18 +559,35 @@
   </si>
   <si>
     <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -730,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -836,62 +856,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -899,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -941,20 +908,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -963,79 +922,87 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1087,7 +1054,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>SMCI</a:t>
+              <a:t>Super Micro Computer</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1127,9 +1094,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.4490066225165569E-2"/>
-          <c:y val="0.10049957058120029"/>
+          <c:y val="0.14585845976570003"/>
           <c:w val="0.8572317880794702"/>
-          <c:h val="0.79986692030468665"/>
+          <c:h val="0.72402030919915494"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1639,8 +1606,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36544078844449079"/>
-          <c:y val="0.93374413060752726"/>
+          <c:x val="0.36146727851071597"/>
+          <c:y val="0.9154515555982331"/>
           <c:w val="0.30355550920373364"/>
           <c:h val="4.1791037588191388E-2"/>
         </c:manualLayout>
@@ -2229,7 +2196,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2256,6 +2223,68 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>3.8539999999999998E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2380,9 +2409,11 @@
     <v>Powered by Refinitiv</v>
     <v>270.18</v>
     <v>37.01</v>
-    <v>1.1637999999999999</v>
-    <v>6.55</v>
-    <v>2.9784999999999999E-2</v>
+    <v>1.1739999999999999</v>
+    <v>13.32</v>
+    <v>5.6457E-2</v>
+    <v>0.75</v>
+    <v>3.009E-3</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>4607</v>
@@ -2390,24 +2421,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Ave, SAN JOSE, CA, 95131-1615 US</v>
-    <v>241.9699</v>
+    <v>253.96</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45099.999989131247</v>
+    <v>45107.999859027346</v>
     <v>0</v>
-    <v>221.14</v>
-    <v>11542750000</v>
+    <v>239.88</v>
+    <v>13082756132</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>221.99</v>
-    <v>21.340399999999999</v>
-    <v>219.91</v>
-    <v>226.46</v>
+    <v>240</v>
+    <v>22.232800000000001</v>
+    <v>235.93</v>
+    <v>249.25</v>
+    <v>250</v>
     <v>52488490</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>3864</v>
-    <v>3211314</v>
+    <v>2552965</v>
+    <v>3324541</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2439,6 +2471,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2459,6 +2493,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2475,7 +2510,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2486,13 +2521,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2558,13 +2596,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2609,6 +2653,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2616,6 +2663,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2977,10 +3027,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W129" sqref="W129"/>
+      <selection pane="bottomRight" activeCell="AE96" sqref="AE96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3057,19 +3107,19 @@
       <c r="V1" s="8">
         <v>2022</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1" s="23">
         <v>2023</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="23">
         <v>2024</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="23">
         <v>2025</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="23">
         <v>2026</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3223,19 +3273,19 @@
       <c r="V3" s="1">
         <v>5196099000</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="24">
         <v>6740000000</v>
       </c>
-      <c r="X3" s="28">
+      <c r="X3" s="24">
         <v>8060000000</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="Y3" s="24">
         <v>9500000000</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="24">
         <v>10500000000</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="24">
         <v>11200000000</v>
       </c>
       <c r="AB3" s="18" t="s">
@@ -4326,24 +4376,24 @@
       <c r="V16" s="1">
         <v>4860932000</v>
       </c>
-      <c r="AB16" s="29">
+      <c r="AB16" s="25">
         <f>(V35+U35+T35+S35+R35)/5</f>
         <v>7.4334647250365263E-3</v>
       </c>
-      <c r="AC16" s="30">
+      <c r="AC16" s="26">
         <f>AD101/V3</f>
-        <v>2.221426112166069</v>
-      </c>
-      <c r="AD16" s="30">
+        <v>2.5178034775703848</v>
+      </c>
+      <c r="AD16" s="26">
         <f>AD101/V28</f>
-        <v>40.477726773810069</v>
-      </c>
-      <c r="AE16" s="31">
+        <v>45.878168387904459</v>
+      </c>
+      <c r="AE16" s="27">
         <f>AD101/V107</f>
-        <v>-23.751345211663782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+        <v>-26.920192953251451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4411,7 +4461,7 @@
         <v>6413000</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4481,8 +4531,17 @@
       <c r="AB18" s="18" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="AC18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE18" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4549,12 +4608,39 @@
       <c r="V19" s="10">
         <v>376923000</v>
       </c>
-      <c r="AB19" s="32">
+      <c r="W19" s="64">
+        <v>777000000</v>
+      </c>
+      <c r="X19" s="64">
+        <v>976400000</v>
+      </c>
+      <c r="Y19" s="64">
+        <v>1253000000</v>
+      </c>
+      <c r="Z19" s="64">
+        <v>2106000000</v>
+      </c>
+      <c r="AA19" s="64">
+        <v>3235000000</v>
+      </c>
+      <c r="AB19" s="28">
         <f>V40-V56-V61</f>
         <v>-353167000</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC19" s="35">
+        <f>AD101/W3</f>
+        <v>1.941061740652819</v>
+      </c>
+      <c r="AD19" s="36">
+        <f>X116/W31</f>
+        <v>21.321642429426863</v>
+      </c>
+      <c r="AE19" s="37">
+        <f>AD101/W106</f>
+        <v>53.683857743126794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>100</v>
       </c>
@@ -4639,8 +4725,28 @@
         <f t="shared" si="3"/>
         <v>1.5217132420335719</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="W20" s="16">
+        <f t="shared" ref="W20" si="4">(W19/V19)-1</f>
+        <v>1.0614289921283659</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" ref="X20" si="5">(X19/W19)-1</f>
+        <v>0.25662805662805654</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" ref="Y20" si="6">(Y19/X19)-1</f>
+        <v>0.28328553871364193</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" ref="Z20" si="7">(Z19/Y19)-1</f>
+        <v>0.68076616121308864</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" ref="AA20" si="8">(AA19/Z19)-1</f>
+        <v>0.53608736942070268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4707,8 +4813,34 @@
       <c r="V21" s="2">
         <v>7.2499999999999995E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="W21" s="62">
+        <f>W19/W3</f>
+        <v>0.11528189910979228</v>
+      </c>
+      <c r="X21" s="62">
+        <f t="shared" ref="X21:AA21" si="9">X19/X3</f>
+        <v>0.12114143920595534</v>
+      </c>
+      <c r="Y21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.13189473684210526</v>
+      </c>
+      <c r="Z21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.20057142857142857</v>
+      </c>
+      <c r="AA21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.28883928571428569</v>
+      </c>
+      <c r="AD21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE21" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4775,8 +4907,16 @@
       <c r="V22" s="10">
         <v>335167000</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="AD22" s="38">
+        <f>(-1*V98)/AD101</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="39">
+        <f>V107/AD101</f>
+        <v>-3.7146836270325431E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4844,7 +4984,7 @@
         <v>6.4500000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4912,7 +5052,7 @@
         <v>1666000</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4980,7 +5120,7 @@
         <v>336833000</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5048,7 +5188,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5116,7 +5256,7 @@
         <v>52876000</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5183,8 +5323,23 @@
       <c r="V28" s="11">
         <v>285163000</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="61">
+        <v>613700000</v>
+      </c>
+      <c r="X28" s="61">
+        <v>707400000</v>
+      </c>
+      <c r="Y28" s="61">
+        <v>1006000000</v>
+      </c>
+      <c r="Z28" s="61">
+        <v>910900000</v>
+      </c>
+      <c r="AA28" s="61">
+        <v>1096000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>101</v>
       </c>
@@ -5202,75 +5357,95 @@
         <v>0.46065100947672022</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:V29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:V29" si="10">(F28/E28)-1</f>
         <v>1.3902679830747533</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.14114592553254268</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.31439060964889598</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.36634013926590347</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.6710126032159931</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.49407393646665421</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.25762813020664954</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.28720731584765347</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.5450914046712723</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.8808833576453643</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.29296211578296338</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-7.1742963857763686E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.30946540221976249</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.55784685367702802</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.17227954058789186</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.32686103335389283</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.549170875608993</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="W29" s="16">
+        <f t="shared" ref="W29" si="11">(W28/V28)-1</f>
+        <v>1.1521024817385146</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" ref="X29" si="12">(X28/W28)-1</f>
+        <v>0.15268046276682412</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" ref="Y29" si="13">(Y28/X28)-1</f>
+        <v>0.4221091320327961</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" ref="Z29" si="14">(Z28/Y28)-1</f>
+        <v>-9.4532803180914504E-2</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" ref="AA29" si="15">(AA28/Z28)-1</f>
+        <v>0.20320562081457894</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5337,8 +5512,28 @@
       <c r="V30" s="2">
         <v>5.4899999999999997E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="W30" s="62">
+        <f>W28/W3</f>
+        <v>9.1053412462908018E-2</v>
+      </c>
+      <c r="X30" s="62">
+        <f t="shared" ref="X30:AA30" si="16">X28/X3</f>
+        <v>8.7766749379652606E-2</v>
+      </c>
+      <c r="Y30" s="62">
+        <f t="shared" si="16"/>
+        <v>0.10589473684210526</v>
+      </c>
+      <c r="Z30" s="62">
+        <f t="shared" si="16"/>
+        <v>8.6752380952380956E-2</v>
+      </c>
+      <c r="AA30" s="62">
+        <f t="shared" si="16"/>
+        <v>9.7857142857142851E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5405,8 +5600,23 @@
       <c r="V31" s="12">
         <v>5.54</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="W31" s="63">
+        <v>11.69</v>
+      </c>
+      <c r="X31" s="63">
+        <v>13.48</v>
+      </c>
+      <c r="Y31" s="63">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="Z31" s="63">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="AA31" s="63">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5620,79 +5830,79 @@
         <v>3.0606521913308229E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:V35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:V35" si="17">(D34-C34)/C34</f>
         <v>9.0789706911295967E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.9204651357710322E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.1665977185299304E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.5915752332788555E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.14426048208107953</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.0471329424330173E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.0341710422079506E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.076642451163285E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.1419738715731708E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.5490125022649031E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.9329947388799049E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.7012383900928794E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.4774623707430029E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.0287830851145922E-3</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9.1333036629965749E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-8.3411631608214607E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.1695413411710111E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.2661342215829516E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.0184274954678826E-3</v>
       </c>
     </row>
@@ -8693,87 +8903,87 @@
         <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:V80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:V80" si="18">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.0473577389949732E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.2770737862656718E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.1166586733717936E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.087650729591696E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.1205534415519088E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.5151996325354114E-3</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.3368193336704833E-3</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.1013281236267387E-3</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.8758077481536374E-3</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.9222150813966913E-3</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.3038388426456598E-3</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.7676924659177909E-3</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.5494452248852364E-3</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.3155070755965192E-3</v>
       </c>
     </row>
@@ -8980,10 +9190,10 @@
       <c r="V83" s="1">
         <v>-519732000</v>
       </c>
-      <c r="AC83" s="60" t="s">
+      <c r="AC83" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="AD83" s="61"/>
+      <c r="AD83" s="67"/>
     </row>
     <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9052,10 +9262,10 @@
       <c r="V84" s="1">
         <v>50145000</v>
       </c>
-      <c r="AC84" s="62" t="s">
+      <c r="AC84" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="AD84" s="63"/>
+      <c r="AD84" s="68"/>
     </row>
     <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9124,10 +9334,10 @@
       <c r="V85" s="1">
         <v>31544000</v>
       </c>
-      <c r="AC85" s="23" t="s">
+      <c r="AC85" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="AD85" s="24">
+      <c r="AD85" s="41">
         <f>V17</f>
         <v>6413000</v>
       </c>
@@ -9199,10 +9409,10 @@
       <c r="V86" s="1">
         <v>-335000</v>
       </c>
-      <c r="AC86" s="23" t="s">
+      <c r="AC86" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="AD86" s="24">
+      <c r="AD86" s="41">
         <f>V56</f>
         <v>456285000</v>
       </c>
@@ -9274,10 +9484,10 @@
       <c r="V87" s="10">
         <v>-440801000</v>
       </c>
-      <c r="AC87" s="23" t="s">
+      <c r="AC87" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="AD87" s="24">
+      <c r="AD87" s="41">
         <f>V61</f>
         <v>164279000</v>
       </c>
@@ -9349,10 +9559,10 @@
       <c r="V88" s="1">
         <v>-45182000</v>
       </c>
-      <c r="AC88" s="33" t="s">
+      <c r="AC88" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="AD88" s="34">
+      <c r="AD88" s="43">
         <f>AD85/(AD86+AD87)</f>
         <v>1.0334147646334625E-2</v>
       </c>
@@ -9362,93 +9572,93 @@
         <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:V89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:V89" si="19">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.2849789004279771E-3</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.4079324527892034E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.0054835542951203E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.8261816918930623E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.5883075579599003E-3</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.3952935964351902E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.5203302293474979E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.6376485016688204E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.9325655850727011E-3</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.4894513062110291E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.3923086255334985E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.7129756347446581E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.3253907679864306E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>9.9898226468442351E-3</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.3944529551030029E-3</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.2666697139722771E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.7373799928787067E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>-7.9874695776885621E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.6953693530473532E-3</v>
       </c>
-      <c r="AC89" s="23" t="s">
+      <c r="AC89" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="AD89" s="24">
+      <c r="AD89" s="41">
         <f>V27</f>
         <v>52876000</v>
       </c>
@@ -9520,10 +9730,10 @@
       <c r="V90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC90" s="23" t="s">
+      <c r="AC90" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AD90" s="24">
+      <c r="AD90" s="41">
         <f>V25</f>
         <v>336833000</v>
       </c>
@@ -9595,10 +9805,10 @@
       <c r="V91" s="1">
         <v>-1100000</v>
       </c>
-      <c r="AC91" s="33" t="s">
+      <c r="AC91" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="AD91" s="34">
+      <c r="AD91" s="43">
         <f>AD89/AD90</f>
         <v>0.15697986836206665</v>
       </c>
@@ -9670,10 +9880,10 @@
       <c r="V92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC92" s="35" t="s">
+      <c r="AC92" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="AD92" s="36">
+      <c r="AD92" s="43">
         <f>AD88*(1-AD91)</f>
         <v>8.7118945091788549E-3</v>
       </c>
@@ -9745,10 +9955,10 @@
       <c r="V93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC93" s="62" t="s">
+      <c r="AC93" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="AD93" s="63"/>
+      <c r="AD93" s="68"/>
     </row>
     <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9817,11 +10027,12 @@
       <c r="V94" s="10">
         <v>-46282000</v>
       </c>
-      <c r="AC94" s="23" t="s">
+      <c r="AC94" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="AD94" s="37">
-        <v>4.095E-2</v>
+      <c r="AD94" s="44">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9891,12 +10102,12 @@
       <c r="V95" s="1">
         <v>-640695000</v>
       </c>
-      <c r="AC95" s="23" t="s">
+      <c r="AC95" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="AD95" s="38" cm="1">
+      <c r="AD95" s="45" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.1637999999999999</v>
+        <v>1.1739999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9966,10 +10177,10 @@
       <c r="V96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC96" s="23" t="s">
+      <c r="AC96" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AD96" s="37">
+      <c r="AD96" s="44">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10040,12 +10251,12 @@
       <c r="V97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC97" s="35" t="s">
+      <c r="AC97" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="AD97" s="36">
+      <c r="AD97" s="43">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.1051590000000002E-2</v>
+        <v>9.1910039999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10112,13 +10323,13 @@
       <c r="U98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC98" s="62" t="s">
+      <c r="V98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="AD98" s="63"/>
+      <c r="AD98" s="68"/>
     </row>
     <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10187,10 +10398,10 @@
       <c r="V99" s="1">
         <v>1163566000</v>
       </c>
-      <c r="AC99" s="23" t="s">
+      <c r="AC99" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="AD99" s="24">
+      <c r="AD99" s="41">
         <f>AD86+AD87</f>
         <v>620564000</v>
       </c>
@@ -10262,12 +10473,12 @@
       <c r="V100" s="10">
         <v>522871000</v>
       </c>
-      <c r="AC100" s="33" t="s">
+      <c r="AC100" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AD100" s="34">
+      <c r="AD100" s="43">
         <f>AD99/AD103</f>
-        <v>5.1019319241450152E-2</v>
+        <v>4.5285667562480619E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10337,12 +10548,12 @@
       <c r="V101" s="1">
         <v>-678000</v>
       </c>
-      <c r="AC101" s="23" t="s">
+      <c r="AC101" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="AD101" s="39" cm="1">
+      <c r="AD101" s="46" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11542750000</v>
+        <v>13082756132</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10412,12 +10623,12 @@
       <c r="V102" s="10">
         <v>35110000</v>
       </c>
-      <c r="AC102" s="33" t="s">
+      <c r="AC102" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="AD102" s="34">
+      <c r="AD102" s="43">
         <f>AD101/AD103</f>
-        <v>0.9489806807585498</v>
+        <v>0.95471433243751935</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10487,12 +10698,12 @@
       <c r="V103" s="1">
         <v>233449000</v>
       </c>
-      <c r="AC103" s="35" t="s">
+      <c r="AC103" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="AD103" s="40">
+      <c r="AD103" s="47">
         <f>AD99+AD101</f>
-        <v>12163314000</v>
+        <v>13703320132</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10562,124 +10773,124 @@
       <c r="V104" s="11">
         <v>268559000</v>
       </c>
-      <c r="AC104" s="62" t="s">
+      <c r="AC104" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AD104" s="63"/>
+      <c r="AD104" s="68"/>
     </row>
     <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>159</v>
       </c>
       <c r="C105" s="1" t="e">
-        <f t="shared" ref="C105:U105" si="8">(C22*(1-$AD$91))+C77+C88+C81</f>
+        <f t="shared" ref="C105:U105" si="20">(C22*(1-$AD$91))+C77+C88+C81</f>
         <v>#VALUE!</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>132645158.29209134</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-13326303.251166008</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>12105745.096234631</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-11744482.963367604</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>25395263.721191213</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-41033252.879023135</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-40486144.736412406</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-2632619.4137747809</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>12106728.337187864</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-77060259.264977008</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-125760047.25487112</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>108588832.23734015</v>
       </c>
       <c r="P105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-131891298.93448682</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>40873534.98914893</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>195742808.7479552</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-98689623.54044883</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-2126953.6446844637</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>372318816.25612694</v>
       </c>
       <c r="V105" s="1">
         <f>(V22*(1-$AD$91))+V77+V88+V81</f>
         <v>-514257471.53930879</v>
       </c>
-      <c r="W105" s="41">
+      <c r="W105" s="29">
         <f>V105*(1+$AD$106)</f>
         <v>-601019136.47408175</v>
       </c>
-      <c r="X105" s="41">
-        <f t="shared" ref="X105:AA105" si="9">W105*(1+$AD$106)</f>
+      <c r="X105" s="29">
+        <f t="shared" ref="X105:AA105" si="21">W105*(1+$AD$106)</f>
         <v>-702418579.01803899</v>
       </c>
-      <c r="Y105" s="41">
-        <f t="shared" si="9"/>
+      <c r="Y105" s="29">
+        <f t="shared" si="21"/>
         <v>-820925375.26215363</v>
       </c>
-      <c r="Z105" s="41">
-        <f t="shared" si="9"/>
+      <c r="Z105" s="29">
+        <f t="shared" si="21"/>
         <v>-959425749.65973485</v>
       </c>
-      <c r="AA105" s="41">
-        <f t="shared" si="9"/>
+      <c r="AA105" s="29">
+        <f t="shared" si="21"/>
         <v>-1121292868.8142855</v>
       </c>
-      <c r="AB105" s="42" t="s">
+      <c r="AB105" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="AC105" s="25" t="s">
+      <c r="AC105" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="AD105" s="26">
+      <c r="AD105" s="49">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>8.6850674789510002E-2</v>
+        <v>8.8142356441487768E-2</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10688,113 +10899,113 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:V106" si="22">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.8791982665222102</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="22"/>
         <v>-4.6805298829328406</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.79768979660165729</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="22"/>
         <v>6.5539925527513443</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="22"/>
         <v>-2.3362361704458321</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.30659507316473333</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.50375362061831286</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="22"/>
         <v>-2.022275163787969</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="22"/>
         <v>-4.9651596364483801</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="22"/>
         <v>1.3431778776925563</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.9205503160429416</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="22"/>
         <v>-2.7105080312257326</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.4740866407015365</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="22"/>
         <v>2.9934983115770373</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.3141372709871479</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.8696566316691665</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="22"/>
         <v>3.37561403778931</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="22"/>
         <v>-2.7103164548052421</v>
       </c>
-      <c r="W106" s="64">
+      <c r="W106" s="32">
         <v>243700000</v>
       </c>
-      <c r="X106" s="64">
+      <c r="X106" s="32">
         <v>477900000</v>
       </c>
-      <c r="Y106" s="64">
-        <v>870300000</v>
-      </c>
-      <c r="Z106" s="64">
-        <v>1712000000</v>
-      </c>
-      <c r="AA106" s="64">
-        <v>2200000000</v>
-      </c>
-      <c r="AB106" s="42" t="s">
+      <c r="Y106" s="32">
+        <v>645400000</v>
+      </c>
+      <c r="Z106" s="32">
+        <v>1353000000</v>
+      </c>
+      <c r="AA106" s="32">
+        <v>2358000000</v>
+      </c>
+      <c r="AB106" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="AC106" s="43" t="s">
+      <c r="AC106" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="AD106" s="44">
+      <c r="AD106" s="51">
         <f>(SUM(W4:AA4)/5)</f>
         <v>0.16871250246510239</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="66" t="s">
+      <c r="A107" s="34" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -10860,139 +11071,139 @@
       <c r="V107" s="1">
         <v>-485983000</v>
       </c>
-      <c r="W107" s="42"/>
-      <c r="X107" s="42"/>
-      <c r="Y107" s="42"/>
-      <c r="Z107" s="42"/>
-      <c r="AA107" s="65">
+      <c r="W107" s="30"/>
+      <c r="X107" s="30"/>
+      <c r="Y107" s="30"/>
+      <c r="Z107" s="30"/>
+      <c r="AA107" s="33">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>36458777655.606964</v>
-      </c>
-      <c r="AB107" s="45" t="s">
+        <v>38277792217.649002</v>
+      </c>
+      <c r="AB107" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AC107" s="46" t="s">
+      <c r="AC107" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="AD107" s="47">
+      <c r="AD107" s="53">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="65">
-        <f t="shared" ref="W108:Y108" si="10">W107+W106</f>
+      <c r="W108" s="33">
+        <f t="shared" ref="W108:Y108" si="23">W107+W106</f>
         <v>243700000</v>
       </c>
-      <c r="X108" s="65">
-        <f t="shared" si="10"/>
+      <c r="X108" s="33">
+        <f t="shared" si="23"/>
         <v>477900000</v>
       </c>
-      <c r="Y108" s="65">
-        <f t="shared" si="10"/>
-        <v>870300000</v>
-      </c>
-      <c r="Z108" s="65">
+      <c r="Y108" s="33">
+        <f t="shared" si="23"/>
+        <v>645400000</v>
+      </c>
+      <c r="Z108" s="33">
         <f>Z107+Z106</f>
-        <v>1712000000</v>
-      </c>
-      <c r="AA108" s="65">
+        <v>1353000000</v>
+      </c>
+      <c r="AA108" s="33">
         <f>AA107+AA106</f>
-        <v>38658777655.606964</v>
-      </c>
-      <c r="AB108" s="45" t="s">
+        <v>40635792217.649002</v>
+      </c>
+      <c r="AB108" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="AC108" s="48" t="s">
+      <c r="AC108" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="AD108" s="49">
+      <c r="AD108" s="51">
         <f>AD105</f>
-        <v>8.6850674789510002E-2</v>
+        <v>8.8142356441487768E-2</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="58" t="s">
+      <c r="W109" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="X109" s="59"/>
+      <c r="X109" s="65"/>
     </row>
     <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="50" t="s">
+      <c r="W110" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="X110" s="39">
+      <c r="X110" s="46">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>28025327410.877781</v>
+        <v>28730242047.295044</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="50" t="s">
+      <c r="W111" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="X111" s="39">
+      <c r="X111" s="46">
         <f>V40</f>
         <v>267397000</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="50" t="s">
+      <c r="W112" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="X112" s="39">
+      <c r="X112" s="46">
         <f>AD99</f>
         <v>620564000</v>
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="50" t="s">
+      <c r="W113" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="X113" s="39">
+      <c r="X113" s="46">
         <f>X110+X111-X112</f>
-        <v>27672160410.877781</v>
+        <v>28377075047.295044</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="50" t="s">
+      <c r="W114" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="X114" s="51">
+      <c r="X114" s="55">
         <f>V34*(1+(5*AB16))</f>
         <v>55607726.056164168</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="52" t="s">
+      <c r="W115" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="X115" s="53">
+      <c r="X115" s="57">
         <f>X113/X114</f>
-        <v>497.63157700296392</v>
+        <v>510.30813629447846</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="50" t="s">
+      <c r="W116" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="X116" s="54" cm="1">
+      <c r="X116" s="58" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price",TRUE)</f>
-        <v>226.46</v>
+        <v>249.25</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="55" t="s">
+      <c r="W117" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="X117" s="56">
+      <c r="X117" s="59">
         <f>X115/X116-1</f>
-        <v>1.197436973430027</v>
+        <v>1.0473746691854702</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="55" t="s">
+      <c r="W118" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="X118" s="57" t="str">
+      <c r="X118" s="60" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Technology/Hardware/Super Micro Computer.xlsx
+++ b/Technology/Hardware/Super Micro Computer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8FA8EC-CBF5-FD4A-ACC6-3789C25642B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E354D42C-7AB1-0E48-89AF-3EB80A5F0031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -861,12 +861,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -992,6 +1001,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2232,9 +2242,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2243,19 +2251,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
+      <sheetName val="My Stocks"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2266,22 +2277,11 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>3.8539999999999998E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2334,6 +2334,13 @@
           <flag name="ExcludeFromCalcComparison" value="1"/>
         </key>
       </keyFlags>
+      <extLst>
+        <x:ext xmlns:xlrvr="http://schemas.microsoft.com/office/spreadsheetml/2020/richvaluerefresh" uri="{6D21E516-79A1-49C6-A8DF-7D825B72F6C7}">
+          <xlrvr:refreshIntervals>
+            <xlrvr:refreshInterval resourceIdInt="268435456" interval="-1"/>
+          </xlrvr:refreshIntervals>
+        </x:ext>
+      </extLst>
     </type>
     <type name="_linkedentitycore">
       <keyFlags>
@@ -2406,14 +2413,15 @@
     <v>a234r7</v>
     <v>268435456</v>
     <v>1</v>
+    <v>2</v>
     <v>Powered by Refinitiv</v>
     <v>270.18</v>
-    <v>37.01</v>
-    <v>1.1739999999999999</v>
-    <v>13.32</v>
-    <v>5.6457E-2</v>
-    <v>0.75</v>
-    <v>3.009E-3</v>
+    <v>39.619999999999997</v>
+    <v>1.2039</v>
+    <v>9.48</v>
+    <v>3.7839999999999999E-2</v>
+    <v>0.55000000000000004</v>
+    <v>2.1150000000000001E-3</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>4607</v>
@@ -2421,25 +2429,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Ave, SAN JOSE, CA, 95131-1615 US</v>
-    <v>253.96</v>
+    <v>267.77</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45107.999859027346</v>
+    <v>45114.99998037031</v>
     <v>0</v>
-    <v>239.88</v>
-    <v>13082756132</v>
+    <v>254.54759999999999</v>
+    <v>13647530000</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>240</v>
-    <v>22.232800000000001</v>
-    <v>235.93</v>
-    <v>249.25</v>
-    <v>250</v>
+    <v>255</v>
+    <v>23.608599999999999</v>
+    <v>250.53</v>
+    <v>260.01</v>
+    <v>260.56</v>
     <v>52488490</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>2552965</v>
-    <v>3324541</v>
+    <v>2871218</v>
+    <v>2907639</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2465,6 +2473,7 @@
     <k n="%EntityId" t="s"/>
     <k n="%EntityServiceId"/>
     <k n="%IsRefreshable" t="b"/>
+    <k n="%OutdatedReason" t="i"/>
     <k n="%ProviderInfo" t="s"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
@@ -2510,7 +2519,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="46">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2556,6 +2565,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
+      <v t="s">%OutdatedReason</v>
     </a>
   </spbArrays>
   <spbData count="5">
@@ -3027,10 +3037,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE96" sqref="AE96"/>
+      <selection pane="bottomRight" activeCell="X100" sqref="X100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4382,15 +4392,15 @@
       </c>
       <c r="AC16" s="26">
         <f>AD101/V3</f>
-        <v>2.5178034775703848</v>
+        <v>2.6264953766277355</v>
       </c>
       <c r="AD16" s="26">
         <f>AD101/V28</f>
-        <v>45.878168387904459</v>
+        <v>47.858698358482691</v>
       </c>
       <c r="AE16" s="27">
         <f>AD101/V107</f>
-        <v>-26.920192953251451</v>
+        <v>-28.082319751925478</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4629,15 +4639,15 @@
       </c>
       <c r="AC19" s="35">
         <f>AD101/W3</f>
-        <v>1.941061740652819</v>
+        <v>2.0248560830860534</v>
       </c>
       <c r="AD19" s="36">
         <f>X116/W31</f>
-        <v>21.321642429426863</v>
+        <v>22.242087254063303</v>
       </c>
       <c r="AE19" s="37">
         <f>AD101/W106</f>
-        <v>53.683857743126794</v>
+        <v>56.001354123922859</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4813,23 +4823,23 @@
       <c r="V21" s="2">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="W21" s="62">
+      <c r="W21" s="65">
         <f>W19/W3</f>
         <v>0.11528189910979228</v>
       </c>
-      <c r="X21" s="62">
+      <c r="X21" s="65">
         <f t="shared" ref="X21:AA21" si="9">X19/X3</f>
         <v>0.12114143920595534</v>
       </c>
-      <c r="Y21" s="62">
+      <c r="Y21" s="65">
         <f t="shared" si="9"/>
         <v>0.13189473684210526</v>
       </c>
-      <c r="Z21" s="62">
+      <c r="Z21" s="65">
         <f t="shared" si="9"/>
         <v>0.20057142857142857</v>
       </c>
-      <c r="AA21" s="62">
+      <c r="AA21" s="65">
         <f t="shared" si="9"/>
         <v>0.28883928571428569</v>
       </c>
@@ -4913,7 +4923,7 @@
       </c>
       <c r="AE22" s="39">
         <f>V107/AD101</f>
-        <v>-3.7146836270325431E-2</v>
+        <v>-3.5609593823937372E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -9190,10 +9200,10 @@
       <c r="V83" s="1">
         <v>-519732000</v>
       </c>
-      <c r="AC83" s="66" t="s">
+      <c r="AC83" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="AD83" s="67"/>
+      <c r="AD83" s="68"/>
     </row>
     <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9262,10 +9272,10 @@
       <c r="V84" s="1">
         <v>50145000</v>
       </c>
-      <c r="AC84" s="68" t="s">
+      <c r="AC84" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="AD84" s="68"/>
+      <c r="AD84" s="69"/>
     </row>
     <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9955,10 +9965,10 @@
       <c r="V93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC93" s="68" t="s">
+      <c r="AC93" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="AD93" s="68"/>
+      <c r="AD93" s="69"/>
     </row>
     <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10032,7 +10042,7 @@
       </c>
       <c r="AD94" s="44">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10107,7 +10117,7 @@
       </c>
       <c r="AD95" s="45" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.1739999999999999</v>
+        <v>1.2039</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10256,7 +10266,7 @@
       </c>
       <c r="AD97" s="43">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.1910039999999998E-2</v>
+        <v>9.2873728000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10326,10 +10336,10 @@
       <c r="V98" s="1">
         <v>0</v>
       </c>
-      <c r="AC98" s="68" t="s">
+      <c r="AC98" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AD98" s="68"/>
+      <c r="AD98" s="69"/>
     </row>
     <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10478,7 +10488,7 @@
       </c>
       <c r="AD100" s="43">
         <f>AD99/AD103</f>
-        <v>4.5285667562480619E-2</v>
+        <v>4.349312529059593E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10553,7 +10563,7 @@
       </c>
       <c r="AD101" s="46" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>13082756132</v>
+        <v>13647530000</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10628,7 +10638,7 @@
       </c>
       <c r="AD102" s="43">
         <f>AD101/AD103</f>
-        <v>0.95471433243751935</v>
+        <v>0.9565068747094041</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10703,7 +10713,7 @@
       </c>
       <c r="AD103" s="47">
         <f>AD99+AD101</f>
-        <v>13703320132</v>
+        <v>14268094000</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10773,10 +10783,10 @@
       <c r="V104" s="11">
         <v>268559000</v>
       </c>
-      <c r="AC104" s="68" t="s">
+      <c r="AC104" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AD104" s="68"/>
+      <c r="AD104" s="69"/>
     </row>
     <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10890,7 +10900,7 @@
       </c>
       <c r="AD105" s="49">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>8.8142356441487768E-2</v>
+        <v>8.9213266831297447E-2</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11077,7 +11087,7 @@
       <c r="Z107" s="30"/>
       <c r="AA107" s="33">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>38277792217.649002</v>
+        <v>37639418133.792603</v>
       </c>
       <c r="AB107" s="31" t="s">
         <v>145</v>
@@ -11108,7 +11118,7 @@
       </c>
       <c r="AA108" s="33">
         <f>AA107+AA106</f>
-        <v>40635792217.649002</v>
+        <v>39997418133.792603</v>
       </c>
       <c r="AB108" s="31" t="s">
         <v>142</v>
@@ -11118,14 +11128,14 @@
       </c>
       <c r="AD108" s="51">
         <f>AD105</f>
-        <v>8.8142356441487768E-2</v>
+        <v>8.9213266831297447E-2</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="65" t="s">
+      <c r="W109" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="X109" s="65"/>
+      <c r="X109" s="66"/>
     </row>
     <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="W110" s="55" t="s">
@@ -11133,7 +11143,7 @@
       </c>
       <c r="X110" s="46">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>28730242047.295044</v>
+        <v>28176874609.363731</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11160,7 +11170,7 @@
       </c>
       <c r="X113" s="46">
         <f>X110+X111-X112</f>
-        <v>28377075047.295044</v>
+        <v>27823707609.363731</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11178,7 +11188,7 @@
       </c>
       <c r="X115" s="57">
         <f>X113/X114</f>
-        <v>510.30813629447846</v>
+        <v>500.35686734000961</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11187,7 +11197,7 @@
       </c>
       <c r="X116" s="58" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price",TRUE)</f>
-        <v>249.25</v>
+        <v>260.01</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11196,7 +11206,7 @@
       </c>
       <c r="X117" s="59">
         <f>X115/X116-1</f>
-        <v>1.0473746691854702</v>
+        <v>0.92437547532790898</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Super Micro Computer.xlsx
+++ b/Technology/Hardware/Super Micro Computer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E354D42C-7AB1-0E48-89AF-3EB80A5F0031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C97D861-FA2E-6B4A-8BEB-31A1C2591BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2413,15 +2413,12 @@
     <v>a234r7</v>
     <v>268435456</v>
     <v>1</v>
-    <v>2</v>
     <v>Powered by Refinitiv</v>
-    <v>270.18</v>
-    <v>39.619999999999997</v>
+    <v>270.2</v>
+    <v>39.630000000000003</v>
     <v>1.2039</v>
-    <v>9.48</v>
-    <v>3.7839999999999999E-2</v>
-    <v>0.55000000000000004</v>
-    <v>2.1150000000000001E-3</v>
+    <v>9.92</v>
+    <v>3.8151999999999998E-2</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>4607</v>
@@ -2429,25 +2426,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Ave, SAN JOSE, CA, 95131-1615 US</v>
-    <v>267.77</v>
+    <v>270.2</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45114.99998037031</v>
+    <v>45117.999994258593</v>
     <v>0</v>
-    <v>254.54759999999999</v>
-    <v>13647530000</v>
+    <v>253.31</v>
+    <v>14168218105</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>255</v>
-    <v>23.608599999999999</v>
-    <v>250.53</v>
+    <v>262</v>
+    <v>25.436699999999998</v>
     <v>260.01</v>
-    <v>260.56</v>
+    <v>269.93</v>
     <v>52488490</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>2871218</v>
-    <v>2907639</v>
+    <v>2511202</v>
+    <v>2845834</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2473,15 +2469,12 @@
     <k n="%EntityId" t="s"/>
     <k n="%EntityServiceId"/>
     <k n="%IsRefreshable" t="b"/>
-    <k n="%OutdatedReason" t="i"/>
     <k n="%ProviderInfo" t="s"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2502,7 +2495,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2519,7 +2511,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="46">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2530,16 +2522,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2565,7 +2554,6 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
-      <v t="s">%OutdatedReason</v>
     </a>
   </spbArrays>
   <spbData count="5">
@@ -2606,19 +2594,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2663,9 +2645,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2673,9 +2652,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3037,10 +3013,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X100" sqref="X100"/>
+      <selection pane="bottomRight" activeCell="X99" sqref="X99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3329,91 +3305,91 @@
         <v>0.26754855894412355</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AA4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:V4" si="0">(F3/E3)-1</f>
         <v>0.42867734212303388</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>0.38954059119259865</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>0.28570884862497703</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
         <v>-6.4558383579739642E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f t="shared" si="0"/>
         <v>0.42686937930297919</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f t="shared" si="0"/>
         <v>0.30653223145994524</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <f t="shared" si="0"/>
         <v>7.5634798882219245E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <f t="shared" si="0"/>
         <v>0.14665234536046889</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <f t="shared" si="0"/>
         <v>0.26204302397895685</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <f t="shared" si="0"/>
         <v>0.35711033654534274</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <f t="shared" si="0"/>
         <v>0.11270744869183957</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="15">
         <f t="shared" si="0"/>
         <v>0.12157396754699579</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <f t="shared" si="0"/>
         <v>0.35234930253540453</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="15">
         <f t="shared" si="0"/>
         <v>4.1621286406871461E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="15">
         <f t="shared" si="0"/>
         <v>-4.6017838165217317E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="15">
         <f t="shared" si="0"/>
         <v>6.5325739283396578E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="15">
         <f t="shared" si="0"/>
         <v>0.46063610108668573</v>
       </c>
       <c r="W4" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="W4:AA4" si="1">(W3/V3)-1</f>
         <v>0.29712694080693991</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19584569732937696</v>
       </c>
       <c r="Y4" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17866004962779147</v>
       </c>
       <c r="Z4" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10526315789473695</v>
       </c>
       <c r="AA4" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="AB4" s="17">
@@ -3742,83 +3718,83 @@
         <v>4.068771757015413E-2</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:V9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:V9" si="2">C8/C3</f>
         <v>4.9999635464891626E-2</v>
       </c>
       <c r="D9" s="15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.00984591264763E-2</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2270601339983673E-2</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0360020266750398E-2</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6497373742606424E-2</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8262234256114898E-2</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1815956464727392E-2</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1038530334761328E-2</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3344163081408542E-2</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4691659190356465E-2</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7426993692756688E-2</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0351178085081272E-2</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5964754941498204E-2</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7946122404302094E-2</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9130901070438493E-2</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1396713480899109E-2</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6325056202218388E-2</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3070673088545581E-2</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2399502011027888E-2</v>
       </c>
       <c r="AB9" s="18" t="s">
@@ -4075,83 +4051,83 @@
         <v>8.1946294451471363E-2</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:V13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:V13" si="3">C12/C3</f>
         <v>6.7234855388922501E-2</v>
       </c>
       <c r="D13" s="15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9391867323375661E-2</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3857163161356643E-2</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.721551024874344E-2</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.058245745167002E-2</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1199464408268046E-2</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1099332167143956E-2</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7001746267168271E-2</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.4424908815099315E-2</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9620622057681273E-2</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.15954994608786E-2</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6776644711235436E-2</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5442420538614615E-2</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4705905078173257E-2</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0640203874908793E-2</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2388440046166678E-2</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5606338610018147E-2</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2347458356079207E-2</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7058762737199581E-2</v>
       </c>
       <c r="AB13" s="17">
@@ -4392,15 +4368,15 @@
       </c>
       <c r="AC16" s="26">
         <f>AD101/V3</f>
-        <v>2.6264953766277355</v>
+        <v>2.7267028794101114</v>
       </c>
       <c r="AD16" s="26">
         <f>AD101/V28</f>
-        <v>47.858698358482691</v>
+        <v>49.684629860816443</v>
       </c>
       <c r="AE16" s="27">
         <f>AD101/V107</f>
-        <v>-28.082319751925478</v>
+        <v>-29.153731930952318</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4639,15 +4615,15 @@
       </c>
       <c r="AC19" s="35">
         <f>AD101/W3</f>
-        <v>2.0248560830860534</v>
+        <v>2.1021095111275963</v>
       </c>
       <c r="AD19" s="36">
         <f>X116/W31</f>
-        <v>22.242087254063303</v>
+        <v>23.090675791274595</v>
       </c>
       <c r="AE19" s="37">
         <f>AD101/W106</f>
-        <v>56.001354123922859</v>
+        <v>58.137948727944192</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4668,91 +4644,91 @@
         <v>1.4002884219200658</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:V20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:V20" si="4">(F19/E19)-1</f>
         <v>1.3891511458243926</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11287541313407101</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.40318936019110341</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.37006533541915887</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66047038200277552</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.41227703609211086</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.17244440291534291</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.34057848284687331</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4746725264689933</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.78739549097618644</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.22382156728647562</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.6099266019966203E-2</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0328345991177388E-2</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9153146728472041E-2</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.073172804051282E-3</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.26736929573165558</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5217132420335719</v>
       </c>
       <c r="W20" s="16">
-        <f t="shared" ref="W20" si="4">(W19/V19)-1</f>
+        <f t="shared" ref="W20" si="5">(W19/V19)-1</f>
         <v>1.0614289921283659</v>
       </c>
       <c r="X20" s="16">
-        <f t="shared" ref="X20" si="5">(X19/W19)-1</f>
+        <f t="shared" ref="X20" si="6">(X19/W19)-1</f>
         <v>0.25662805662805654</v>
       </c>
       <c r="Y20" s="16">
-        <f t="shared" ref="Y20" si="6">(Y19/X19)-1</f>
+        <f t="shared" ref="Y20" si="7">(Y19/X19)-1</f>
         <v>0.28328553871364193</v>
       </c>
       <c r="Z20" s="16">
-        <f t="shared" ref="Z20" si="7">(Z19/Y19)-1</f>
+        <f t="shared" ref="Z20" si="8">(Z19/Y19)-1</f>
         <v>0.68076616121308864</v>
       </c>
       <c r="AA20" s="16">
-        <f t="shared" ref="AA20" si="8">(AA19/Z19)-1</f>
+        <f t="shared" ref="AA20" si="9">(AA19/Z19)-1</f>
         <v>0.53608736942070268</v>
       </c>
     </row>
@@ -4828,19 +4804,19 @@
         <v>0.11528189910979228</v>
       </c>
       <c r="X21" s="65">
-        <f t="shared" ref="X21:AA21" si="9">X19/X3</f>
+        <f t="shared" ref="X21:AA21" si="10">X19/X3</f>
         <v>0.12114143920595534</v>
       </c>
       <c r="Y21" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.13189473684210526</v>
       </c>
       <c r="Z21" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.20057142857142857</v>
       </c>
       <c r="AA21" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.28883928571428569</v>
       </c>
       <c r="AD21" s="18" t="s">
@@ -4923,7 +4899,7 @@
       </c>
       <c r="AE22" s="39">
         <f>V107/AD101</f>
-        <v>-3.5609593823937372E-2</v>
+        <v>-3.4300925945549593E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5367,91 +5343,91 @@
         <v>0.46065100947672022</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:V29" si="10">(F28/E28)-1</f>
+        <f t="shared" ref="F29:V29" si="11">(F28/E28)-1</f>
         <v>1.3902679830747533</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14114592553254268</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.31439060964889598</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.36634013926590347</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.6710126032159931</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.49407393646665421</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.25762813020664954</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.28720731584765347</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5450914046712723</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.8808833576453643</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.29296211578296338</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-7.1742963857763686E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.30946540221976249</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.55784685367702802</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17227954058789186</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.32686103335389283</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.549170875608993</v>
       </c>
       <c r="W29" s="16">
-        <f t="shared" ref="W29" si="11">(W28/V28)-1</f>
+        <f t="shared" ref="W29" si="12">(W28/V28)-1</f>
         <v>1.1521024817385146</v>
       </c>
       <c r="X29" s="16">
-        <f t="shared" ref="X29" si="12">(X28/W28)-1</f>
+        <f t="shared" ref="X29" si="13">(X28/W28)-1</f>
         <v>0.15268046276682412</v>
       </c>
       <c r="Y29" s="16">
-        <f t="shared" ref="Y29" si="13">(Y28/X28)-1</f>
+        <f t="shared" ref="Y29" si="14">(Y28/X28)-1</f>
         <v>0.4221091320327961</v>
       </c>
       <c r="Z29" s="16">
-        <f t="shared" ref="Z29" si="14">(Z28/Y28)-1</f>
+        <f t="shared" ref="Z29" si="15">(Z28/Y28)-1</f>
         <v>-9.4532803180914504E-2</v>
       </c>
       <c r="AA29" s="16">
-        <f t="shared" ref="AA29" si="15">(AA28/Z28)-1</f>
+        <f t="shared" ref="AA29" si="16">(AA28/Z28)-1</f>
         <v>0.20320562081457894</v>
       </c>
     </row>
@@ -5527,19 +5503,19 @@
         <v>9.1053412462908018E-2</v>
       </c>
       <c r="X30" s="62">
-        <f t="shared" ref="X30:AA30" si="16">X28/X3</f>
+        <f t="shared" ref="X30:AA30" si="17">X28/X3</f>
         <v>8.7766749379652606E-2</v>
       </c>
       <c r="Y30" s="62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.10589473684210526</v>
       </c>
       <c r="Z30" s="62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.6752380952380956E-2</v>
       </c>
       <c r="AA30" s="62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.7857142857142851E-2</v>
       </c>
     </row>
@@ -5840,79 +5816,79 @@
         <v>3.0606521913308229E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:V35" si="17">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:V35" si="18">(D34-C34)/C34</f>
         <v>9.0789706911295967E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.9204651357710322E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.1665977185299304E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.5915752332788555E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.14426048208107953</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.0471329424330173E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.0341710422079506E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.076642451163285E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.1419738715731708E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-5.5490125022649031E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.9329947388799049E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.7012383900928794E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4774623707430029E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-3.0287830851145922E-3</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.1333036629965749E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-8.3411631608214607E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.1695413411710111E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.2661342215829516E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.0184274954678826E-3</v>
       </c>
     </row>
@@ -8913,87 +8889,87 @@
         <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:V80" si="18">B79/B3</f>
+        <f t="shared" ref="B80:V80" si="19">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0473577389949732E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2770737862656718E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.1166586733717936E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.087650729591696E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.1205534415519088E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.5151996325354114E-3</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.3368193336704833E-3</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.1013281236267387E-3</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.8758077481536374E-3</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.9222150813966913E-3</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.3038388426456598E-3</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.7676924659177909E-3</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.5494452248852364E-3</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.3155070755965192E-3</v>
       </c>
     </row>
@@ -9582,87 +9558,87 @@
         <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:V89" si="19">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:V89" si="20">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.2849789004279771E-3</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.4079324527892034E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0054835542951203E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.8261816918930623E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.5883075579599003E-3</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.3952935964351902E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.5203302293474979E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.6376485016688204E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.9325655850727011E-3</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.4894513062110291E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.3923086255334985E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7129756347446581E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.3253907679864306E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9898226468442351E-3</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.3944529551030029E-3</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2666697139722771E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7373799928787067E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-7.9874695776885621E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.6953693530473532E-3</v>
       </c>
       <c r="AC89" s="40" t="s">
@@ -10488,7 +10464,7 @@
       </c>
       <c r="AD100" s="43">
         <f>AD99/AD103</f>
-        <v>4.349312529059593E-2</v>
+        <v>4.196180561685272E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10563,7 +10539,7 @@
       </c>
       <c r="AD101" s="46" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>13647530000</v>
+        <v>14168218105</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10638,7 +10614,7 @@
       </c>
       <c r="AD102" s="43">
         <f>AD101/AD103</f>
-        <v>0.9565068747094041</v>
+        <v>0.9580381943831473</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10713,7 +10689,7 @@
       </c>
       <c r="AD103" s="47">
         <f>AD99+AD101</f>
-        <v>14268094000</v>
+        <v>14788782105</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10793,79 +10769,79 @@
         <v>159</v>
       </c>
       <c r="C105" s="1" t="e">
-        <f t="shared" ref="C105:U105" si="20">(C22*(1-$AD$91))+C77+C88+C81</f>
+        <f t="shared" ref="C105:U105" si="21">(C22*(1-$AD$91))+C77+C88+C81</f>
         <v>#VALUE!</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>132645158.29209134</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-13326303.251166008</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12105745.096234631</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-11744482.963367604</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>25395263.721191213</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-41033252.879023135</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-40486144.736412406</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2632619.4137747809</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12106728.337187864</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-77060259.264977008</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-125760047.25487112</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>108588832.23734015</v>
       </c>
       <c r="P105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-131891298.93448682</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>40873534.98914893</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>195742808.7479552</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-98689623.54044883</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2126953.6446844637</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>372318816.25612694</v>
       </c>
       <c r="V105" s="1">
@@ -10877,19 +10853,19 @@
         <v>-601019136.47408175</v>
       </c>
       <c r="X105" s="29">
-        <f t="shared" ref="X105:AA105" si="21">W105*(1+$AD$106)</f>
+        <f t="shared" ref="X105:AA105" si="22">W105*(1+$AD$106)</f>
         <v>-702418579.01803899</v>
       </c>
       <c r="Y105" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-820925375.26215363</v>
       </c>
       <c r="Z105" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-959425749.65973485</v>
       </c>
       <c r="AA105" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1121292868.8142855</v>
       </c>
       <c r="AB105" s="30" t="s">
@@ -10900,7 +10876,7 @@
       </c>
       <c r="AD105" s="49">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>8.9213266831297447E-2</v>
+        <v>8.934214550270024E-2</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10909,83 +10885,83 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:V106" si="22">(C107/B107)-1</f>
+        <f t="shared" ref="C106:V106" si="23">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1.8791982665222102</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-4.6805298829328406</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.79768979660165729</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.5539925527513443</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-2.3362361704458321</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.30659507316473333</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.50375362061831286</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-2.022275163787969</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-4.9651596364483801</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.3431778776925563</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1.9205503160429416</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-2.7105080312257326</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1.4740866407015365</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.9934983115770373</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1.3141372709871479</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1.8696566316691665</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.37561403778931</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-2.7103164548052421</v>
       </c>
       <c r="W106" s="32">
@@ -11087,7 +11063,7 @@
       <c r="Z107" s="30"/>
       <c r="AA107" s="33">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>37639418133.792603</v>
+        <v>37564025587.219009</v>
       </c>
       <c r="AB107" s="31" t="s">
         <v>145</v>
@@ -11101,15 +11077,15 @@
     </row>
     <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="W108" s="33">
-        <f t="shared" ref="W108:Y108" si="23">W107+W106</f>
+        <f t="shared" ref="W108:Y108" si="24">W107+W106</f>
         <v>243700000</v>
       </c>
       <c r="X108" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>477900000</v>
       </c>
       <c r="Y108" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>645400000</v>
       </c>
       <c r="Z108" s="33">
@@ -11118,7 +11094,7 @@
       </c>
       <c r="AA108" s="33">
         <f>AA107+AA106</f>
-        <v>39997418133.792603</v>
+        <v>39922025587.219009</v>
       </c>
       <c r="AB108" s="31" t="s">
         <v>142</v>
@@ -11128,7 +11104,7 @@
       </c>
       <c r="AD108" s="51">
         <f>AD105</f>
-        <v>8.9213266831297447E-2</v>
+        <v>8.934214550270024E-2</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11143,7 +11119,7 @@
       </c>
       <c r="X110" s="46">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>28176874609.363731</v>
+        <v>28111543159.490154</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11170,7 +11146,7 @@
       </c>
       <c r="X113" s="46">
         <f>X110+X111-X112</f>
-        <v>27823707609.363731</v>
+        <v>27758376159.490154</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11188,7 +11164,7 @@
       </c>
       <c r="X115" s="57">
         <f>X113/X114</f>
-        <v>500.35686734000961</v>
+        <v>499.18200451955204</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11197,7 +11173,7 @@
       </c>
       <c r="X116" s="58" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price",TRUE)</f>
-        <v>260.01</v>
+        <v>269.93</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
@@ -11206,7 +11182,7 @@
       </c>
       <c r="X117" s="59">
         <f>X115/X116-1</f>
-        <v>0.92437547532790898</v>
+        <v>0.84930168754696411</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Super Micro Computer.xlsx
+++ b/Technology/Hardware/Super Micro Computer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C97D861-FA2E-6B4A-8BEB-31A1C2591BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F38D72E-CB4D-8848-ACC5-DC7EFC7E3DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -920,12 +920,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1066,7 +1060,6 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Super Micro Computer</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1103,10 +1096,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4490066225165569E-2"/>
-          <c:y val="0.14585845976570003"/>
-          <c:w val="0.8572317880794702"/>
-          <c:h val="0.72402030919915494"/>
+          <c:x val="9.741254125412542E-2"/>
+          <c:y val="0.1514440533642972"/>
+          <c:w val="0.82205940594059401"/>
+          <c:h val="0.65540621938386734"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1160,6 +1153,78 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$V$3</c:f>
@@ -1234,7 +1299,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23C0-0F47-A1FF-AABE35EB15B0}"/>
+              <c16:uniqueId val="{00000000-94E0-4649-AB54-DE2B48B99FFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1243,11 +1308,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1285,81 +1350,153 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$V$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$V$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1774000</c:v>
+                  <c:v>2202000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1661000</c:v>
+                  <c:v>3517000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4854000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11651000</c:v>
+                  <c:v>7090000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27836000</c:v>
+                  <c:v>16947000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30978000</c:v>
+                  <c:v>19339000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43468000</c:v>
+                  <c:v>25419000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27382000</c:v>
+                  <c:v>16107000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45467000</c:v>
+                  <c:v>26915000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64212000</c:v>
+                  <c:v>40213000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53139000</c:v>
+                  <c:v>29853000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35041000</c:v>
+                  <c:v>21279000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86715000</c:v>
+                  <c:v>54157000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>154994000</c:v>
+                  <c:v>101863000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>120303000</c:v>
+                  <c:v>72021000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109945000</c:v>
+                  <c:v>66854000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>112180000</c:v>
+                  <c:v>46165000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>117694000</c:v>
+                  <c:v>71918000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>117938000</c:v>
+                  <c:v>84308000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>149471000</c:v>
+                  <c:v>111865000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>376923000</c:v>
+                  <c:v>285163000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-23C0-0F47-A1FF-AABE35EB15B0}"/>
+              <c16:uniqueId val="{00000001-94E0-4649-AB54-DE2B48B99FFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1410,6 +1547,78 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$107:$V$107</c:f>
@@ -1484,7 +1693,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-23C0-0F47-A1FF-AABE35EB15B0}"/>
+              <c16:uniqueId val="{00000002-94E0-4649-AB54-DE2B48B99FFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1498,11 +1707,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1434973248"/>
-        <c:axId val="1434974976"/>
+        <c:axId val="934141536"/>
+        <c:axId val="933287056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1434973248"/>
+        <c:axId val="934141536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1530,7 +1739,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1542,7 +1751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1434974976"/>
+        <c:crossAx val="933287056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1550,9 +1759,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1434974976"/>
+        <c:axId val="933287056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1598,7 +1808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1434973248"/>
+        <c:crossAx val="934141536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1616,10 +1826,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36146727851071597"/>
-          <c:y val="0.9154515555982331"/>
-          <c:w val="0.30355550920373364"/>
-          <c:h val="4.1791037588191388E-2"/>
+          <c:x val="0.35789017956913799"/>
+          <c:y val="0.90323040265128152"/>
+          <c:w val="0.31326254515215302"/>
+          <c:h val="6.2975434522297619E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2204,17 +2414,17 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB45F29B-1054-3E94-183F-6E138E2C2764}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD672D3A-4718-24D4-3849-6BB4B3C2C00B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,6 +2462,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2263,7 +2474,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2282,6 +2493,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2414,11 +2626,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>270.2</v>
-    <v>39.630000000000003</v>
-    <v>1.2039</v>
-    <v>9.92</v>
-    <v>3.8151999999999998E-2</v>
+    <v>329.07</v>
+    <v>50.26</v>
+    <v>1.2151000000000001</v>
+    <v>11.98</v>
+    <v>3.8724000000000001E-2</v>
+    <v>-1.35</v>
+    <v>-4.2009999999999999E-3</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>4607</v>
@@ -2426,24 +2640,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Ave, SAN JOSE, CA, 95131-1615 US</v>
-    <v>270.2</v>
+    <v>323.99</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45117.999994258593</v>
+    <v>45132.975304189065</v>
     <v>0</v>
-    <v>253.31</v>
-    <v>14168218105</v>
+    <v>309.16000000000003</v>
+    <v>16238370000</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>262</v>
-    <v>25.436699999999998</v>
-    <v>260.01</v>
-    <v>269.93</v>
+    <v>309.16000000000003</v>
+    <v>29.153300000000002</v>
+    <v>309.37</v>
+    <v>321.35000000000002</v>
+    <v>320</v>
     <v>52488490</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>2511202</v>
-    <v>2845834</v>
+    <v>2350468</v>
+    <v>2943686</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2475,6 +2690,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2495,6 +2712,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2511,7 +2729,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2522,13 +2740,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2594,13 +2815,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2645,6 +2872,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2652,6 +2882,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3013,10 +3246,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X99" sqref="X99"/>
+      <selection pane="bottomRight" activeCell="X97" sqref="X97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4366,17 +4599,17 @@
         <f>(V35+U35+T35+S35+R35)/5</f>
         <v>7.4334647250365263E-3</v>
       </c>
-      <c r="AC16" s="26">
+      <c r="AC16" s="33">
         <f>AD101/V3</f>
-        <v>2.7267028794101114</v>
-      </c>
-      <c r="AD16" s="26">
+        <v>3.1251078934408292</v>
+      </c>
+      <c r="AD16" s="33">
         <f>AD101/V28</f>
-        <v>49.684629860816443</v>
-      </c>
-      <c r="AE16" s="27">
+        <v>56.944168773648755</v>
+      </c>
+      <c r="AE16" s="35">
         <f>AD101/V107</f>
-        <v>-29.153731930952318</v>
+        <v>-33.413452733943366</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4594,36 +4827,36 @@
       <c r="V19" s="10">
         <v>376923000</v>
       </c>
-      <c r="W19" s="64">
+      <c r="W19" s="62">
         <v>777000000</v>
       </c>
-      <c r="X19" s="64">
+      <c r="X19" s="62">
         <v>976400000</v>
       </c>
-      <c r="Y19" s="64">
+      <c r="Y19" s="62">
         <v>1253000000</v>
       </c>
-      <c r="Z19" s="64">
+      <c r="Z19" s="62">
         <v>2106000000</v>
       </c>
-      <c r="AA19" s="64">
+      <c r="AA19" s="62">
         <v>3235000000</v>
       </c>
-      <c r="AB19" s="28">
+      <c r="AB19" s="26">
         <f>V40-V56-V61</f>
         <v>-353167000</v>
       </c>
-      <c r="AC19" s="35">
+      <c r="AC19" s="33">
         <f>AD101/W3</f>
-        <v>2.1021095111275963</v>
-      </c>
-      <c r="AD19" s="36">
+        <v>2.4092537091988131</v>
+      </c>
+      <c r="AD19" s="34">
         <f>X116/W31</f>
-        <v>23.090675791274595</v>
-      </c>
-      <c r="AE19" s="37">
+        <v>27.489307100085547</v>
+      </c>
+      <c r="AE19" s="35">
         <f>AD101/W106</f>
-        <v>58.137948727944192</v>
+        <v>66.632622076323344</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4799,23 +5032,23 @@
       <c r="V21" s="2">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="W21" s="65">
+      <c r="W21" s="63">
         <f>W19/W3</f>
         <v>0.11528189910979228</v>
       </c>
-      <c r="X21" s="65">
+      <c r="X21" s="63">
         <f t="shared" ref="X21:AA21" si="10">X19/X3</f>
         <v>0.12114143920595534</v>
       </c>
-      <c r="Y21" s="65">
+      <c r="Y21" s="63">
         <f t="shared" si="10"/>
         <v>0.13189473684210526</v>
       </c>
-      <c r="Z21" s="65">
+      <c r="Z21" s="63">
         <f t="shared" si="10"/>
         <v>0.20057142857142857</v>
       </c>
-      <c r="AA21" s="65">
+      <c r="AA21" s="63">
         <f t="shared" si="10"/>
         <v>0.28883928571428569</v>
       </c>
@@ -4893,13 +5126,13 @@
       <c r="V22" s="10">
         <v>335167000</v>
       </c>
-      <c r="AD22" s="38">
+      <c r="AD22" s="36">
         <f>(-1*V98)/AD101</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="39">
+      <c r="AE22" s="37">
         <f>V107/AD101</f>
-        <v>-3.4300925945549593E-2</v>
+        <v>-2.992806544006572E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5309,19 +5542,19 @@
       <c r="V28" s="11">
         <v>285163000</v>
       </c>
-      <c r="W28" s="61">
+      <c r="W28" s="59">
         <v>613700000</v>
       </c>
-      <c r="X28" s="61">
+      <c r="X28" s="59">
         <v>707400000</v>
       </c>
-      <c r="Y28" s="61">
+      <c r="Y28" s="59">
         <v>1006000000</v>
       </c>
-      <c r="Z28" s="61">
+      <c r="Z28" s="59">
         <v>910900000</v>
       </c>
-      <c r="AA28" s="61">
+      <c r="AA28" s="59">
         <v>1096000000</v>
       </c>
     </row>
@@ -5498,23 +5731,23 @@
       <c r="V30" s="2">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="W30" s="62">
+      <c r="W30" s="60">
         <f>W28/W3</f>
         <v>9.1053412462908018E-2</v>
       </c>
-      <c r="X30" s="62">
+      <c r="X30" s="60">
         <f t="shared" ref="X30:AA30" si="17">X28/X3</f>
         <v>8.7766749379652606E-2</v>
       </c>
-      <c r="Y30" s="62">
+      <c r="Y30" s="60">
         <f t="shared" si="17"/>
         <v>0.10589473684210526</v>
       </c>
-      <c r="Z30" s="62">
+      <c r="Z30" s="60">
         <f t="shared" si="17"/>
         <v>8.6752380952380956E-2</v>
       </c>
-      <c r="AA30" s="62">
+      <c r="AA30" s="60">
         <f t="shared" si="17"/>
         <v>9.7857142857142851E-2</v>
       </c>
@@ -5586,19 +5819,19 @@
       <c r="V31" s="12">
         <v>5.54</v>
       </c>
-      <c r="W31" s="63">
+      <c r="W31" s="61">
         <v>11.69</v>
       </c>
-      <c r="X31" s="63">
+      <c r="X31" s="61">
         <v>13.48</v>
       </c>
-      <c r="Y31" s="63">
+      <c r="Y31" s="61">
         <v>19.170000000000002</v>
       </c>
-      <c r="Z31" s="63">
+      <c r="Z31" s="61">
         <v>17.350000000000001</v>
       </c>
-      <c r="AA31" s="63">
+      <c r="AA31" s="61">
         <v>20.88</v>
       </c>
     </row>
@@ -9176,10 +9409,10 @@
       <c r="V83" s="1">
         <v>-519732000</v>
       </c>
-      <c r="AC83" s="67" t="s">
+      <c r="AC83" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="AD83" s="68"/>
+      <c r="AD83" s="66"/>
     </row>
     <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9248,10 +9481,10 @@
       <c r="V84" s="1">
         <v>50145000</v>
       </c>
-      <c r="AC84" s="69" t="s">
+      <c r="AC84" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="AD84" s="69"/>
+      <c r="AD84" s="67"/>
     </row>
     <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9320,10 +9553,10 @@
       <c r="V85" s="1">
         <v>31544000</v>
       </c>
-      <c r="AC85" s="40" t="s">
+      <c r="AC85" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="AD85" s="41">
+      <c r="AD85" s="39">
         <f>V17</f>
         <v>6413000</v>
       </c>
@@ -9395,10 +9628,10 @@
       <c r="V86" s="1">
         <v>-335000</v>
       </c>
-      <c r="AC86" s="40" t="s">
+      <c r="AC86" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="AD86" s="41">
+      <c r="AD86" s="39">
         <f>V56</f>
         <v>456285000</v>
       </c>
@@ -9470,10 +9703,10 @@
       <c r="V87" s="10">
         <v>-440801000</v>
       </c>
-      <c r="AC87" s="40" t="s">
+      <c r="AC87" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="AD87" s="41">
+      <c r="AD87" s="39">
         <f>V61</f>
         <v>164279000</v>
       </c>
@@ -9545,10 +9778,10 @@
       <c r="V88" s="1">
         <v>-45182000</v>
       </c>
-      <c r="AC88" s="42" t="s">
+      <c r="AC88" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="AD88" s="43">
+      <c r="AD88" s="41">
         <f>AD85/(AD86+AD87)</f>
         <v>1.0334147646334625E-2</v>
       </c>
@@ -9641,10 +9874,10 @@
         <f t="shared" si="20"/>
         <v>8.6953693530473532E-3</v>
       </c>
-      <c r="AC89" s="40" t="s">
+      <c r="AC89" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="AD89" s="41">
+      <c r="AD89" s="39">
         <f>V27</f>
         <v>52876000</v>
       </c>
@@ -9716,10 +9949,10 @@
       <c r="V90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC90" s="40" t="s">
+      <c r="AC90" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AD90" s="41">
+      <c r="AD90" s="39">
         <f>V25</f>
         <v>336833000</v>
       </c>
@@ -9791,10 +10024,10 @@
       <c r="V91" s="1">
         <v>-1100000</v>
       </c>
-      <c r="AC91" s="42" t="s">
+      <c r="AC91" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="AD91" s="43">
+      <c r="AD91" s="41">
         <f>AD89/AD90</f>
         <v>0.15697986836206665</v>
       </c>
@@ -9866,10 +10099,10 @@
       <c r="V92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC92" s="42" t="s">
+      <c r="AC92" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="AD92" s="43">
+      <c r="AD92" s="41">
         <f>AD88*(1-AD91)</f>
         <v>8.7118945091788549E-3</v>
       </c>
@@ -9941,10 +10174,10 @@
       <c r="V93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC93" s="69" t="s">
+      <c r="AC93" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="AD93" s="69"/>
+      <c r="AD93" s="67"/>
     </row>
     <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10013,12 +10246,12 @@
       <c r="V94" s="10">
         <v>-46282000</v>
       </c>
-      <c r="AC94" s="40" t="s">
+      <c r="AC94" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AD94" s="44">
+      <c r="AD94" s="42">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10088,12 +10321,12 @@
       <c r="V95" s="1">
         <v>-640695000</v>
       </c>
-      <c r="AC95" s="40" t="s">
+      <c r="AC95" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="AD95" s="45" cm="1">
+      <c r="AD95" s="43" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.2039</v>
+        <v>1.2151000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10163,10 +10396,10 @@
       <c r="V96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC96" s="40" t="s">
+      <c r="AC96" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="AD96" s="44">
+      <c r="AD96" s="42">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10237,12 +10470,12 @@
       <c r="V97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC97" s="42" t="s">
+      <c r="AC97" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AD97" s="43">
+      <c r="AD97" s="41">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.2873728000000003E-2</v>
+        <v>9.3653688000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10312,10 +10545,10 @@
       <c r="V98" s="1">
         <v>0</v>
       </c>
-      <c r="AC98" s="69" t="s">
+      <c r="AC98" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="AD98" s="69"/>
+      <c r="AD98" s="67"/>
     </row>
     <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10384,10 +10617,10 @@
       <c r="V99" s="1">
         <v>1163566000</v>
       </c>
-      <c r="AC99" s="40" t="s">
+      <c r="AC99" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="AD99" s="41">
+      <c r="AD99" s="39">
         <f>AD86+AD87</f>
         <v>620564000</v>
       </c>
@@ -10459,12 +10692,12 @@
       <c r="V100" s="10">
         <v>522871000</v>
       </c>
-      <c r="AC100" s="42" t="s">
+      <c r="AC100" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="AD100" s="43">
+      <c r="AD100" s="41">
         <f>AD99/AD103</f>
-        <v>4.196180561685272E-2</v>
+        <v>3.6809207509798665E-2</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10534,12 +10767,12 @@
       <c r="V101" s="1">
         <v>-678000</v>
       </c>
-      <c r="AC101" s="40" t="s">
+      <c r="AC101" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="AD101" s="46" cm="1">
+      <c r="AD101" s="44" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14168218105</v>
+        <v>16238370000</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10609,12 +10842,12 @@
       <c r="V102" s="10">
         <v>35110000</v>
       </c>
-      <c r="AC102" s="42" t="s">
+      <c r="AC102" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="AD102" s="43">
+      <c r="AD102" s="41">
         <f>AD101/AD103</f>
-        <v>0.9580381943831473</v>
+        <v>0.96319079249020134</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10684,12 +10917,12 @@
       <c r="V103" s="1">
         <v>233449000</v>
       </c>
-      <c r="AC103" s="42" t="s">
+      <c r="AC103" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="AD103" s="47">
+      <c r="AD103" s="45">
         <f>AD99+AD101</f>
-        <v>14788782105</v>
+        <v>16858934000</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10759,10 +10992,10 @@
       <c r="V104" s="11">
         <v>268559000</v>
       </c>
-      <c r="AC104" s="69" t="s">
+      <c r="AC104" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="AD104" s="69"/>
+      <c r="AD104" s="67"/>
     </row>
     <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10848,35 +11081,35 @@
         <f>(V22*(1-$AD$91))+V77+V88+V81</f>
         <v>-514257471.53930879</v>
       </c>
-      <c r="W105" s="29">
+      <c r="W105" s="27">
         <f>V105*(1+$AD$106)</f>
         <v>-601019136.47408175</v>
       </c>
-      <c r="X105" s="29">
+      <c r="X105" s="27">
         <f t="shared" ref="X105:AA105" si="22">W105*(1+$AD$106)</f>
         <v>-702418579.01803899</v>
       </c>
-      <c r="Y105" s="29">
+      <c r="Y105" s="27">
         <f t="shared" si="22"/>
         <v>-820925375.26215363</v>
       </c>
-      <c r="Z105" s="29">
+      <c r="Z105" s="27">
         <f t="shared" si="22"/>
         <v>-959425749.65973485</v>
       </c>
-      <c r="AA105" s="29">
+      <c r="AA105" s="27">
         <f t="shared" si="22"/>
         <v>-1121292868.8142855</v>
       </c>
-      <c r="AB105" s="30" t="s">
+      <c r="AB105" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="AC105" s="48" t="s">
+      <c r="AC105" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="AD105" s="49">
+      <c r="AD105" s="47">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>8.934214550270024E-2</v>
+        <v>9.0527047897141902E-2</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10964,34 +11197,34 @@
         <f t="shared" si="23"/>
         <v>-2.7103164548052421</v>
       </c>
-      <c r="W106" s="32">
+      <c r="W106" s="30">
         <v>243700000</v>
       </c>
-      <c r="X106" s="32">
+      <c r="X106" s="30">
         <v>477900000</v>
       </c>
-      <c r="Y106" s="32">
+      <c r="Y106" s="30">
         <v>645400000</v>
       </c>
-      <c r="Z106" s="32">
+      <c r="Z106" s="30">
         <v>1353000000</v>
       </c>
-      <c r="AA106" s="32">
+      <c r="AA106" s="30">
         <v>2358000000</v>
       </c>
-      <c r="AB106" s="30" t="s">
+      <c r="AB106" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="AC106" s="50" t="s">
+      <c r="AC106" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AD106" s="51">
+      <c r="AD106" s="49">
         <f>(SUM(W4:AA4)/5)</f>
         <v>0.16871250246510239</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="32" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -11057,139 +11290,139 @@
       <c r="V107" s="1">
         <v>-485983000</v>
       </c>
-      <c r="W107" s="30"/>
-      <c r="X107" s="30"/>
-      <c r="Y107" s="30"/>
-      <c r="Z107" s="30"/>
-      <c r="AA107" s="33">
+      <c r="W107" s="28"/>
+      <c r="X107" s="28"/>
+      <c r="Y107" s="28"/>
+      <c r="Z107" s="28"/>
+      <c r="AA107" s="31">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>37564025587.219009</v>
-      </c>
-      <c r="AB107" s="31" t="s">
+        <v>36884768619.42411</v>
+      </c>
+      <c r="AB107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="AC107" s="52" t="s">
+      <c r="AC107" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="AD107" s="53">
+      <c r="AD107" s="51">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="33">
+      <c r="W108" s="31">
         <f t="shared" ref="W108:Y108" si="24">W107+W106</f>
         <v>243700000</v>
       </c>
-      <c r="X108" s="33">
+      <c r="X108" s="31">
         <f t="shared" si="24"/>
         <v>477900000</v>
       </c>
-      <c r="Y108" s="33">
+      <c r="Y108" s="31">
         <f t="shared" si="24"/>
         <v>645400000</v>
       </c>
-      <c r="Z108" s="33">
+      <c r="Z108" s="31">
         <f>Z107+Z106</f>
         <v>1353000000</v>
       </c>
-      <c r="AA108" s="33">
+      <c r="AA108" s="31">
         <f>AA107+AA106</f>
-        <v>39922025587.219009</v>
-      </c>
-      <c r="AB108" s="31" t="s">
+        <v>39242768619.42411</v>
+      </c>
+      <c r="AB108" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="AC108" s="54" t="s">
+      <c r="AC108" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="AD108" s="51">
+      <c r="AD108" s="49">
         <f>AD105</f>
-        <v>8.934214550270024E-2</v>
+        <v>9.0527047897141902E-2</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="66" t="s">
+      <c r="W109" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="X109" s="66"/>
+      <c r="X109" s="64"/>
     </row>
     <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="55" t="s">
+      <c r="W110" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="X110" s="46">
+      <c r="X110" s="44">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>28111543159.490154</v>
+        <v>27523146686.600853</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="55" t="s">
+      <c r="W111" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="X111" s="46">
+      <c r="X111" s="44">
         <f>V40</f>
         <v>267397000</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="55" t="s">
+      <c r="W112" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="X112" s="46">
+      <c r="X112" s="44">
         <f>AD99</f>
         <v>620564000</v>
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="55" t="s">
+      <c r="W113" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="X113" s="46">
+      <c r="X113" s="44">
         <f>X110+X111-X112</f>
-        <v>27758376159.490154</v>
+        <v>27169979686.600853</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="55" t="s">
+      <c r="W114" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="X114" s="55">
+      <c r="X114" s="53">
         <f>V34*(1+(5*AB16))</f>
         <v>55607726.056164168</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="56" t="s">
+      <c r="W115" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="X115" s="57">
+      <c r="X115" s="55">
         <f>X113/X114</f>
-        <v>499.18200451955204</v>
+        <v>488.60080448459615</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="55" t="s">
+      <c r="W116" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="X116" s="58" cm="1">
+      <c r="X116" s="56" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price",TRUE)</f>
-        <v>269.93</v>
+        <v>321.35000000000002</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="56" t="s">
+      <c r="W117" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="X117" s="59">
+      <c r="X117" s="57">
         <f>X115/X116-1</f>
-        <v>0.84930168754696411</v>
+        <v>0.52046306047797142</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="56" t="s">
+      <c r="W118" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="X118" s="60" t="str">
+      <c r="X118" s="58" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Technology/Hardware/Super Micro Computer.xlsx
+++ b/Technology/Hardware/Super Micro Computer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F38D72E-CB4D-8848-ACC5-DC7EFC7E3DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2012023-5315-DC45-B531-3163F6ABC1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="170">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -417,163 +417,172 @@
     <t>Net Income Margin</t>
   </si>
   <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Debt to Equity</t>
+  </si>
+  <si>
+    <t>Share Dilution (5yr)</t>
+  </si>
+  <si>
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>P/FCF</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Weighted Average Cost of Capital</t>
+  </si>
+  <si>
+    <t>Cost of Debt Calculation</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Short Term Debt</t>
+  </si>
+  <si>
+    <t>Long Term Debt</t>
+  </si>
+  <si>
+    <t>Cost of Debt</t>
+  </si>
+  <si>
+    <t>Effective Tax Rate</t>
+  </si>
+  <si>
+    <t>Cost of Debt*(1-t)</t>
+  </si>
+  <si>
+    <t>Cost of Equity Calculation</t>
+  </si>
+  <si>
+    <t>Risk Free Rate</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Market Return</t>
+  </si>
+  <si>
+    <t>Cost of Equity</t>
+  </si>
+  <si>
+    <t>Weight of Debt + Equity Calculation</t>
+  </si>
+  <si>
+    <t>Total Debt</t>
+  </si>
+  <si>
+    <t>Weight of Debt</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t>Weight of Equity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>WACC Calculation</t>
+  </si>
+  <si>
+    <t>FCF Growth Rate</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>Perpetual Growth Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate (WACC)</t>
+  </si>
+  <si>
+    <t>Discounted Cash Flow Valuation</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>Cash + Securities</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Intrinsic Value</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Upside/Downside</t>
+  </si>
+  <si>
+    <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>1`</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FCF Margin</t>
+  </si>
+  <si>
     <t>FCF Margin</t>
-  </si>
-  <si>
-    <t>ROE</t>
-  </si>
-  <si>
-    <t>ROA</t>
-  </si>
-  <si>
-    <t>ROIC</t>
-  </si>
-  <si>
-    <t>Debt to Equity</t>
-  </si>
-  <si>
-    <t>Share Dilution (5yr)</t>
-  </si>
-  <si>
-    <t>P/S</t>
-  </si>
-  <si>
-    <t>P/E</t>
-  </si>
-  <si>
-    <t>P/FCF</t>
-  </si>
-  <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Weighted Average Cost of Capital</t>
-  </si>
-  <si>
-    <t>Cost of Debt Calculation</t>
-  </si>
-  <si>
-    <t>Interest Expense</t>
-  </si>
-  <si>
-    <t>Short Term Debt</t>
-  </si>
-  <si>
-    <t>Long Term Debt</t>
-  </si>
-  <si>
-    <t>Cost of Debt</t>
-  </si>
-  <si>
-    <t>Effective Tax Rate</t>
-  </si>
-  <si>
-    <t>Cost of Debt*(1-t)</t>
-  </si>
-  <si>
-    <t>Cost of Equity Calculation</t>
-  </si>
-  <si>
-    <t>Risk Free Rate</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>Market Return</t>
-  </si>
-  <si>
-    <t>Cost of Equity</t>
-  </si>
-  <si>
-    <t>Weight of Debt + Equity Calculation</t>
-  </si>
-  <si>
-    <t>Total Debt</t>
-  </si>
-  <si>
-    <t>Weight of Debt</t>
-  </si>
-  <si>
-    <t>Market Cap</t>
-  </si>
-  <si>
-    <t>Weight of Equity</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>WACC Calculation</t>
-  </si>
-  <si>
-    <t>FCF Growth Rate</t>
-  </si>
-  <si>
-    <t>Terminal Value</t>
-  </si>
-  <si>
-    <t>Perpetual Growth Rate</t>
-  </si>
-  <si>
-    <t>Discount Rate (WACC)</t>
-  </si>
-  <si>
-    <t>Discounted Cash Flow Valuation</t>
-  </si>
-  <si>
-    <t>Enterprise Value</t>
-  </si>
-  <si>
-    <t>Cash + Securities</t>
-  </si>
-  <si>
-    <t>Equity Value</t>
-  </si>
-  <si>
-    <t>Shares</t>
-  </si>
-  <si>
-    <t>Intrinsic Value</t>
-  </si>
-  <si>
-    <t>Current Price</t>
-  </si>
-  <si>
-    <t>Upside/Downside</t>
-  </si>
-  <si>
-    <t>Buy/Sell</t>
-  </si>
-  <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
-    <t>Unlevered FCF Forecast</t>
-  </si>
-  <si>
-    <t>Unlevered FCF</t>
-  </si>
-  <si>
-    <t>Levered FCF Growth YoY</t>
-  </si>
-  <si>
-    <t>Levered FCF</t>
-  </si>
-  <si>
-    <t>Forward P/S</t>
-  </si>
-  <si>
-    <t>Forward P/E</t>
-  </si>
-  <si>
-    <t>Forward P/FCF</t>
-  </si>
-  <si>
-    <t>Dividend Yield</t>
-  </si>
-  <si>
-    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
@@ -589,7 +598,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +710,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -925,13 +941,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
@@ -953,60 +962,124 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1096,15 +1169,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.741254125412542E-2"/>
-          <c:y val="0.1514440533642972"/>
-          <c:w val="0.82205940594059401"/>
-          <c:h val="0.65540621938386734"/>
+          <c:x val="9.0662273476112012E-2"/>
+          <c:y val="0.15780726877299187"/>
+          <c:w val="0.85793739703459648"/>
+          <c:h val="0.61851847744054811"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1155,10 +1228,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$V$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2002</c:v>
                 </c:pt>
@@ -1221,16 +1294,31 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$V$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AA$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>89339000</c:v>
                 </c:pt>
@@ -1293,13 +1381,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>5196099000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7123000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11392000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13675000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16410000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-94E0-4649-AB54-DE2B48B99FFA}"/>
+              <c16:uniqueId val="{00000000-E922-EF41-8E46-2B7BB40C9F89}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1352,10 +1455,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$V$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2002</c:v>
                 </c:pt>
@@ -1418,16 +1521,31 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$V$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$AA$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2202000</c:v>
                 </c:pt>
@@ -1490,13 +1608,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>285163000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>613700000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>707400000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1006000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>910900000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1096000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-94E0-4649-AB54-DE2B48B99FFA}"/>
+              <c16:uniqueId val="{00000001-E922-EF41-8E46-2B7BB40C9F89}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1549,10 +1682,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$V$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2002</c:v>
                 </c:pt>
@@ -1615,16 +1748,31 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$V$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AA$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1687,13 +1835,28 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-485983000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>651200000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>374500000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>871000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1601000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2742000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-94E0-4649-AB54-DE2B48B99FFA}"/>
+              <c16:uniqueId val="{00000002-E922-EF41-8E46-2B7BB40C9F89}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1705,13 +1868,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="934141536"/>
-        <c:axId val="933287056"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="433961455"/>
+        <c:axId val="433474911"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="934141536"/>
+        <c:axId val="433961455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1902,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1751,7 +1914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="933287056"/>
+        <c:crossAx val="433474911"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1759,7 +1922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="933287056"/>
+        <c:axId val="433474911"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1808,7 +1971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="934141536"/>
+        <c:crossAx val="433961455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1826,10 +1989,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35789017956913799"/>
-          <c:y val="0.90323040265128152"/>
-          <c:w val="0.31326254515215302"/>
-          <c:h val="6.2975434522297619E-2"/>
+          <c:x val="0.34626263150384623"/>
+          <c:y val="0.88315803589568564"/>
+          <c:w val="0.31274646188172112"/>
+          <c:h val="6.5621469453478326E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1936,7 +2099,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2174,7 +2337,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2409,22 +2571,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD672D3A-4718-24D4-3849-6BB4B3C2C00B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FDF013-05E1-CB57-873F-1471029744A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,38 +2614,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2626,39 +2788,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>329.07</v>
-    <v>50.26</v>
-    <v>1.2151000000000001</v>
-    <v>11.98</v>
-    <v>3.8724000000000001E-2</v>
-    <v>-1.35</v>
-    <v>-4.2009999999999999E-3</v>
+    <v>356.99990000000003</v>
+    <v>54.64</v>
+    <v>1.1308</v>
+    <v>-19.98</v>
+    <v>-7.0098000000000008E-2</v>
+    <v>-1.05</v>
+    <v>-3.9620000000000002E-3</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
-    <v>4607</v>
+    <v>5126</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Ave, SAN JOSE, CA, 95131-1615 US</v>
-    <v>323.99</v>
+    <v>289.49</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45132.975304189065</v>
+    <v>45218.999962592185</v>
     <v>0</v>
-    <v>309.16000000000003</v>
-    <v>16238370000</v>
+    <v>263.75</v>
+    <v>14022722047</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>309.16000000000003</v>
-    <v>29.153300000000002</v>
-    <v>309.37</v>
-    <v>321.35000000000002</v>
-    <v>320</v>
-    <v>52488490</v>
+    <v>287.5</v>
+    <v>24.908999999999999</v>
+    <v>285.02999999999997</v>
+    <v>265.05</v>
+    <v>264</v>
+    <v>52905950</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>2350468</v>
-    <v>2943686</v>
+    <v>4021640</v>
+    <v>3035408</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2823,9 +2985,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3243,13 +3405,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE118"/>
+  <dimension ref="A1:AI120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X97" sqref="X97"/>
+      <selection pane="bottomRight" activeCell="X91" sqref="X91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3493,19 +3655,19 @@
         <v>5196099000</v>
       </c>
       <c r="W3" s="24">
-        <v>6740000000</v>
+        <v>7123000000</v>
       </c>
       <c r="X3" s="24">
-        <v>8060000000</v>
+        <v>10000000000</v>
       </c>
       <c r="Y3" s="24">
-        <v>9500000000</v>
+        <v>11392000000</v>
       </c>
       <c r="Z3" s="24">
-        <v>10500000000</v>
+        <v>13675000000</v>
       </c>
       <c r="AA3" s="24">
-        <v>11200000000</v>
+        <v>16410000000</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>107</v>
@@ -3606,24 +3768,24 @@
         <v>0.46063610108668573</v>
       </c>
       <c r="W4" s="16">
-        <f t="shared" ref="W4:AA4" si="1">(W3/V3)-1</f>
-        <v>0.29712694080693991</v>
+        <f>(W3/V3)-1</f>
+        <v>0.37083608299226012</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" si="1"/>
-        <v>0.19584569732937696</v>
+        <f t="shared" ref="X4:AA4" si="1">(X3/W3)-1</f>
+        <v>0.40390284992278525</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="1"/>
-        <v>0.17866004962779147</v>
+        <v>0.13919999999999999</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="1"/>
-        <v>0.10526315789473695</v>
+        <v>0.20040379213483139</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="1"/>
-        <v>6.6666666666666652E-2</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AB4" s="17">
         <f>(V4+U4+T4)/3</f>
@@ -3777,17 +3939,21 @@
       <c r="V6" s="10">
         <v>800001000</v>
       </c>
-      <c r="AB6" s="18" t="s">
+      <c r="W6" s="41">
+        <f>W3*W7</f>
+        <v>1211622300</v>
+      </c>
+      <c r="AB6" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AC6" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AD6" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AE6" s="19" t="s">
-        <v>114</v>
+      <c r="AE6" s="52" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -3857,21 +4023,24 @@
       <c r="V7" s="2">
         <v>0.154</v>
       </c>
+      <c r="W7" s="2">
+        <v>0.1701</v>
+      </c>
       <c r="AB7" s="17">
-        <f>V7</f>
-        <v>0.154</v>
+        <f>W7</f>
+        <v>0.1701</v>
       </c>
       <c r="AC7" s="20">
-        <f>V21</f>
-        <v>7.2499999999999995E-2</v>
+        <f>W21</f>
+        <v>0.10908325143900043</v>
       </c>
       <c r="AD7" s="20">
-        <f>V30</f>
-        <v>5.4899999999999997E-2</v>
+        <f>W30</f>
+        <v>8.6157517899761338E-2</v>
       </c>
       <c r="AE7" s="20">
-        <f>V107/V3</f>
-        <v>-9.3528433542163072E-2</v>
+        <f>W107/W3</f>
+        <v>9.1422153586971783E-2</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4263,16 +4432,16 @@
         <v>192561000</v>
       </c>
       <c r="AB12" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AC12" s="19" t="s">
+      <c r="AD12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="AD12" s="19" t="s">
+      <c r="AE12" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="AE12" s="19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4516,16 +4685,16 @@
         <v>464834000</v>
       </c>
       <c r="AB15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC15" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AC15" s="19" t="s">
+      <c r="AD15" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AD15" s="19" t="s">
+      <c r="AE15" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="AE15" s="19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4599,17 +4768,17 @@
         <f>(V35+U35+T35+S35+R35)/5</f>
         <v>7.4334647250365263E-3</v>
       </c>
-      <c r="AC16" s="33">
-        <f>AD101/V3</f>
-        <v>3.1251078934408292</v>
-      </c>
-      <c r="AD16" s="33">
-        <f>AD101/V28</f>
-        <v>56.944168773648755</v>
-      </c>
-      <c r="AE16" s="35">
-        <f>AD101/V107</f>
-        <v>-33.413452733943366</v>
+      <c r="AC16" s="28">
+        <f>AD102/V3</f>
+        <v>2.6987018621084777</v>
+      </c>
+      <c r="AD16" s="28">
+        <f>AD102/V28</f>
+        <v>49.17440918702637</v>
+      </c>
+      <c r="AE16" s="30">
+        <f>AD102/V107</f>
+        <v>-28.85434685369653</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4748,16 +4917,16 @@
         <v>32471000</v>
       </c>
       <c r="AB18" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE18" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="AD18" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE18" s="19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4827,36 +4996,36 @@
       <c r="V19" s="10">
         <v>376923000</v>
       </c>
-      <c r="W19" s="62">
+      <c r="W19" s="41">
         <v>777000000</v>
       </c>
-      <c r="X19" s="62">
+      <c r="X19" s="41">
         <v>976400000</v>
       </c>
-      <c r="Y19" s="62">
+      <c r="Y19" s="41">
         <v>1253000000</v>
       </c>
-      <c r="Z19" s="62">
+      <c r="Z19" s="41">
         <v>2106000000</v>
       </c>
-      <c r="AA19" s="62">
+      <c r="AA19" s="41">
         <v>3235000000</v>
       </c>
       <c r="AB19" s="26">
         <f>V40-V56-V61</f>
         <v>-353167000</v>
       </c>
-      <c r="AC19" s="33">
-        <f>AD101/W3</f>
-        <v>2.4092537091988131</v>
-      </c>
-      <c r="AD19" s="34">
-        <f>X116/W31</f>
-        <v>27.489307100085547</v>
-      </c>
-      <c r="AE19" s="35">
-        <f>AD101/W106</f>
-        <v>66.632622076323344</v>
+      <c r="AC19" s="28">
+        <f>AD102/W3</f>
+        <v>1.9686539445458375</v>
+      </c>
+      <c r="AD19" s="29">
+        <f>X117/W31</f>
+        <v>22.673224978614201</v>
+      </c>
+      <c r="AE19" s="30">
+        <f>AD102/W107</f>
+        <v>21.533664077088453</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4945,23 +5114,23 @@
         <v>1.5217132420335719</v>
       </c>
       <c r="W20" s="16">
-        <f t="shared" ref="W20" si="5">(W19/V19)-1</f>
+        <f>(W19/V19)-1</f>
         <v>1.0614289921283659</v>
       </c>
       <c r="X20" s="16">
-        <f t="shared" ref="X20" si="6">(X19/W19)-1</f>
+        <f t="shared" ref="X20" si="5">(X19/W19)-1</f>
         <v>0.25662805662805654</v>
       </c>
       <c r="Y20" s="16">
-        <f t="shared" ref="Y20" si="7">(Y19/X19)-1</f>
+        <f t="shared" ref="Y20" si="6">(Y19/X19)-1</f>
         <v>0.28328553871364193</v>
       </c>
       <c r="Z20" s="16">
-        <f t="shared" ref="Z20" si="8">(Z19/Y19)-1</f>
+        <f t="shared" ref="Z20" si="7">(Z19/Y19)-1</f>
         <v>0.68076616121308864</v>
       </c>
       <c r="AA20" s="16">
-        <f t="shared" ref="AA20" si="9">(AA19/Z19)-1</f>
+        <f t="shared" ref="AA20" si="8">(AA19/Z19)-1</f>
         <v>0.53608736942070268</v>
       </c>
     </row>
@@ -5032,28 +5201,31 @@
       <c r="V21" s="2">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="W21" s="63">
+      <c r="W21" s="42">
         <f>W19/W3</f>
-        <v>0.11528189910979228</v>
-      </c>
-      <c r="X21" s="63">
-        <f t="shared" ref="X21:AA21" si="10">X19/X3</f>
-        <v>0.12114143920595534</v>
-      </c>
-      <c r="Y21" s="63">
-        <f t="shared" si="10"/>
-        <v>0.13189473684210526</v>
-      </c>
-      <c r="Z21" s="63">
-        <f t="shared" si="10"/>
-        <v>0.20057142857142857</v>
-      </c>
-      <c r="AA21" s="63">
-        <f t="shared" si="10"/>
-        <v>0.28883928571428569</v>
+        <v>0.10908325143900043</v>
+      </c>
+      <c r="X21" s="42">
+        <f t="shared" ref="X21:AA21" si="9">X19/X3</f>
+        <v>9.7640000000000005E-2</v>
+      </c>
+      <c r="Y21" s="42">
+        <f t="shared" si="9"/>
+        <v>0.10998946629213484</v>
+      </c>
+      <c r="Z21" s="42">
+        <f t="shared" si="9"/>
+        <v>0.15400365630712981</v>
+      </c>
+      <c r="AA21" s="42">
+        <f t="shared" si="9"/>
+        <v>0.19713589274832419</v>
+      </c>
+      <c r="AC21" s="43" t="s">
+        <v>167</v>
       </c>
       <c r="AD21" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AE21" s="19" t="s">
         <v>166</v>
@@ -5126,13 +5298,17 @@
       <c r="V22" s="10">
         <v>335167000</v>
       </c>
-      <c r="AD22" s="36">
-        <f>(-1*V98)/AD101</f>
+      <c r="AC22" s="17">
+        <f>SUM(W29:AA29)/5</f>
+        <v>0.36711297883435984</v>
+      </c>
+      <c r="AD22" s="31">
+        <f>(-1*V98)/AD102</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="37">
-        <f>V107/AD101</f>
-        <v>-2.992806544006572E-2</v>
+      <c r="AE22" s="32">
+        <f>W107/AD102</f>
+        <v>4.6438915199015642E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5542,19 +5718,19 @@
       <c r="V28" s="11">
         <v>285163000</v>
       </c>
-      <c r="W28" s="59">
+      <c r="W28" s="38">
         <v>613700000</v>
       </c>
-      <c r="X28" s="59">
+      <c r="X28" s="38">
         <v>707400000</v>
       </c>
-      <c r="Y28" s="59">
+      <c r="Y28" s="38">
         <v>1006000000</v>
       </c>
-      <c r="Z28" s="59">
+      <c r="Z28" s="38">
         <v>910900000</v>
       </c>
-      <c r="AA28" s="59">
+      <c r="AA28" s="38">
         <v>1096000000</v>
       </c>
     </row>
@@ -5576,91 +5752,91 @@
         <v>0.46065100947672022</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:V29" si="11">(F28/E28)-1</f>
+        <f t="shared" ref="F29:V29" si="10">(F28/E28)-1</f>
         <v>1.3902679830747533</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.14114592553254268</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.31439060964889598</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.36634013926590347</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.6710126032159931</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.49407393646665421</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.25762813020664954</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.28720731584765347</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.5450914046712723</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.8808833576453643</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.29296211578296338</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-7.1742963857763686E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.30946540221976249</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.55784685367702802</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17227954058789186</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.32686103335389283</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.549170875608993</v>
       </c>
       <c r="W29" s="16">
-        <f t="shared" ref="W29" si="12">(W28/V28)-1</f>
+        <f>(W28/V28)-1</f>
         <v>1.1521024817385146</v>
       </c>
       <c r="X29" s="16">
-        <f t="shared" ref="X29" si="13">(X28/W28)-1</f>
+        <f t="shared" ref="X29" si="11">(X28/W28)-1</f>
         <v>0.15268046276682412</v>
       </c>
       <c r="Y29" s="16">
-        <f t="shared" ref="Y29" si="14">(Y28/X28)-1</f>
+        <f t="shared" ref="Y29" si="12">(Y28/X28)-1</f>
         <v>0.4221091320327961</v>
       </c>
       <c r="Z29" s="16">
-        <f t="shared" ref="Z29" si="15">(Z28/Y28)-1</f>
+        <f t="shared" ref="Z29" si="13">(Z28/Y28)-1</f>
         <v>-9.4532803180914504E-2</v>
       </c>
       <c r="AA29" s="16">
-        <f t="shared" ref="AA29" si="16">(AA28/Z28)-1</f>
+        <f t="shared" ref="AA29" si="14">(AA28/Z28)-1</f>
         <v>0.20320562081457894</v>
       </c>
     </row>
@@ -5731,25 +5907,25 @@
       <c r="V30" s="2">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="W30" s="60">
+      <c r="W30" s="39">
         <f>W28/W3</f>
-        <v>9.1053412462908018E-2</v>
-      </c>
-      <c r="X30" s="60">
-        <f t="shared" ref="X30:AA30" si="17">X28/X3</f>
-        <v>8.7766749379652606E-2</v>
-      </c>
-      <c r="Y30" s="60">
-        <f t="shared" si="17"/>
-        <v>0.10589473684210526</v>
-      </c>
-      <c r="Z30" s="60">
-        <f t="shared" si="17"/>
-        <v>8.6752380952380956E-2</v>
-      </c>
-      <c r="AA30" s="60">
-        <f t="shared" si="17"/>
-        <v>9.7857142857142851E-2</v>
+        <v>8.6157517899761338E-2</v>
+      </c>
+      <c r="X30" s="39">
+        <f t="shared" ref="X30:AA30" si="15">X28/X3</f>
+        <v>7.0739999999999997E-2</v>
+      </c>
+      <c r="Y30" s="39">
+        <f t="shared" si="15"/>
+        <v>8.8307584269662925E-2</v>
+      </c>
+      <c r="Z30" s="39">
+        <f t="shared" si="15"/>
+        <v>6.6610603290676418E-2</v>
+      </c>
+      <c r="AA30" s="39">
+        <f t="shared" si="15"/>
+        <v>6.67885435709933E-2</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5819,19 +5995,19 @@
       <c r="V31" s="12">
         <v>5.54</v>
       </c>
-      <c r="W31" s="61">
+      <c r="W31" s="40">
         <v>11.69</v>
       </c>
-      <c r="X31" s="61">
+      <c r="X31" s="40">
         <v>13.48</v>
       </c>
-      <c r="Y31" s="61">
+      <c r="Y31" s="40">
         <v>19.170000000000002</v>
       </c>
-      <c r="Z31" s="61">
+      <c r="Z31" s="40">
         <v>17.350000000000001</v>
       </c>
-      <c r="AA31" s="61">
+      <c r="AA31" s="40">
         <v>20.88</v>
       </c>
     </row>
@@ -6049,79 +6225,79 @@
         <v>3.0606521913308229E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:V35" si="18">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:V35" si="16">(D34-C34)/C34</f>
         <v>9.0789706911295967E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4.9204651357710322E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>8.1665977185299304E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>6.5915752332788555E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0.14426048208107953</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>8.0471329424330173E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4.0341710422079506E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4.076642451163285E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4.1419738715731708E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-5.5490125022649031E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>5.9329947388799049E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>7.7012383900928794E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.4774623707430029E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-3.0287830851145922E-3</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>9.1333036629965749E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-8.3411631608214607E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.1695413411710111E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.2661342215829516E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.0184274954678826E-3</v>
       </c>
     </row>
@@ -9122,87 +9298,87 @@
         <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:V80" si="19">B79/B3</f>
+        <f t="shared" ref="B80:V80" si="17">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.0473577389949732E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.2770737862656718E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.1166586733717936E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.087650729591696E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.1205534415519088E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>9.5151996325354114E-3</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>9.3368193336704833E-3</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8.1013281236267387E-3</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8.8758077481536374E-3</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>9.9222150813966913E-3</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6.3038388426456598E-3</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>5.7676924659177909E-3</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>8.5494452248852364E-3</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6.3155070755965192E-3</v>
       </c>
     </row>
@@ -9342,7 +9518,7 @@
         <v>-371598000</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -9409,12 +9585,8 @@
       <c r="V83" s="1">
         <v>-519732000</v>
       </c>
-      <c r="AC83" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD83" s="66"/>
-    </row>
-    <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -9481,12 +9653,18 @@
       <c r="V84" s="1">
         <v>50145000</v>
       </c>
-      <c r="AC84" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD84" s="67"/>
-    </row>
-    <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
+      <c r="W84" s="44"/>
+      <c r="X84" s="44"/>
+      <c r="Y84" s="44"/>
+      <c r="Z84" s="44"/>
+      <c r="AA84" s="44"/>
+      <c r="AB84" s="44"/>
+      <c r="AC84" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD84" s="74"/>
+    </row>
+    <row r="85" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -9553,13 +9731,16 @@
       <c r="V85" s="1">
         <v>31544000</v>
       </c>
-      <c r="AC85" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD85" s="39">
-        <f>V17</f>
-        <v>6413000</v>
-      </c>
+      <c r="W85" s="44"/>
+      <c r="X85" s="44"/>
+      <c r="Y85" s="44"/>
+      <c r="Z85" s="44"/>
+      <c r="AA85" s="44"/>
+      <c r="AB85" s="44"/>
+      <c r="AC85" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD85" s="75"/>
     </row>
     <row r="86" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -9628,12 +9809,18 @@
       <c r="V86" s="1">
         <v>-335000</v>
       </c>
-      <c r="AC86" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD86" s="39">
-        <f>V56</f>
-        <v>456285000</v>
+      <c r="W86" s="44"/>
+      <c r="X86" s="44"/>
+      <c r="Y86" s="44"/>
+      <c r="Z86" s="44"/>
+      <c r="AA86" s="44"/>
+      <c r="AB86" s="44"/>
+      <c r="AC86" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD86" s="54">
+        <f>V17</f>
+        <v>6413000</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9703,12 +9890,18 @@
       <c r="V87" s="10">
         <v>-440801000</v>
       </c>
-      <c r="AC87" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD87" s="39">
-        <f>V61</f>
-        <v>164279000</v>
+      <c r="W87" s="44"/>
+      <c r="X87" s="44"/>
+      <c r="Y87" s="44"/>
+      <c r="Z87" s="44"/>
+      <c r="AA87" s="44"/>
+      <c r="AB87" s="44"/>
+      <c r="AC87" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD87" s="54">
+        <f>V56</f>
+        <v>456285000</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9778,12 +9971,18 @@
       <c r="V88" s="1">
         <v>-45182000</v>
       </c>
-      <c r="AC88" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD88" s="41">
-        <f>AD85/(AD86+AD87)</f>
-        <v>1.0334147646334625E-2</v>
+      <c r="W88" s="44"/>
+      <c r="X88" s="44"/>
+      <c r="Y88" s="44"/>
+      <c r="Z88" s="44"/>
+      <c r="AA88" s="44"/>
+      <c r="AB88" s="44"/>
+      <c r="AC88" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD88" s="54">
+        <f>V61</f>
+        <v>164279000</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9791,95 +9990,101 @@
         <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:V89" si="20">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:V89" si="18">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>6.2849789004279771E-3</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>5.4079324527892034E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1.0054835542951203E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>3.8261816918930623E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>6.5883075579599003E-3</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>4.3952935964351902E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>3.5203302293474979E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>2.6376485016688204E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>4.9325655850727011E-3</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>3.4894513062110291E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>2.3923086255334985E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1.7129756347446581E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1.3253907679864306E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>9.9898226468442351E-3</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>7.3944529551030029E-3</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1.2666697139722771E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1.7373799928787067E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-7.9874695776885621E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>8.6953693530473532E-3</v>
       </c>
-      <c r="AC89" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD89" s="39">
-        <f>V27</f>
-        <v>52876000</v>
+      <c r="W89" s="44"/>
+      <c r="X89" s="44"/>
+      <c r="Y89" s="44"/>
+      <c r="Z89" s="44"/>
+      <c r="AA89" s="44"/>
+      <c r="AB89" s="44"/>
+      <c r="AC89" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD89" s="55">
+        <f>AD86/(AD87+AD88)</f>
+        <v>1.0334147646334625E-2</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9949,12 +10154,18 @@
       <c r="V90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC90" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD90" s="39">
-        <f>V25</f>
-        <v>336833000</v>
+      <c r="W90" s="44"/>
+      <c r="X90" s="44"/>
+      <c r="Y90" s="44"/>
+      <c r="Z90" s="44"/>
+      <c r="AA90" s="44"/>
+      <c r="AB90" s="44"/>
+      <c r="AC90" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD90" s="54">
+        <f>V27</f>
+        <v>52876000</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10024,12 +10235,18 @@
       <c r="V91" s="1">
         <v>-1100000</v>
       </c>
-      <c r="AC91" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD91" s="41">
-        <f>AD89/AD90</f>
-        <v>0.15697986836206665</v>
+      <c r="W91" s="44"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="44"/>
+      <c r="Z91" s="44"/>
+      <c r="AA91" s="44"/>
+      <c r="AB91" s="44"/>
+      <c r="AC91" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD91" s="54">
+        <f>V25</f>
+        <v>336833000</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10099,15 +10316,21 @@
       <c r="V92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC92" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD92" s="41">
-        <f>AD88*(1-AD91)</f>
-        <v>8.7118945091788549E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="W92" s="44"/>
+      <c r="X92" s="44"/>
+      <c r="Y92" s="44"/>
+      <c r="Z92" s="44"/>
+      <c r="AA92" s="44"/>
+      <c r="AB92" s="44"/>
+      <c r="AC92" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD92" s="55">
+        <f>AD90/AD91</f>
+        <v>0.15697986836206665</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -10174,12 +10397,21 @@
       <c r="V93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC93" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD93" s="67"/>
-    </row>
-    <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
+      <c r="W93" s="44"/>
+      <c r="X93" s="44"/>
+      <c r="Y93" s="44"/>
+      <c r="Z93" s="44"/>
+      <c r="AA93" s="44"/>
+      <c r="AB93" s="44"/>
+      <c r="AC93" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD93" s="55">
+        <f>AD89*(1-AD92)</f>
+        <v>8.7118945091788549E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -10246,13 +10478,16 @@
       <c r="V94" s="10">
         <v>-46282000</v>
       </c>
-      <c r="AC94" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD94" s="42">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="W94" s="44"/>
+      <c r="X94" s="44"/>
+      <c r="Y94" s="44"/>
+      <c r="Z94" s="44"/>
+      <c r="AA94" s="44"/>
+      <c r="AB94" s="44"/>
+      <c r="AC94" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD94" s="75"/>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -10321,12 +10556,18 @@
       <c r="V95" s="1">
         <v>-640695000</v>
       </c>
-      <c r="AC95" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD95" s="43" cm="1">
-        <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.2151000000000001</v>
+      <c r="W95" s="44"/>
+      <c r="X95" s="44"/>
+      <c r="Y95" s="44"/>
+      <c r="Z95" s="44"/>
+      <c r="AA95" s="44"/>
+      <c r="AB95" s="44"/>
+      <c r="AC95" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD95" s="56">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10396,11 +10637,18 @@
       <c r="V96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC96" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD96" s="42">
-        <v>8.4000000000000005E-2</v>
+      <c r="W96" s="44"/>
+      <c r="X96" s="44"/>
+      <c r="Y96" s="44"/>
+      <c r="Z96" s="44"/>
+      <c r="AA96" s="44"/>
+      <c r="AB96" s="44"/>
+      <c r="AC96" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD96" s="57" cm="1">
+        <f t="array" ref="AD96">_FV(A1,"Beta")</f>
+        <v>1.1308</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10470,15 +10718,20 @@
       <c r="V97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC97" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD97" s="41">
-        <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>9.3653688000000013E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="W97" s="44"/>
+      <c r="X97" s="44"/>
+      <c r="Y97" s="44"/>
+      <c r="Z97" s="44"/>
+      <c r="AA97" s="44"/>
+      <c r="AB97" s="44"/>
+      <c r="AC97" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD97" s="56">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -10545,12 +10798,21 @@
       <c r="V98" s="1">
         <v>0</v>
       </c>
-      <c r="AC98" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD98" s="67"/>
-    </row>
-    <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
+      <c r="W98" s="44"/>
+      <c r="X98" s="44"/>
+      <c r="Y98" s="44"/>
+      <c r="Z98" s="44"/>
+      <c r="AA98" s="44"/>
+      <c r="AB98" s="44"/>
+      <c r="AC98" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD98" s="55">
+        <f>(AD95)+((AD96)*(AD97-AD95))</f>
+        <v>8.8575384000000007E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -10617,13 +10879,16 @@
       <c r="V99" s="1">
         <v>1163566000</v>
       </c>
-      <c r="AC99" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD99" s="39">
-        <f>AD86+AD87</f>
-        <v>620564000</v>
-      </c>
+      <c r="W99" s="44"/>
+      <c r="X99" s="44"/>
+      <c r="Y99" s="44"/>
+      <c r="Z99" s="44"/>
+      <c r="AA99" s="44"/>
+      <c r="AB99" s="44"/>
+      <c r="AC99" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD99" s="75"/>
     </row>
     <row r="100" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -10692,12 +10957,18 @@
       <c r="V100" s="10">
         <v>522871000</v>
       </c>
-      <c r="AC100" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD100" s="41">
-        <f>AD99/AD103</f>
-        <v>3.6809207509798665E-2</v>
+      <c r="W100" s="44"/>
+      <c r="X100" s="44"/>
+      <c r="Y100" s="44"/>
+      <c r="Z100" s="44"/>
+      <c r="AA100" s="44"/>
+      <c r="AB100" s="44"/>
+      <c r="AC100" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD100" s="54">
+        <f>AD87+AD88</f>
+        <v>620564000</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10767,12 +11038,18 @@
       <c r="V101" s="1">
         <v>-678000</v>
       </c>
-      <c r="AC101" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD101" s="44" cm="1">
-        <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>16238370000</v>
+      <c r="W101" s="44"/>
+      <c r="X101" s="44"/>
+      <c r="Y101" s="44"/>
+      <c r="Z101" s="44"/>
+      <c r="AA101" s="44"/>
+      <c r="AB101" s="44"/>
+      <c r="AC101" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD101" s="55">
+        <f>AD100/AD104</f>
+        <v>4.2378739171535625E-2</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10842,12 +11119,18 @@
       <c r="V102" s="10">
         <v>35110000</v>
       </c>
-      <c r="AC102" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD102" s="41">
-        <f>AD101/AD103</f>
-        <v>0.96319079249020134</v>
+      <c r="W102" s="44"/>
+      <c r="X102" s="44"/>
+      <c r="Y102" s="44"/>
+      <c r="Z102" s="44"/>
+      <c r="AA102" s="44"/>
+      <c r="AB102" s="44"/>
+      <c r="AC102" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD102" s="58" cm="1">
+        <f t="array" ref="AD102">_FV(A1,"Market cap",TRUE)</f>
+        <v>14022722047</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10917,15 +11200,21 @@
       <c r="V103" s="1">
         <v>233449000</v>
       </c>
-      <c r="AC103" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD103" s="45">
-        <f>AD99+AD101</f>
-        <v>16858934000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W103" s="44"/>
+      <c r="X103" s="44"/>
+      <c r="Y103" s="44"/>
+      <c r="Z103" s="44"/>
+      <c r="AA103" s="44"/>
+      <c r="AB103" s="44"/>
+      <c r="AC103" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD103" s="55">
+        <f>AD102/AD104</f>
+        <v>0.95762126082846433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -10992,240 +11281,254 @@
       <c r="V104" s="11">
         <v>268559000</v>
       </c>
-      <c r="AC104" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD104" s="67"/>
-    </row>
-    <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W104" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="X104" s="76"/>
+      <c r="Y104" s="76"/>
+      <c r="Z104" s="76"/>
+      <c r="AA104" s="76"/>
+      <c r="AB104" s="44"/>
+      <c r="AC104" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD104" s="59">
+        <f>AD100+AD102</f>
+        <v>14643286047</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C105" s="1" t="e">
-        <f t="shared" ref="C105:U105" si="21">(C22*(1-$AD$91))+C77+C88+C81</f>
+        <f t="shared" ref="C105:V105" si="19">(C22*(1-$AD$92))+C77+C88+C81</f>
         <v>#VALUE!</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>132645158.29209134</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-13326303.251166008</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>12105745.096234631</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-11744482.963367604</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>25395263.721191213</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-41033252.879023135</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-40486144.736412406</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-2632619.4137747809</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>12106728.337187864</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-77060259.264977008</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-125760047.25487112</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>108588832.23734015</v>
       </c>
       <c r="P105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-131891298.93448682</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>40873534.98914893</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>195742808.7479552</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-98689623.54044883</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-2126953.6446844637</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>372318816.25612694</v>
       </c>
       <c r="V105" s="1">
-        <f>(V22*(1-$AD$91))+V77+V88+V81</f>
+        <f t="shared" si="19"/>
         <v>-514257471.53930879</v>
       </c>
-      <c r="W105" s="27">
-        <f>V105*(1+$AD$106)</f>
-        <v>-601019136.47408175</v>
-      </c>
-      <c r="X105" s="27">
-        <f t="shared" ref="X105:AA105" si="22">W105*(1+$AD$106)</f>
-        <v>-702418579.01803899</v>
-      </c>
-      <c r="Y105" s="27">
-        <f t="shared" si="22"/>
-        <v>-820925375.26215363</v>
-      </c>
-      <c r="Z105" s="27">
-        <f t="shared" si="22"/>
-        <v>-959425749.65973485</v>
-      </c>
-      <c r="AA105" s="27">
-        <f t="shared" si="22"/>
-        <v>-1121292868.8142855</v>
-      </c>
-      <c r="AB105" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC105" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD105" s="47">
-        <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.0527047897141902E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="W105" s="60">
+        <f>W107/W3</f>
+        <v>9.1422153586971783E-2</v>
+      </c>
+      <c r="X105" s="60">
+        <f>X107/X3</f>
+        <v>3.7449999999999997E-2</v>
+      </c>
+      <c r="Y105" s="60">
+        <f>Y107/Y3</f>
+        <v>7.6457162921348312E-2</v>
+      </c>
+      <c r="Z105" s="60">
+        <f>Z107/Z3</f>
+        <v>0.11707495429616088</v>
+      </c>
+      <c r="AA105" s="60">
+        <f>AA107/AA3</f>
+        <v>0.16709323583180988</v>
+      </c>
+      <c r="AB105" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC105" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD105" s="75"/>
+    </row>
+    <row r="106" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:V106" si="23">(C107/B107)-1</f>
+        <f t="shared" ref="C106:V106" si="20">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-1.8791982665222102</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-4.6805298829328406</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-0.79768979660165729</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>6.5539925527513443</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-2.3362361704458321</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-0.30659507316473333</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-0.50375362061831286</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-2.022275163787969</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-4.9651596364483801</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.3431778776925563</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-1.9205503160429416</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-2.7105080312257326</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-1.4740866407015365</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>2.9934983115770373</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-1.3141372709871479</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-1.8696566316691665</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>3.37561403778931</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>-2.7103164548052421</v>
       </c>
-      <c r="W106" s="30">
-        <v>243700000</v>
-      </c>
-      <c r="X106" s="30">
-        <v>477900000</v>
-      </c>
-      <c r="Y106" s="30">
-        <v>645400000</v>
-      </c>
-      <c r="Z106" s="30">
-        <v>1353000000</v>
-      </c>
-      <c r="AA106" s="30">
-        <v>2358000000</v>
-      </c>
-      <c r="AB106" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC106" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD106" s="49">
-        <f>(SUM(W4:AA4)/5)</f>
-        <v>0.16871250246510239</v>
+      <c r="W106" s="46">
+        <f>(W107/V107)-1</f>
+        <v>-2.3399645666617968</v>
+      </c>
+      <c r="X106" s="46">
+        <f>(X107/W107)-1</f>
+        <v>-0.42490786240786238</v>
+      </c>
+      <c r="Y106" s="46">
+        <f>(Y107/X107)-1</f>
+        <v>1.3257676902536715</v>
+      </c>
+      <c r="Z106" s="46">
+        <f>(Z107/Y107)-1</f>
+        <v>0.83811710677382312</v>
+      </c>
+      <c r="AA106" s="46">
+        <f>(AA107/Z107)-1</f>
+        <v>0.71267957526545911</v>
+      </c>
+      <c r="AB106" s="47">
+        <f>SUM(W106:AA106)/5</f>
+        <v>2.2338388644658869E-2</v>
+      </c>
+      <c r="AC106" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD106" s="61">
+        <f>(AD101*AD93)+(AD103*AD98)</f>
+        <v>8.5190870009539815E-2</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="32" t="s">
-        <v>161</v>
+      <c r="A107" s="27" t="s">
+        <v>159</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>91</v>
@@ -11290,151 +11593,244 @@
       <c r="V107" s="1">
         <v>-485983000</v>
       </c>
-      <c r="W107" s="28"/>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="28"/>
-      <c r="Z107" s="28"/>
-      <c r="AA107" s="31">
-        <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>36884768619.42411</v>
-      </c>
-      <c r="AB107" s="29" t="s">
+      <c r="W107" s="48">
+        <v>651200000</v>
+      </c>
+      <c r="X107" s="48">
+        <v>374500000</v>
+      </c>
+      <c r="Y107" s="48">
+        <v>871000000</v>
+      </c>
+      <c r="Z107" s="48">
+        <v>1601000000</v>
+      </c>
+      <c r="AA107" s="48">
+        <v>2742000000</v>
+      </c>
+      <c r="AB107" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC107" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD107" s="36">
+        <f>(SUM(W4:AA4)/5)</f>
+        <v>0.26286854500997536</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.2">
+      <c r="W108" s="71"/>
+      <c r="X108" s="71"/>
+      <c r="Y108" s="71"/>
+      <c r="Z108" s="71"/>
+      <c r="AA108" s="49">
+        <f>AA107*(1+AD108)/(AD109-AD108)</f>
+        <v>46693958727.537048</v>
+      </c>
+      <c r="AB108" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC108" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AC107" s="50" t="s">
+      <c r="AD108" s="37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.2">
+      <c r="W109" s="49">
+        <f t="shared" ref="W109:Y109" si="21">W108+W107</f>
+        <v>651200000</v>
+      </c>
+      <c r="X109" s="49">
+        <f t="shared" si="21"/>
+        <v>374500000</v>
+      </c>
+      <c r="Y109" s="49">
+        <f t="shared" si="21"/>
+        <v>871000000</v>
+      </c>
+      <c r="Z109" s="49">
+        <f>Z108+Z107</f>
+        <v>1601000000</v>
+      </c>
+      <c r="AA109" s="49">
+        <f>AA108+AA107</f>
+        <v>49435958727.537048</v>
+      </c>
+      <c r="AB109" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC109" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="AD107" s="51">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="31">
-        <f t="shared" ref="W108:Y108" si="24">W107+W106</f>
-        <v>243700000</v>
-      </c>
-      <c r="X108" s="31">
-        <f t="shared" si="24"/>
-        <v>477900000</v>
-      </c>
-      <c r="Y108" s="31">
-        <f t="shared" si="24"/>
-        <v>645400000</v>
-      </c>
-      <c r="Z108" s="31">
-        <f>Z107+Z106</f>
-        <v>1353000000</v>
-      </c>
-      <c r="AA108" s="31">
-        <f>AA107+AA106</f>
-        <v>39242768619.42411</v>
-      </c>
-      <c r="AB108" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC108" s="52" t="s">
+      <c r="AD109" s="36">
+        <f>AD106</f>
+        <v>8.5190870009539815E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" ht="19" x14ac:dyDescent="0.2">
+      <c r="W110" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="AD108" s="49">
-        <f>AD105</f>
-        <v>9.0527047897141902E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="64" t="s">
+      <c r="X110" s="72"/>
+      <c r="Y110" s="44"/>
+      <c r="Z110" s="44"/>
+      <c r="AA110" s="44"/>
+      <c r="AB110" s="44"/>
+      <c r="AC110" s="44"/>
+      <c r="AD110" s="44"/>
+    </row>
+    <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W111" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="X109" s="64"/>
-    </row>
-    <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="53" t="s">
+      <c r="X111" s="58">
+        <f>NPV(AD109,W109,X109,Y109,Z109,AA109)</f>
+        <v>35602324044.891174</v>
+      </c>
+      <c r="Y111" s="44"/>
+      <c r="Z111" s="44"/>
+      <c r="AA111" s="44"/>
+      <c r="AB111" s="44"/>
+      <c r="AC111" s="44"/>
+      <c r="AD111" s="44"/>
+    </row>
+    <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="W112" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="X110" s="44">
-        <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>27523146686.600853</v>
-      </c>
-    </row>
-    <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="X111" s="44">
+      <c r="X112" s="58">
         <f>V40</f>
         <v>267397000</v>
       </c>
-    </row>
-    <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="X112" s="44">
-        <f>AD99</f>
+      <c r="Y112" s="44"/>
+      <c r="Z112" s="44"/>
+      <c r="AA112" s="44"/>
+      <c r="AB112" s="44"/>
+      <c r="AC112" s="44"/>
+      <c r="AD112" s="44"/>
+    </row>
+    <row r="113" spans="23:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="W113" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="X113" s="58">
+        <f>AD100</f>
         <v>620564000</v>
       </c>
-    </row>
-    <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="53" t="s">
+      <c r="Y113" s="44"/>
+      <c r="Z113" s="44"/>
+      <c r="AA113" s="44"/>
+      <c r="AB113" s="44"/>
+      <c r="AC113" s="44"/>
+      <c r="AD113" s="44"/>
+    </row>
+    <row r="114" spans="23:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="W114" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="X114" s="58">
+        <f>X111+X112-X113</f>
+        <v>35249157044.891174</v>
+      </c>
+      <c r="Y114" s="44"/>
+      <c r="Z114" s="44"/>
+      <c r="AA114" s="44"/>
+      <c r="AB114" s="44"/>
+      <c r="AC114" s="44"/>
+      <c r="AD114" s="44"/>
+    </row>
+    <row r="115" spans="23:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="W115" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="X113" s="44">
-        <f>X110+X111-X112</f>
-        <v>27169979686.600853</v>
-      </c>
-    </row>
-    <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="X114" s="53">
+      <c r="X115" s="65">
         <f>V34*(1+(5*AB16))</f>
         <v>55607726.056164168</v>
       </c>
-    </row>
-    <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="54" t="s">
+      <c r="Y115" s="44"/>
+      <c r="Z115" s="44"/>
+      <c r="AA115" s="44"/>
+      <c r="AB115" s="44"/>
+      <c r="AC115" s="44"/>
+      <c r="AD115" s="44"/>
+    </row>
+    <row r="116" spans="23:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="W116" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="X116" s="67">
+        <f>X114/X115</f>
+        <v>633.88956076515865</v>
+      </c>
+      <c r="Y116" s="44"/>
+      <c r="Z116" s="44"/>
+      <c r="AA116" s="44"/>
+      <c r="AB116" s="44"/>
+      <c r="AC116" s="44"/>
+      <c r="AD116" s="44"/>
+    </row>
+    <row r="117" spans="23:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="W117" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="X115" s="55">
-        <f>X113/X114</f>
-        <v>488.60080448459615</v>
-      </c>
-    </row>
-    <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="53" t="s">
+      <c r="X117" s="68" cm="1">
+        <f t="array" ref="X117">_FV(A1,"Price",TRUE)</f>
+        <v>265.05</v>
+      </c>
+      <c r="Y117" s="44"/>
+      <c r="Z117" s="44"/>
+      <c r="AA117" s="44"/>
+      <c r="AB117" s="44"/>
+      <c r="AC117" s="44"/>
+      <c r="AD117" s="44"/>
+    </row>
+    <row r="118" spans="23:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="W118" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="X116" s="56" cm="1">
-        <f t="array" ref="X116">_FV(A1,"Price",TRUE)</f>
-        <v>321.35000000000002</v>
-      </c>
-    </row>
-    <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="54" t="s">
+      <c r="X118" s="69">
+        <f>X116/X117-1</f>
+        <v>1.391584835937214</v>
+      </c>
+      <c r="Y118" s="44"/>
+      <c r="Z118" s="44"/>
+      <c r="AA118" s="44"/>
+      <c r="AB118" s="44"/>
+      <c r="AC118" s="44"/>
+      <c r="AD118" s="44"/>
+    </row>
+    <row r="119" spans="23:35" ht="20" x14ac:dyDescent="0.2">
+      <c r="W119" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="X117" s="57">
-        <f>X115/X116-1</f>
-        <v>0.52046306047797142</v>
-      </c>
-    </row>
-    <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="X118" s="58" t="str">
-        <f>IF(X115&gt;X116,"BUY","SELL")</f>
+      <c r="X119" s="70" t="str">
+        <f>IF(X116&gt;X117,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
+      <c r="Y119" s="44"/>
+      <c r="Z119" s="44"/>
+      <c r="AA119" s="44"/>
+      <c r="AB119" s="44"/>
+      <c r="AC119" s="44"/>
+      <c r="AD119" s="44"/>
+    </row>
+    <row r="120" spans="23:35" x14ac:dyDescent="0.2">
+      <c r="AI120" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="W109:X109"/>
-    <mergeCell ref="AC83:AD83"/>
+  <mergeCells count="7">
+    <mergeCell ref="W110:X110"/>
     <mergeCell ref="AC84:AD84"/>
-    <mergeCell ref="AC93:AD93"/>
-    <mergeCell ref="AC98:AD98"/>
-    <mergeCell ref="AC104:AD104"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="AC99:AD99"/>
+    <mergeCell ref="AC105:AD105"/>
+    <mergeCell ref="W104:AA104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/SMCI" display="ROIC.AI | SMCI" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11481,7 +11877,7 @@
     <hyperlink ref="V36" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1375365/000137536522000103/0001375365-22-000103-index.htm" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="V74" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1375365/000137536522000103/0001375365-22-000103-index.htm" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="W1" r:id="rId44" display="https://finbox.com/NASDAQGS:SMCI/explorer/revenue_proj" xr:uid="{AD4FD872-616A-5C45-B4FA-AC5193683BA7}"/>
-    <hyperlink ref="AB106" r:id="rId45" xr:uid="{37BD8B5A-81A9-BB4D-A807-8761207444B8}"/>
+    <hyperlink ref="AB107" r:id="rId45" xr:uid="{37BD8B5A-81A9-BB4D-A807-8761207444B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId46"/>

--- a/Technology/Hardware/Super Micro Computer.xlsx
+++ b/Technology/Hardware/Super Micro Computer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2012023-5315-DC45-B531-3163F6ABC1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5F8D66-2FF5-674E-9627-A4C5800A1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2617,16 +2617,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2639,14 +2638,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2655,7 +2654,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2789,12 +2787,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>356.99990000000003</v>
-    <v>54.64</v>
-    <v>1.1308</v>
-    <v>-19.98</v>
-    <v>-7.0098000000000008E-2</v>
-    <v>-1.05</v>
-    <v>-3.9620000000000002E-3</v>
+    <v>67.75</v>
+    <v>1.1669</v>
+    <v>1.94</v>
+    <v>8.1019999999999998E-3</v>
+    <v>-0.41</v>
+    <v>-1.6980000000000001E-3</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>5126</v>
@@ -2802,25 +2800,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Ave, SAN JOSE, CA, 95131-1615 US</v>
-    <v>289.49</v>
+    <v>248.99</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45218.999962592185</v>
+    <v>45226.999155103906</v>
     <v>0</v>
-    <v>263.75</v>
-    <v>14022722047</v>
+    <v>239.59059999999999</v>
+    <v>12771500000</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>287.5</v>
-    <v>24.908999999999999</v>
-    <v>285.02999999999997</v>
-    <v>265.05</v>
-    <v>264</v>
+    <v>248</v>
+    <v>21.0961</v>
+    <v>239.46</v>
+    <v>241.4</v>
+    <v>240.99</v>
     <v>52905950</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>4021640</v>
-    <v>3035408</v>
+    <v>1811698</v>
+    <v>3142742</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2985,9 +2983,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3408,10 +3406,10 @@
   <dimension ref="A1:AI120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X91" sqref="X91"/>
+      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4770,15 +4768,15 @@
       </c>
       <c r="AC16" s="28">
         <f>AD102/V3</f>
-        <v>2.6987018621084777</v>
+        <v>2.4579015911744562</v>
       </c>
       <c r="AD16" s="28">
         <f>AD102/V28</f>
-        <v>49.17440918702637</v>
+        <v>44.786665871799634</v>
       </c>
       <c r="AE16" s="30">
         <f>AD102/V107</f>
-        <v>-28.85434685369653</v>
+        <v>-26.279725834031233</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5017,15 +5015,15 @@
       </c>
       <c r="AC19" s="28">
         <f>AD102/W3</f>
-        <v>1.9686539445458375</v>
+        <v>1.7929945247788852</v>
       </c>
       <c r="AD19" s="29">
         <f>X117/W31</f>
-        <v>22.673224978614201</v>
+        <v>20.650128314798973</v>
       </c>
       <c r="AE19" s="30">
         <f>AD102/W107</f>
-        <v>21.533664077088453</v>
+        <v>19.612254299754301</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5308,7 +5306,7 @@
       </c>
       <c r="AE22" s="32">
         <f>W107/AD102</f>
-        <v>4.6438915199015642E-2</v>
+        <v>5.098852914692871E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10567,7 +10565,7 @@
       </c>
       <c r="AD95" s="56">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10648,7 +10646,7 @@
       </c>
       <c r="AD96" s="57" cm="1">
         <f t="array" ref="AD96">_FV(A1,"Beta")</f>
-        <v>1.1308</v>
+        <v>1.1669</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10809,7 +10807,7 @@
       </c>
       <c r="AD98" s="55">
         <f>(AD95)+((AD96)*(AD97-AD95))</f>
-        <v>8.8575384000000007E-2</v>
+        <v>8.993329500000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -11049,7 +11047,7 @@
       </c>
       <c r="AD101" s="55">
         <f>AD100/AD104</f>
-        <v>4.2378739171535625E-2</v>
+        <v>4.6338189542702302E-2</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11130,7 +11128,7 @@
       </c>
       <c r="AD102" s="58" cm="1">
         <f t="array" ref="AD102">_FV(A1,"Market cap",TRUE)</f>
-        <v>14022722047</v>
+        <v>12771500000</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -11211,7 +11209,7 @@
       </c>
       <c r="AD103" s="55">
         <f>AD102/AD104</f>
-        <v>0.95762126082846433</v>
+        <v>0.9536618104572977</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11294,7 +11292,7 @@
       </c>
       <c r="AD104" s="59">
         <f>AD100+AD102</f>
-        <v>14643286047</v>
+        <v>13392064000</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11523,7 +11521,7 @@
       </c>
       <c r="AD106" s="61">
         <f>(AD101*AD93)+(AD103*AD98)</f>
-        <v>8.5190870009539815E-2</v>
+        <v>8.6169642349132602E-2</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -11626,7 +11624,7 @@
       <c r="Z108" s="71"/>
       <c r="AA108" s="49">
         <f>AA107*(1+AD108)/(AD109-AD108)</f>
-        <v>46693958727.537048</v>
+        <v>45946811066.157127</v>
       </c>
       <c r="AB108" s="50" t="s">
         <v>144</v>
@@ -11657,7 +11655,7 @@
       </c>
       <c r="AA109" s="49">
         <f>AA108+AA107</f>
-        <v>49435958727.537048</v>
+        <v>48688811066.157127</v>
       </c>
       <c r="AB109" s="50" t="s">
         <v>141</v>
@@ -11667,7 +11665,7 @@
       </c>
       <c r="AD109" s="36">
         <f>AD106</f>
-        <v>8.5190870009539815E-2</v>
+        <v>8.6169642349132602E-2</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="19" x14ac:dyDescent="0.2">
@@ -11688,7 +11686,7 @@
       </c>
       <c r="X111" s="58">
         <f>NPV(AD109,W109,X109,Y109,Z109,AA109)</f>
-        <v>35602324044.891174</v>
+        <v>34953261491.273796</v>
       </c>
       <c r="Y111" s="44"/>
       <c r="Z111" s="44"/>
@@ -11733,7 +11731,7 @@
       </c>
       <c r="X114" s="58">
         <f>X111+X112-X113</f>
-        <v>35249157044.891174</v>
+        <v>34600094491.273796</v>
       </c>
       <c r="Y114" s="44"/>
       <c r="Z114" s="44"/>
@@ -11763,7 +11761,7 @@
       </c>
       <c r="X116" s="67">
         <f>X114/X115</f>
-        <v>633.88956076515865</v>
+        <v>622.21739576848506</v>
       </c>
       <c r="Y116" s="44"/>
       <c r="Z116" s="44"/>
@@ -11778,7 +11776,7 @@
       </c>
       <c r="X117" s="68" cm="1">
         <f t="array" ref="X117">_FV(A1,"Price",TRUE)</f>
-        <v>265.05</v>
+        <v>241.4</v>
       </c>
       <c r="Y117" s="44"/>
       <c r="Z117" s="44"/>
@@ -11793,7 +11791,7 @@
       </c>
       <c r="X118" s="69">
         <f>X116/X117-1</f>
-        <v>1.391584835937214</v>
+        <v>1.5775368507393748</v>
       </c>
       <c r="Y118" s="44"/>
       <c r="Z118" s="44"/>

--- a/Technology/Hardware/Super Micro Computer.xlsx
+++ b/Technology/Hardware/Super Micro Computer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236CD769-3FB0-F140-B108-20DF52D2D115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3164421E-A1AB-7949-9449-983E445A6325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="500" windowWidth="36820" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1659,7 +1659,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1798,9 +1798,11 @@
     <v>Powered by Refinitiv</v>
     <v>356.99990000000003</v>
     <v>69.02</v>
-    <v>1.1495</v>
-    <v>9.1</v>
-    <v>3.7006999999999998E-2</v>
+    <v>1.1516</v>
+    <v>4.6100000000000003</v>
+    <v>1.7712000000000002E-2</v>
+    <v>-2</v>
+    <v>-7.5509999999999996E-3</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>5126</v>
@@ -1808,24 +1810,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Ave, SAN JOSE, CA, 95131-1615 US</v>
-    <v>268.58999999999997</v>
+    <v>280.18</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45233.999860392971</v>
+    <v>45239.969522441403</v>
     <v>0</v>
-    <v>248.32</v>
-    <v>13491020000</v>
+    <v>261.02999999999997</v>
+    <v>13875920000</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>249.36</v>
-    <v>23.5321</v>
-    <v>245.9</v>
-    <v>255</v>
-    <v>52905950</v>
+    <v>266.2</v>
+    <v>24.0184</v>
+    <v>260.27</v>
+    <v>264.88</v>
+    <v>262.88</v>
+    <v>53313540</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>2618</v>
-    <v>3382133</v>
+    <v>4010604</v>
+    <v>3296212</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1857,6 +1860,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1877,6 +1882,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1893,7 +1899,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1904,13 +1910,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1976,13 +1985,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2027,6 +2042,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2034,6 +2052,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -13927,7 +13948,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13976,7 +13997,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>13491020000</v>
+        <v>13875920000</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>201</v>
@@ -14004,7 +14025,7 @@
       </c>
       <c r="I3" s="39">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>37882974183.463646</v>
+        <v>37730546658.951317</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>205</v>
@@ -14047,21 +14068,21 @@
       </c>
       <c r="G4" s="46">
         <f>A5*(1+(5*G3))</f>
-        <v>55647077.579681218</v>
+        <v>56075785.359254256</v>
       </c>
       <c r="H4" s="47" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="48">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>29490702472.756744</v>
+        <v>29357859896.706139</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="49" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.7006999999999998E-2</v>
+        <v>1.7712000000000002E-2</v>
       </c>
       <c r="L4" s="47" t="s">
         <v>213</v>
@@ -14076,7 +14097,7 @@
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="46" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>52905950</v>
+        <v>53313540</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>215</v>
@@ -14104,14 +14125,14 @@
       </c>
       <c r="I5" s="48">
         <f>I4+G5-G6</f>
-        <v>29640859472.756744</v>
+        <v>29508016896.706139</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="51" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>255</v>
+        <v>264.88</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>220</v>
@@ -14129,7 +14150,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="54">
         <f>O20/F10</f>
-        <v>1.2836365366317792</v>
+        <v>1.3202588011417697</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>222</v>
@@ -14157,14 +14178,14 @@
       </c>
       <c r="I6" s="49">
         <f>N25</f>
-        <v>8.8340459710985961E-2</v>
+        <v>8.8596348647939069E-2</v>
       </c>
       <c r="J6" s="47" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="56">
         <f>I5/G4</f>
-        <v>532.65797166641698</v>
+        <v>526.21673878770548</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>226</v>
@@ -14182,14 +14203,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="60">
         <f>O20/F12</f>
-        <v>13.304753451676529</v>
+        <v>13.684339250493096</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="62">
         <f>F14/A3</f>
-        <v>2.0606299597806542E-2</v>
+        <v>2.0034707608576584E-2</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>229</v>
@@ -14216,7 +14237,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>1.0888547908486941</v>
+        <v>0.98662314552893937</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>232</v>
@@ -14522,7 +14543,7 @@
       </c>
       <c r="O14" s="78">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="41"/>
     </row>
@@ -14572,7 +14593,7 @@
       </c>
       <c r="O15" s="81" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1495</v>
+        <v>1.1516</v>
       </c>
       <c r="P15" s="41"/>
     </row>
@@ -14627,7 +14648,7 @@
       </c>
       <c r="O17" s="84">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.9577845000000003E-2</v>
+        <v>8.9804764000000009E-2</v>
       </c>
       <c r="P17" s="41"/>
     </row>
@@ -14702,7 +14723,7 @@
       </c>
       <c r="O20" s="86" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>13491020000</v>
+        <v>13875920000</v>
       </c>
       <c r="P20" s="41"/>
     </row>
@@ -14724,7 +14745,7 @@
       </c>
       <c r="O21" s="86">
         <f>O19+O20</f>
-        <v>13781322000</v>
+        <v>14166222000</v>
       </c>
       <c r="P21" s="41"/>
     </row>
@@ -14747,7 +14768,7 @@
       </c>
       <c r="O22" s="87">
         <f>(O19/O21)</f>
-        <v>2.1064887679135572E-2</v>
+        <v>2.0492549107306097E-2</v>
       </c>
       <c r="P22" s="41"/>
     </row>
@@ -14770,7 +14791,7 @@
       </c>
       <c r="O23" s="88">
         <f>O20/O21</f>
-        <v>0.97893511232086439</v>
+        <v>0.97950745089269387</v>
       </c>
       <c r="P23" s="41"/>
     </row>
@@ -14810,7 +14831,7 @@
       <c r="M25" s="75"/>
       <c r="N25" s="108">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.8340459710985961E-2</v>
+        <v>8.8596348647939069E-2</v>
       </c>
       <c r="O25" s="109"/>
       <c r="P25" s="41"/>

--- a/Technology/Hardware/Super Micro Computer.xlsx
+++ b/Technology/Hardware/Super Micro Computer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3164421E-A1AB-7949-9449-983E445A6325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A91443C-8F82-A54E-A62E-89C3E71DD670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="500" windowWidth="36820" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="252">
   <si>
     <t>2011 Y</t>
   </si>
@@ -827,6 +827,9 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -988,6 +991,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1071,7 +1080,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1109,94 +1118,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1283,7 +1204,115 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
@@ -1293,12 +1322,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1359,126 +1441,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1486,125 +1457,245 @@
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="12" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1659,7 +1750,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.5080000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1801,8 +1892,8 @@
     <v>1.1516</v>
     <v>4.6100000000000003</v>
     <v>1.7712000000000002E-2</v>
-    <v>-2</v>
-    <v>-7.5509999999999996E-3</v>
+    <v>-1.88</v>
+    <v>-7.0980000000000001E-3</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>5126</v>
@@ -1813,21 +1904,21 @@
     <v>280.18</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45239.969522441403</v>
+    <v>45240.041054212503</v>
     <v>0</v>
     <v>261.02999999999997</v>
     <v>13875920000</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>266.2</v>
-    <v>24.0184</v>
+    <v>24.443899999999999</v>
     <v>260.27</v>
     <v>264.88</v>
-    <v>262.88</v>
+    <v>263</v>
     <v>53313540</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>4010604</v>
+    <v>4015648</v>
     <v>3296212</v>
     <v>2006</v>
   </rv>
@@ -1993,9 +2084,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -13947,8 +14038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED5ED9C-BE15-794D-A70F-2F8CB40C958E}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13956,1733 +14047,1790 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="e" vm="1">
+    <row r="1" spans="1:16" s="50" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-    </row>
-    <row r="2" spans="1:16" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+    </row>
+    <row r="2" spans="1:16" s="50" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" cm="1">
+      <c r="A3" s="70" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
         <v>13875920000</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="72">
         <f>Financials!O8*0.01</f>
         <v>0.18010000000000001</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="72">
         <f>SUM(C11:E11)/3</f>
         <v>0.29896356175309879</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="74">
         <f>AVERAGE(Financials!K129:O129)</f>
         <v>1.0362265793095937E-2</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="39">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>37730546658.951317</v>
-      </c>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="75">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>37675126211.355927</v>
+      </c>
+      <c r="J3" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="77">
         <f>(Financials!O172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="112" t="s">
+      <c r="M3" s="34"/>
+      <c r="N3" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="41"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42">
+      <c r="A4" s="79">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>150157000</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="36">
         <f>Financials!O17*0.01</f>
         <v>0.10680000000000001</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="36">
         <f>SUM(C13:E13)/3</f>
         <v>1.0401184436685726</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="82">
         <f>A5*(1+(5*G3))</f>
         <v>56075785.359254256</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="48">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>29357859896.706139</v>
-      </c>
-      <c r="J4" s="45" t="s">
+      <c r="I4" s="35">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>29309563634.950386</v>
+      </c>
+      <c r="J4" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="49" cm="1">
+      <c r="K4" s="83" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
         <v>1.7712000000000002E-2</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="114" t="s">
+      <c r="M4" s="34"/>
+      <c r="N4" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="115"/>
-      <c r="P4" s="41"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" cm="1">
+      <c r="A5" s="79" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>53313540</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="50">
-        <f>Financials!O34*0.01</f>
-        <v>8.9800000000000005E-2</v>
-      </c>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="36">
+        <f>F14</f>
+        <v>9.647954329210276E-2</v>
+      </c>
+      <c r="D5" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="44">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="36">
+        <f>SUM(C16:E16)/3</f>
         <v>-4.1567717109996609</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="82">
         <f>Financials!O56</f>
         <v>440459000</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>29508016896.706139</v>
-      </c>
-      <c r="J5" s="45" t="s">
+        <v>29459720634.950386</v>
+      </c>
+      <c r="J5" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="K5" s="51" cm="1">
+      <c r="K5" s="86" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
         <v>264.88</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="52" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="106">
         <f>Financials!O21</f>
         <v>10491000</v>
       </c>
-      <c r="P5" s="41"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54">
+      <c r="A6" s="88">
         <f>O20/F10</f>
         <v>1.3202588011417697</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="44">
-        <f>Financials!O190</f>
-        <v>9.0393128248235907E-2</v>
-      </c>
-      <c r="D6" s="55" t="s">
+      <c r="C6" s="36">
+        <f>F17</f>
+        <v>2.6450999048525214E-2</v>
+      </c>
+      <c r="D6" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="36">
         <f>Financials!O33/Financials!O126</f>
         <v>0.32451462095052658</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="82">
         <f>Financials!O96+Financials!O105</f>
         <v>290302000</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="83">
         <f>N25</f>
-        <v>8.8596348647939069E-2</v>
-      </c>
-      <c r="J6" s="47" t="s">
+        <v>8.8689899445558926E-2</v>
+      </c>
+      <c r="J6" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="89">
         <f>I5/G4</f>
-        <v>526.21673878770548</v>
-      </c>
-      <c r="L6" s="57" t="s">
+        <v>525.35547110422431</v>
+      </c>
+      <c r="L6" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="58" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="106">
         <f>Financials!O96</f>
         <v>170123000</v>
       </c>
-      <c r="P6" s="41"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60">
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="91">
         <f>O20/F12</f>
         <v>13.684339250493096</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="62">
-        <f>F14/A3</f>
+      <c r="C7" s="93">
+        <f>F15/A3</f>
         <v>2.0034707608576584E-2</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="94">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.2523153877705448</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="95">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.14719927795271198</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="97">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="99">
         <f>K6/K5-1</f>
-        <v>0.98662314552893937</v>
-      </c>
-      <c r="L7" s="70" t="s">
+        <v>0.98337160640374632</v>
+      </c>
+      <c r="L7" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="58" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="O7" s="59">
+      <c r="O7" s="106">
         <f>Financials!O105</f>
         <v>120179000</v>
       </c>
-      <c r="P7" s="41"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="72" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="O8" s="73">
+      <c r="O8" s="108">
         <f>O5/(O6+O7)</f>
         <v>3.6138228465528999E-2</v>
       </c>
-      <c r="P8" s="41"/>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
-      <c r="B9" s="91">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42">
         <v>2020</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="42">
         <v>2021</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="42">
         <v>2022</v>
       </c>
-      <c r="E9" s="91">
+      <c r="E9" s="58">
         <v>2023</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="59">
         <v>2024</v>
       </c>
-      <c r="G9" s="93">
+      <c r="G9" s="60">
         <v>2025</v>
       </c>
-      <c r="H9" s="93">
+      <c r="H9" s="60">
         <v>2026</v>
       </c>
-      <c r="I9" s="93">
+      <c r="I9" s="60">
         <v>2027</v>
       </c>
-      <c r="J9" s="94">
+      <c r="J9" s="61">
         <v>2028</v>
       </c>
-      <c r="K9" s="74"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="58" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="106">
         <f>Financials!O25</f>
         <v>110666000</v>
       </c>
-      <c r="P9" s="41"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="96">
+      <c r="B10" s="44">
         <v>3339281000</v>
       </c>
-      <c r="C10" s="96">
+      <c r="C10" s="44">
         <v>3557422000</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="44">
         <v>5196099000</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="62">
         <v>7123482000</v>
       </c>
-      <c r="F10" s="97">
+      <c r="F10" s="44">
         <v>10510000000</v>
       </c>
-      <c r="G10" s="96">
+      <c r="G10" s="44">
         <v>12133000000</v>
       </c>
-      <c r="H10" s="96">
+      <c r="H10" s="44">
         <v>13200000000</v>
       </c>
-      <c r="I10" s="96">
+      <c r="I10" s="44">
         <v>16790000000</v>
       </c>
-      <c r="J10" s="96">
+      <c r="J10" s="62">
         <v>21790000000</v>
       </c>
-      <c r="K10" s="98" t="s">
+      <c r="K10" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="L10" s="75"/>
-      <c r="N10" s="58" t="s">
+      <c r="L10" s="38"/>
+      <c r="N10" s="105" t="s">
         <v>237</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="106">
         <f>Financials!O24</f>
         <v>754297000</v>
       </c>
-      <c r="P10" s="41"/>
+      <c r="P10" s="34"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76">
+      <c r="A11" s="47"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>6.5325739283396578E-2</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="39">
         <f t="shared" si="0"/>
         <v>0.46063610108668573</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="39">
         <f t="shared" si="0"/>
         <v>0.37092884488921407</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="40">
         <f t="shared" si="0"/>
         <v>0.47540205758925191</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="39">
         <f t="shared" si="0"/>
         <v>0.15442435775451946</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="39">
         <f t="shared" si="0"/>
         <v>8.7941976427923896E-2</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="39">
         <f t="shared" si="0"/>
         <v>0.27196969696969697</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="63">
         <f t="shared" si="0"/>
         <v>0.29779630732578921</v>
       </c>
-      <c r="K11" s="103">
+      <c r="K11" s="63">
         <f>SUM(F11:J11)/5</f>
         <v>0.25750687921343629</v>
       </c>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="58" t="s">
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="105" t="s">
         <v>238</v>
       </c>
-      <c r="O11" s="78">
+      <c r="O11" s="109">
         <f>O9/O10</f>
         <v>0.146714092724749</v>
       </c>
-      <c r="P11" s="41"/>
+      <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="96">
+      <c r="B12" s="44">
         <v>84308000</v>
       </c>
-      <c r="C12" s="96">
+      <c r="C12" s="44">
         <v>111865000</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="44">
         <v>285163000</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="44">
         <v>639998000</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="45">
         <v>1014000000</v>
       </c>
-      <c r="G12" s="96">
+      <c r="G12" s="44">
         <v>1123000000</v>
       </c>
-      <c r="H12" s="96">
+      <c r="H12" s="44">
         <v>1529000000</v>
       </c>
-      <c r="I12" s="96">
+      <c r="I12" s="44">
         <v>1767000000</v>
       </c>
-      <c r="J12" s="96">
+      <c r="J12" s="62">
         <v>2121000000</v>
       </c>
-      <c r="K12" s="98" t="s">
+      <c r="K12" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="79" t="s">
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="105" t="s">
         <v>240</v>
       </c>
-      <c r="O12" s="80">
+      <c r="O12" s="109">
         <f>O8*(1-O11)</f>
         <v>3.0836241063529213E-2</v>
       </c>
-      <c r="P12" s="41"/>
+      <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76">
+      <c r="A13" s="47"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.32686103335389283</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="39">
         <f t="shared" si="1"/>
         <v>1.549170875608993</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="39">
         <f t="shared" si="1"/>
         <v>1.2443234220428319</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="40">
         <f t="shared" si="1"/>
         <v>0.58437995118734753</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="39">
         <f t="shared" si="1"/>
         <v>0.10749506903353057</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="39">
         <f t="shared" si="1"/>
         <v>0.36153161175422976</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="39">
         <f t="shared" si="1"/>
         <v>0.15565729234793979</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="63">
         <f t="shared" si="1"/>
         <v>0.20033955857385388</v>
       </c>
-      <c r="K13" s="103">
+      <c r="K13" s="63">
         <f>SUM(F13:J13)/5</f>
         <v>0.28188069657938031</v>
       </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="114" t="s">
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="103" t="s">
         <v>241</v>
       </c>
-      <c r="O13" s="115"/>
-      <c r="P13" s="41"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="55">
+        <f>B12/B10</f>
+        <v>2.5247351151340663E-2</v>
+      </c>
+      <c r="C14" s="55">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>3.1445524315079854E-2</v>
+      </c>
+      <c r="D14" s="55">
+        <f t="shared" si="2"/>
+        <v>5.4880209172304066E-2</v>
+      </c>
+      <c r="E14" s="55">
+        <f t="shared" si="2"/>
+        <v>8.9843422079258425E-2</v>
+      </c>
+      <c r="F14" s="56">
+        <f t="shared" si="2"/>
+        <v>9.647954329210276E-2</v>
+      </c>
+      <c r="G14" s="55">
+        <f t="shared" si="2"/>
+        <v>9.2557487843072606E-2</v>
+      </c>
+      <c r="H14" s="55">
+        <f t="shared" si="2"/>
+        <v>0.11583333333333333</v>
+      </c>
+      <c r="I14" s="55">
+        <f t="shared" si="2"/>
+        <v>0.10524121500893389</v>
+      </c>
+      <c r="J14" s="57">
+        <f t="shared" si="2"/>
+        <v>9.7338228545204228E-2</v>
+      </c>
+      <c r="K14" s="57"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="O14" s="109">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.5080000000000002E-2</v>
+      </c>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="96">
+      <c r="B15" s="44">
         <v>-72513022</v>
       </c>
-      <c r="C14" s="96">
+      <c r="C15" s="44">
         <v>67278706</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D15" s="44">
         <v>-480576712</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E15" s="44">
         <v>672531822</v>
       </c>
-      <c r="F14" s="97">
+      <c r="F15" s="45">
         <v>278000000</v>
       </c>
-      <c r="G14" s="96">
+      <c r="G15" s="44">
         <v>902000000</v>
       </c>
-      <c r="H14" s="96">
+      <c r="H15" s="44">
         <v>1277000000</v>
       </c>
-      <c r="I14" s="96">
+      <c r="I15" s="44">
         <v>1600000000</v>
       </c>
-      <c r="J14" s="96">
+      <c r="J15" s="62">
         <v>2341000000</v>
       </c>
-      <c r="K14" s="98" t="s">
+      <c r="K15" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="O14" s="78">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="41"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
-        <v>-1.9278155032622968</v>
-      </c>
-      <c r="D15" s="76">
-        <f t="shared" si="2"/>
-        <v>-8.1430730549425263</v>
-      </c>
-      <c r="E15" s="76">
-        <f t="shared" si="2"/>
-        <v>-2.3994265747941608</v>
-      </c>
-      <c r="F15" s="77">
-        <f t="shared" si="2"/>
-        <v>-0.5866366602947154</v>
-      </c>
-      <c r="G15" s="76">
-        <f t="shared" si="2"/>
-        <v>2.2446043165467624</v>
-      </c>
-      <c r="H15" s="76">
-        <f t="shared" si="2"/>
-        <v>0.41574279379157431</v>
-      </c>
-      <c r="I15" s="76">
-        <f t="shared" si="2"/>
-        <v>0.25293657008613946</v>
-      </c>
-      <c r="J15" s="76">
-        <f t="shared" si="2"/>
-        <v>0.46312500000000001</v>
-      </c>
-      <c r="K15" s="103">
-        <f>SUM(F15:J15)/5</f>
-        <v>0.55795440402595209</v>
-      </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="58" t="s">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="105" t="s">
         <v>244</v>
       </c>
-      <c r="O15" s="81" cm="1">
+      <c r="O15" s="110" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
         <v>1.1516</v>
       </c>
-      <c r="P15" s="41"/>
+      <c r="P15" s="34"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
+        <v>-1.9278155032622968</v>
+      </c>
+      <c r="D16" s="39">
+        <f t="shared" si="3"/>
+        <v>-8.1430730549425263</v>
+      </c>
+      <c r="E16" s="39">
+        <f t="shared" si="3"/>
+        <v>-2.3994265747941608</v>
+      </c>
+      <c r="F16" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.5866366602947154</v>
+      </c>
+      <c r="G16" s="39">
+        <f t="shared" si="3"/>
+        <v>2.2446043165467624</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" si="3"/>
+        <v>0.41574279379157431</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="3"/>
+        <v>0.25293657008613946</v>
+      </c>
+      <c r="J16" s="63">
+        <f t="shared" si="3"/>
+        <v>0.46312500000000001</v>
+      </c>
+      <c r="K16" s="63">
+        <f>SUM(F16:J16)/5</f>
+        <v>0.55795440402595209</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="105" t="s">
+        <v>245</v>
+      </c>
+      <c r="O16" s="109">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="55">
+        <f>B15/B10</f>
+        <v>-2.1715160239584509E-2</v>
+      </c>
+      <c r="C17" s="55">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>1.8912208335137074E-2</v>
+      </c>
+      <c r="D17" s="55">
+        <f t="shared" si="4"/>
+        <v>-9.2487982234364663E-2</v>
+      </c>
+      <c r="E17" s="57">
+        <f t="shared" si="4"/>
+        <v>9.4410545573077889E-2</v>
+      </c>
+      <c r="F17" s="55">
+        <f t="shared" si="4"/>
+        <v>2.6450999048525214E-2</v>
+      </c>
+      <c r="G17" s="55">
+        <f t="shared" si="4"/>
+        <v>7.4342701722574803E-2</v>
+      </c>
+      <c r="H17" s="55">
+        <f t="shared" si="4"/>
+        <v>9.6742424242424241E-2</v>
+      </c>
+      <c r="I17" s="55">
+        <f t="shared" si="4"/>
+        <v>9.5294818344252533E-2</v>
+      </c>
+      <c r="J17" s="57">
+        <f t="shared" si="4"/>
+        <v>0.10743460302891235</v>
+      </c>
+      <c r="K17" s="57"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="111" t="s">
+        <v>241</v>
+      </c>
+      <c r="O17" s="112">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>8.9900272000000003E-2</v>
+      </c>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B18" s="66">
         <v>5.8661337511916635E-2</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C18" s="66">
         <v>7.7817833428763722E-2</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D18" s="66">
         <v>0.12428869360908297</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E18" s="66">
         <v>0.2523153877705448</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="58" t="s">
-        <v>245</v>
-      </c>
-      <c r="O16" s="78">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="41"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="83" t="s">
-        <v>241</v>
-      </c>
-      <c r="O17" s="84">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.9804764000000009E-2</v>
-      </c>
-      <c r="P17" s="41"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="114" t="s">
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="O18" s="115"/>
-      <c r="P18" s="41"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Computers, Phones &amp; Household Electronics</v>
-      </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="89" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2006</v>
-      </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="58" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="O19" s="86">
+      <c r="O19" s="113">
         <f>O6+O7</f>
         <v>290302000</v>
       </c>
-      <c r="P19" s="41"/>
+      <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="105" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
-        <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
-      </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="58" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="86" cm="1">
+      <c r="O20" s="113" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
         <v>13875920000</v>
       </c>
-      <c r="P20" s="41"/>
+      <c r="P20" s="34"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="58" t="s">
+      <c r="A21" s="52" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Computers, Phones &amp; Household Electronics</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2006</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="O21" s="86">
+      <c r="O21" s="113">
         <f>O19+O20</f>
         <v>14166222000</v>
       </c>
-      <c r="P21" s="41"/>
+      <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="72" t="s">
+      <c r="A22" s="51" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
+        <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
+      </c>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="O22" s="87">
+      <c r="O22" s="114">
         <f>(O19/O21)</f>
         <v>2.0492549107306097E-2</v>
       </c>
-      <c r="P22" s="41"/>
+      <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="83" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="O23" s="88">
+      <c r="O23" s="115">
         <f>O20/O21</f>
         <v>0.97950745089269387</v>
       </c>
-      <c r="P23" s="41"/>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="106" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="116" t="s">
         <v>250</v>
       </c>
-      <c r="O24" s="107"/>
-      <c r="P24" s="41"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="108">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.8596348647939069E-2</v>
-      </c>
-      <c r="O25" s="109"/>
-      <c r="P25" s="41"/>
+        <v>8.8689899445558926E-2</v>
+      </c>
+      <c r="O25" s="119"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="75"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="75"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="75"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="75"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="75"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="75"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="75"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="75"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="75"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="75"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="75"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="75"/>
-      <c r="N49" s="75"/>
-      <c r="O49" s="75"/>
-      <c r="P49" s="75"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="75"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="75"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="75"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="75"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="75"/>
-      <c r="P54" s="75"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="75"/>
-      <c r="B55" s="75"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="75"/>
-      <c r="O55" s="75"/>
-      <c r="P55" s="75"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="75"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="75"/>
-      <c r="P56" s="75"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="75"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="75"/>
-      <c r="P57" s="75"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="75"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75"/>
-      <c r="P58" s="75"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="75"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="75"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="75"/>
-      <c r="P59" s="75"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="75"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="75"/>
-      <c r="P60" s="75"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="75"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
-      <c r="P61" s="75"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="41"/>
-      <c r="P74" s="41"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="41"/>
-      <c r="P80" s="41"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="41"/>
-      <c r="P81" s="41"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="41"/>
-      <c r="P94" s="41"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="41"/>
-      <c r="P104" s="41"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="41"/>
-      <c r="P110" s="41"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A20:E27"/>
+  <mergeCells count="10">
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -15690,7 +15838,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:E30"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:SMCI/explorer/revenue_proj" xr:uid="{17FA3662-1916-004C-B3A0-B837ECE0AF75}"/>

--- a/Technology/Hardware/Super Micro Computer.xlsx
+++ b/Technology/Hardware/Super Micro Computer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A91443C-8F82-A54E-A62E-89C3E71DD670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BF9913-3EB5-E543-9E8E-0B33A359C689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1484,21 +1484,6 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1640,18 +1625,6 @@
     <xf numFmtId="9" fontId="15" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="12" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1697,6 +1670,33 @@
     <xf numFmtId="10" fontId="19" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="12" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1733,6 +1733,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1750,7 +1751,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1762,6 +1763,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1889,11 +1891,11 @@
     <v>Powered by Refinitiv</v>
     <v>356.99990000000003</v>
     <v>69.02</v>
-    <v>1.1516</v>
-    <v>4.6100000000000003</v>
-    <v>1.7712000000000002E-2</v>
-    <v>-1.88</v>
-    <v>-7.0980000000000001E-3</v>
+    <v>1.1388</v>
+    <v>-3.84</v>
+    <v>-1.4041999999999999E-2</v>
+    <v>1.1201000000000001</v>
+    <v>4.1539999999999997E-3</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>5126</v>
@@ -1901,25 +1903,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Ave, SAN JOSE, CA, 95131-1615 US</v>
-    <v>280.18</v>
+    <v>270.7</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45240.041054212503</v>
+    <v>45262.040761446093</v>
     <v>0</v>
-    <v>261.02999999999997</v>
-    <v>13875920000</v>
+    <v>260.25</v>
+    <v>14374929790</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>266.2</v>
-    <v>24.443899999999999</v>
-    <v>260.27</v>
-    <v>264.88</v>
-    <v>263</v>
+    <v>262.26</v>
+    <v>25.236599999999999</v>
+    <v>273.47000000000003</v>
+    <v>269.63</v>
+    <v>270.75009999999997</v>
     <v>53313540</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>4015648</v>
-    <v>3296212</v>
+    <v>4297581</v>
+    <v>3163484</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2084,9 +2086,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14038,8 +14040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED5ED9C-BE15-794D-A70F-2F8CB40C958E}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14047,297 +14049,297 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="50" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="e" vm="1">
+    <row r="1" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="111" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-    </row>
-    <row r="2" spans="1:16" s="50" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+    </row>
+    <row r="2" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" cm="1">
+      <c r="A3" s="65" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>13875920000</v>
-      </c>
-      <c r="B3" s="71" t="s">
+        <v>14374929790</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="67">
         <f>Financials!O8*0.01</f>
         <v>0.18010000000000001</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="67">
         <f>SUM(C11:E11)/3</f>
         <v>0.29896356175309879</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G3" s="69">
         <f>AVERAGE(Financials!K129:O129)</f>
         <v>1.0362265793095937E-2</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="70">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>37675126211.355927</v>
-      </c>
-      <c r="J3" s="76" t="s">
+        <v>37749027196.432198</v>
+      </c>
+      <c r="J3" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="72">
         <f>(Financials!O172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="73" t="s">
         <v>206</v>
       </c>
       <c r="M3" s="34"/>
-      <c r="N3" s="101" t="s">
+      <c r="N3" s="113" t="s">
         <v>207</v>
       </c>
-      <c r="O3" s="102"/>
+      <c r="O3" s="114"/>
       <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79">
+      <c r="A4" s="74">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>150157000</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="75" t="s">
         <v>208</v>
       </c>
       <c r="C4" s="36">
         <f>Financials!O17*0.01</f>
         <v>0.10680000000000001</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="75" t="s">
         <v>209</v>
       </c>
       <c r="E4" s="36">
         <f>SUM(C13:E13)/3</f>
         <v>1.0401184436685726</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="77">
         <f>A5*(1+(5*G3))</f>
         <v>56075785.359254256</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="76" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="35">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>29309563634.950386</v>
-      </c>
-      <c r="J4" s="81" t="s">
+        <v>29373965200.843857</v>
+      </c>
+      <c r="J4" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="83" cm="1">
+      <c r="K4" s="78" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.7712000000000002E-2</v>
-      </c>
-      <c r="L4" s="84" t="s">
+        <v>-1.4041999999999999E-2</v>
+      </c>
+      <c r="L4" s="79" t="s">
         <v>213</v>
       </c>
       <c r="M4" s="34"/>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="104"/>
+      <c r="O4" s="116"/>
       <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="79" cm="1">
+      <c r="A5" s="74" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>53313540</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="75" t="s">
         <v>215</v>
       </c>
       <c r="C5" s="36">
         <f>F14</f>
         <v>9.647954329210276E-2</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="80" t="s">
         <v>216</v>
       </c>
       <c r="E5" s="36">
         <f>SUM(C16:E16)/3</f>
         <v>-4.1567717109996609</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="77">
         <f>Financials!O56</f>
         <v>440459000</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="76" t="s">
         <v>218</v>
       </c>
       <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>29459720634.950386</v>
-      </c>
-      <c r="J5" s="81" t="s">
+        <v>29524122200.843857</v>
+      </c>
+      <c r="J5" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="K5" s="86" cm="1">
+      <c r="K5" s="81" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>264.88</v>
-      </c>
-      <c r="L5" s="87" t="s">
+        <v>269.63</v>
+      </c>
+      <c r="L5" s="82" t="s">
         <v>220</v>
       </c>
       <c r="M5" s="34"/>
-      <c r="N5" s="105" t="s">
+      <c r="N5" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="O5" s="106">
+      <c r="O5" s="97">
         <f>Financials!O21</f>
         <v>10491000</v>
       </c>
       <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="88">
+      <c r="A6" s="83">
         <f>O20/F10</f>
-        <v>1.3202588011417697</v>
-      </c>
-      <c r="B6" s="80" t="s">
+        <v>1.367738324452902</v>
+      </c>
+      <c r="B6" s="75" t="s">
         <v>222</v>
       </c>
       <c r="C6" s="36">
         <f>F17</f>
         <v>2.6450999048525214E-2</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="80" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="36">
         <f>Financials!O33/Financials!O126</f>
         <v>0.32451462095052658</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="77">
         <f>Financials!O96+Financials!O105</f>
         <v>290302000</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="83">
+      <c r="I6" s="78">
         <f>N25</f>
-        <v>8.8689899445558926E-2</v>
-      </c>
-      <c r="J6" s="81" t="s">
+        <v>8.856521421105093E-2</v>
+      </c>
+      <c r="J6" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="89">
+      <c r="K6" s="84">
         <f>I5/G4</f>
-        <v>525.35547110422431</v>
-      </c>
-      <c r="L6" s="90" t="s">
+        <v>526.50394482565116</v>
+      </c>
+      <c r="L6" s="85" t="s">
         <v>226</v>
       </c>
       <c r="M6" s="34"/>
-      <c r="N6" s="105" t="s">
+      <c r="N6" s="96" t="s">
         <v>227</v>
       </c>
-      <c r="O6" s="106">
+      <c r="O6" s="97">
         <f>Financials!O96</f>
         <v>170123000</v>
       </c>
       <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91">
+      <c r="A7" s="86">
         <f>O20/F12</f>
-        <v>13.684339250493096</v>
-      </c>
-      <c r="B7" s="92" t="s">
+        <v>14.176459358974359</v>
+      </c>
+      <c r="B7" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="88">
         <f>F15/A3</f>
-        <v>2.0034707608576584E-2</v>
-      </c>
-      <c r="D7" s="92" t="s">
+        <v>1.9339224890920319E-2</v>
+      </c>
+      <c r="D7" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="94">
+      <c r="E7" s="89">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.2523153877705448</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="90">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.14719927795271198</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H7" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="I7" s="97">
+      <c r="I7" s="92">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="K7" s="99">
+      <c r="K7" s="94">
         <f>K6/K5-1</f>
-        <v>0.98337160640374632</v>
-      </c>
-      <c r="L7" s="100" t="s">
+        <v>0.95269051969606933</v>
+      </c>
+      <c r="L7" s="95" t="s">
         <v>232</v>
       </c>
       <c r="M7" s="34"/>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="96" t="s">
         <v>233</v>
       </c>
-      <c r="O7" s="106">
+      <c r="O7" s="97">
         <f>Financials!O105</f>
         <v>120179000</v>
       </c>
@@ -14357,10 +14359,10 @@
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="107" t="s">
+      <c r="N8" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="O8" s="108">
+      <c r="O8" s="99">
         <f>O5/(O6+O7)</f>
         <v>3.6138228465528999E-2</v>
       </c>
@@ -14377,31 +14379,31 @@
       <c r="D9" s="42">
         <v>2022</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="53">
         <v>2023</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="54">
         <v>2024</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="55">
         <v>2025</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="55">
         <v>2026</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="55">
         <v>2027</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9" s="56">
         <v>2028</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
-      <c r="N9" s="105" t="s">
+      <c r="N9" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="O9" s="106">
+      <c r="O9" s="97">
         <f>Financials!O25</f>
         <v>110666000</v>
       </c>
@@ -14420,7 +14422,7 @@
       <c r="D10" s="44">
         <v>5196099000</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="57">
         <v>7123482000</v>
       </c>
       <c r="F10" s="44">
@@ -14435,17 +14437,17 @@
       <c r="I10" s="44">
         <v>16790000000</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="57">
         <v>21790000000</v>
       </c>
       <c r="K10" s="46" t="s">
         <v>236</v>
       </c>
       <c r="L10" s="38"/>
-      <c r="N10" s="105" t="s">
+      <c r="N10" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="O10" s="106">
+      <c r="O10" s="97">
         <f>Financials!O24</f>
         <v>754297000</v>
       </c>
@@ -14482,20 +14484,20 @@
         <f t="shared" si="0"/>
         <v>0.27196969696969697</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="58">
         <f t="shared" si="0"/>
         <v>0.29779630732578921</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="58">
         <f>SUM(F11:J11)/5</f>
         <v>0.25750687921343629</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
-      <c r="N11" s="105" t="s">
+      <c r="N11" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="O11" s="109">
+      <c r="O11" s="100">
         <f>O9/O10</f>
         <v>0.146714092724749</v>
       </c>
@@ -14529,18 +14531,18 @@
       <c r="I12" s="44">
         <v>1767000000</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="57">
         <v>2121000000</v>
       </c>
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="59" t="s">
         <v>239</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
-      <c r="N12" s="105" t="s">
+      <c r="N12" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="O12" s="109">
+      <c r="O12" s="100">
         <f>O8*(1-O11)</f>
         <v>3.0836241063529213E-2</v>
       </c>
@@ -14577,71 +14579,71 @@
         <f t="shared" si="1"/>
         <v>0.15565729234793979</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="58">
         <f t="shared" si="1"/>
         <v>0.20033955857385388</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="58">
         <f>SUM(F13:J13)/5</f>
         <v>0.28188069657938031</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="O13" s="104"/>
+      <c r="O13" s="116"/>
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="50">
         <f>B12/B10</f>
         <v>2.5247351151340663E-2</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="50">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>3.1445524315079854E-2</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="50">
         <f t="shared" si="2"/>
         <v>5.4880209172304066E-2</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="50">
         <f t="shared" si="2"/>
         <v>8.9843422079258425E-2</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="51">
         <f t="shared" si="2"/>
         <v>9.647954329210276E-2</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="50">
         <f t="shared" si="2"/>
         <v>9.2557487843072606E-2</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="50">
         <f t="shared" si="2"/>
         <v>0.11583333333333333</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="50">
         <f t="shared" si="2"/>
         <v>0.10524121500893389</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="52">
         <f t="shared" si="2"/>
         <v>9.7338228545204228E-2</v>
       </c>
-      <c r="K14" s="57"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
-      <c r="N14" s="105" t="s">
+      <c r="N14" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="O14" s="109">
+      <c r="O14" s="100">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="34"/>
     </row>
@@ -14673,20 +14675,20 @@
       <c r="I15" s="44">
         <v>1600000000</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="57">
         <v>2341000000</v>
       </c>
-      <c r="K15" s="64" t="s">
+      <c r="K15" s="59" t="s">
         <v>242</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
-      <c r="N15" s="105" t="s">
+      <c r="N15" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="O15" s="110" cm="1">
+      <c r="O15" s="101" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1516</v>
+        <v>1.1388</v>
       </c>
       <c r="P15" s="34"/>
     </row>
@@ -14721,104 +14723,104 @@
         <f t="shared" si="3"/>
         <v>0.25293657008613946</v>
       </c>
-      <c r="J16" s="63">
+      <c r="J16" s="58">
         <f t="shared" si="3"/>
         <v>0.46312500000000001</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="58">
         <f>SUM(F16:J16)/5</f>
         <v>0.55795440402595209</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
-      <c r="N16" s="105" t="s">
+      <c r="N16" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="O16" s="109">
+      <c r="O16" s="100">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="34"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="50">
         <f>B15/B10</f>
         <v>-2.1715160239584509E-2</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="50">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>1.8912208335137074E-2</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="50">
         <f t="shared" si="4"/>
         <v>-9.2487982234364663E-2</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="52">
         <f t="shared" si="4"/>
         <v>9.4410545573077889E-2</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="50">
         <f t="shared" si="4"/>
         <v>2.6450999048525214E-2</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="50">
         <f t="shared" si="4"/>
         <v>7.4342701722574803E-2</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="50">
         <f t="shared" si="4"/>
         <v>9.6742424242424241E-2</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="50">
         <f t="shared" si="4"/>
         <v>9.5294818344252533E-2</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="52">
         <f t="shared" si="4"/>
         <v>0.10743460302891235</v>
       </c>
-      <c r="K17" s="57"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
-      <c r="N17" s="111" t="s">
+      <c r="N17" s="102" t="s">
         <v>241</v>
       </c>
-      <c r="O17" s="112">
+      <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.9900272000000003E-2</v>
+        <v>8.9731052000000006E-2</v>
       </c>
       <c r="P17" s="34"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="61">
         <v>5.8661337511916635E-2</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="61">
         <v>7.7817833428763722E-2</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="61">
         <v>0.12428869360908297</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="61">
         <v>0.2523153877705448</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
-      <c r="N18" s="103" t="s">
+      <c r="N18" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="O18" s="104"/>
+      <c r="O18" s="116"/>
       <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -14835,10 +14837,10 @@
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="105" t="s">
+      <c r="N19" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="O19" s="113">
+      <c r="O19" s="104">
         <f>O6+O7</f>
         <v>290302000</v>
       </c>
@@ -14858,27 +14860,27 @@
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
-      <c r="N20" s="105" t="s">
+      <c r="N20" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="113" cm="1">
+      <c r="O20" s="104" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>13875920000</v>
+        <v>14374929790</v>
       </c>
       <c r="P20" s="34"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="str" cm="1">
+      <c r="A21" s="119" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Computers, Phones &amp; Household Electronics</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53" cm="1">
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="118" cm="1">
         <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2006</v>
       </c>
-      <c r="E21" s="53"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
@@ -14886,24 +14888,24 @@
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
       <c r="M21" s="38"/>
-      <c r="N21" s="105" t="s">
+      <c r="N21" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="O21" s="113">
+      <c r="O21" s="104">
         <f>O19+O20</f>
-        <v>14166222000</v>
+        <v>14665231790</v>
       </c>
       <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="str" cm="1">
+      <c r="A22" s="117" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
@@ -14912,21 +14914,21 @@
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
-      <c r="N22" s="107" t="s">
+      <c r="N22" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="O22" s="114">
+      <c r="O22" s="105">
         <f>(O19/O21)</f>
-        <v>2.0492549107306097E-2</v>
+        <v>1.979525480108351E-2</v>
       </c>
       <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
@@ -14935,21 +14937,21 @@
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
-      <c r="N23" s="111" t="s">
+      <c r="N23" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="O23" s="115">
+      <c r="O23" s="106">
         <f>O20/O21</f>
-        <v>0.97950745089269387</v>
+        <v>0.98020474519891654</v>
       </c>
       <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
@@ -14958,18 +14960,18 @@
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
-      <c r="N24" s="116" t="s">
+      <c r="N24" s="107" t="s">
         <v>250</v>
       </c>
-      <c r="O24" s="117"/>
+      <c r="O24" s="108"/>
       <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
@@ -14978,19 +14980,19 @@
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
-      <c r="N25" s="118">
+      <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.8689899445558926E-2</v>
-      </c>
-      <c r="O25" s="119"/>
+        <v>8.856521421105093E-2</v>
+      </c>
+      <c r="O25" s="110"/>
       <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
@@ -15004,11 +15006,11 @@
       <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
@@ -15022,11 +15024,11 @@
       <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
@@ -15040,11 +15042,11 @@
       <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
@@ -15058,11 +15060,11 @@
       <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>

--- a/Technology/Hardware/Super Micro Computer.xlsx
+++ b/Technology/Hardware/Super Micro Computer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BF9913-3EB5-E543-9E8E-0B33A359C689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6CFBEC-EB09-8947-8F03-EBFA3616A005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,6 +1732,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1751,7 +1753,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1764,6 +1766,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1891,11 +1895,11 @@
     <v>Powered by Refinitiv</v>
     <v>356.99990000000003</v>
     <v>69.02</v>
-    <v>1.1388</v>
-    <v>-3.84</v>
-    <v>-1.4041999999999999E-2</v>
-    <v>1.1201000000000001</v>
-    <v>4.1539999999999997E-3</v>
+    <v>1.1417999999999999</v>
+    <v>16.5</v>
+    <v>6.4415E-2</v>
+    <v>1</v>
+    <v>3.6680000000000003E-3</v>
     <v>USD</v>
     <v>Super Micro Computer, Inc. is an application-optimized Total IT solution. The Company provides Silicon Valley-based provider of accelerated compute platforms that are application-optimized server and storage systems for a variety of markets, including enterprise data centers, cloud computing, artificial intelligence (AI), fifth generation (5G) and edge computing. Its Total IT Solutions includes complete servers, storage systems, modular blade servers, blades, workstations, full rack scale solutions, networking devices, server sub-systems, server management and security software. It also provides global support and services to help its customers install, upgrade and maintain their computing infrastructure. Its products include servers &amp; storage, building blocks, IoT &amp; embedded, networking, and workstations &amp; gaming products. IoT &amp; Embedded products include Embedded SuperServers, Embedded Motherboards, Embedded Chassis and Global SKUs. It operates in the United States, Asia and Europe.</v>
     <v>5126</v>
@@ -1903,25 +1907,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>980 Rock Ave, SAN JOSE, CA, 95131-1615 US</v>
-    <v>270.7</v>
+    <v>274.2</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45262.040761446093</v>
+    <v>45269.041628089843</v>
     <v>0</v>
-    <v>260.25</v>
-    <v>14374929790</v>
+    <v>254.61009999999999</v>
+    <v>15142468417</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
     <v>SUPER MICRO COMPUTER, INC.</v>
-    <v>262.26</v>
-    <v>25.236599999999999</v>
-    <v>273.47000000000003</v>
-    <v>269.63</v>
-    <v>270.75009999999997</v>
-    <v>53313540</v>
+    <v>255</v>
+    <v>23.638200000000001</v>
+    <v>256.14999999999998</v>
+    <v>272.64999999999998</v>
+    <v>273.64999999999998</v>
+    <v>55538120</v>
     <v>SMCI</v>
     <v>SUPER MICRO COMPUTER, INC. (XNAS:SMCI)</v>
-    <v>4297581</v>
-    <v>3163484</v>
+    <v>3157504</v>
+    <v>3234827</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2086,9 +2090,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14041,7 +14045,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14090,7 +14094,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="65" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>14374929790</v>
+        <v>15142468417</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>201</v>
@@ -14118,7 +14122,7 @@
       </c>
       <c r="I3" s="70">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>37749027196.432198</v>
+        <v>37519876621.219673</v>
       </c>
       <c r="J3" s="71" t="s">
         <v>205</v>
@@ -14161,21 +14165,21 @@
       </c>
       <c r="G4" s="77">
         <f>A5*(1+(5*G3))</f>
-        <v>56075785.359254256</v>
+        <v>58415623.805444278</v>
       </c>
       <c r="H4" s="76" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="35">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>29373965200.843857</v>
+        <v>29286314922.931152</v>
       </c>
       <c r="J4" s="76" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="78" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.4041999999999999E-2</v>
+        <v>6.4415E-2</v>
       </c>
       <c r="L4" s="79" t="s">
         <v>213</v>
@@ -14190,7 +14194,7 @@
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="74" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>53313540</v>
+        <v>55538120</v>
       </c>
       <c r="B5" s="75" t="s">
         <v>215</v>
@@ -14218,14 +14222,14 @@
       </c>
       <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>29524122200.843857</v>
+        <v>29436471922.931152</v>
       </c>
       <c r="J5" s="76" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="81" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>269.63</v>
+        <v>272.64999999999998</v>
       </c>
       <c r="L5" s="82" t="s">
         <v>220</v>
@@ -14243,14 +14247,14 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="83">
         <f>O20/F10</f>
-        <v>1.367738324452902</v>
+        <v>1.4407676895337773</v>
       </c>
       <c r="B6" s="75" t="s">
         <v>222</v>
       </c>
       <c r="C6" s="36">
         <f>F17</f>
-        <v>2.6450999048525214E-2</v>
+        <v>3.8058991436726926E-2</v>
       </c>
       <c r="D6" s="80" t="s">
         <v>200</v>
@@ -14271,14 +14275,14 @@
       </c>
       <c r="I6" s="78">
         <f>N25</f>
-        <v>8.856521421105093E-2</v>
+        <v>8.8953435247783555E-2</v>
       </c>
       <c r="J6" s="76" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="84">
         <f>I5/G4</f>
-        <v>526.50394482565116</v>
+        <v>503.91436409154124</v>
       </c>
       <c r="L6" s="85" t="s">
         <v>226</v>
@@ -14296,14 +14300,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86">
         <f>O20/F12</f>
-        <v>14.176459358974359</v>
+        <v>14.933400805719922</v>
       </c>
       <c r="B7" s="87" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="88">
         <f>F15/A3</f>
-        <v>1.9339224890920319E-2</v>
+        <v>2.6415772447702903E-2</v>
       </c>
       <c r="D7" s="87" t="s">
         <v>229</v>
@@ -14330,7 +14334,7 @@
       </c>
       <c r="K7" s="94">
         <f>K6/K5-1</f>
-        <v>0.95269051969606933</v>
+        <v>0.84820966107295548</v>
       </c>
       <c r="L7" s="95" t="s">
         <v>232</v>
@@ -14643,7 +14647,7 @@
       </c>
       <c r="O14" s="100">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="34"/>
     </row>
@@ -14664,7 +14668,7 @@
         <v>672531822</v>
       </c>
       <c r="F15" s="45">
-        <v>278000000</v>
+        <v>400000000</v>
       </c>
       <c r="G15" s="44">
         <v>902000000</v>
@@ -14688,7 +14692,7 @@
       </c>
       <c r="O15" s="101" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1388</v>
+        <v>1.1417999999999999</v>
       </c>
       <c r="P15" s="34"/>
     </row>
@@ -14709,11 +14713,11 @@
       </c>
       <c r="F16" s="40">
         <f t="shared" si="3"/>
-        <v>-0.5866366602947154</v>
+        <v>-0.40523260474059764</v>
       </c>
       <c r="G16" s="39">
         <f t="shared" si="3"/>
-        <v>2.2446043165467624</v>
+        <v>1.2549999999999999</v>
       </c>
       <c r="H16" s="39">
         <f t="shared" si="3"/>
@@ -14729,7 +14733,7 @@
       </c>
       <c r="K16" s="58">
         <f>SUM(F16:J16)/5</f>
-        <v>0.55795440402595209</v>
+        <v>0.39631435182742319</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
@@ -14763,7 +14767,7 @@
       </c>
       <c r="F17" s="50">
         <f t="shared" si="4"/>
-        <v>2.6450999048525214E-2</v>
+        <v>3.8058991436726926E-2</v>
       </c>
       <c r="G17" s="50">
         <f t="shared" si="4"/>
@@ -14789,7 +14793,7 @@
       </c>
       <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.9731052000000006E-2</v>
+        <v>9.0067622E-2</v>
       </c>
       <c r="P17" s="34"/>
     </row>
@@ -14865,7 +14869,7 @@
       </c>
       <c r="O20" s="104" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>14374929790</v>
+        <v>15142468417</v>
       </c>
       <c r="P20" s="34"/>
     </row>
@@ -14893,7 +14897,7 @@
       </c>
       <c r="O21" s="104">
         <f>O19+O20</f>
-        <v>14665231790</v>
+        <v>15432770417</v>
       </c>
       <c r="P21" s="34"/>
     </row>
@@ -14919,7 +14923,7 @@
       </c>
       <c r="O22" s="105">
         <f>(O19/O21)</f>
-        <v>1.979525480108351E-2</v>
+        <v>1.8810750899282299E-2</v>
       </c>
       <c r="P22" s="34"/>
     </row>
@@ -14942,7 +14946,7 @@
       </c>
       <c r="O23" s="106">
         <f>O20/O21</f>
-        <v>0.98020474519891654</v>
+        <v>0.9811892491007177</v>
       </c>
       <c r="P23" s="34"/>
     </row>
@@ -14982,7 +14986,7 @@
       <c r="M25" s="38"/>
       <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.856521421105093E-2</v>
+        <v>8.8953435247783555E-2</v>
       </c>
       <c r="O25" s="110"/>
       <c r="P25" s="34"/>
